--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.596276424928135</v>
+        <v>2.596276424928021</v>
       </c>
       <c r="C2">
-        <v>0.7249420040398036</v>
+        <v>0.7249420040399173</v>
       </c>
       <c r="D2">
-        <v>0.007167474683207331</v>
+        <v>0.007167474683214436</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,22 +427,22 @@
         <v>1.309857833705479</v>
       </c>
       <c r="G2">
-        <v>0.9376869866286626</v>
+        <v>0.9376869866286768</v>
       </c>
       <c r="H2">
-        <v>0.5980212454245901</v>
+        <v>0.5980212454245972</v>
       </c>
       <c r="I2">
-        <v>0.04390541729339859</v>
+        <v>0.04390541729337727</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1852741034710093</v>
+        <v>0.1852741034710021</v>
       </c>
       <c r="L2">
-        <v>0.7275202375680649</v>
+        <v>0.7275202375680578</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>2.24746980361931</v>
       </c>
       <c r="C3">
-        <v>0.6291080544349086</v>
+        <v>0.6291080544350507</v>
       </c>
       <c r="D3">
-        <v>0.006666464816881046</v>
+        <v>0.006666464816882822</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.182869935115647</v>
+        <v>1.182869935115633</v>
       </c>
       <c r="G3">
-        <v>0.8507849168145043</v>
+        <v>0.8507849168145114</v>
       </c>
       <c r="H3">
-        <v>0.562871690029688</v>
+        <v>0.5628716900296808</v>
       </c>
       <c r="I3">
-        <v>0.04221543458743859</v>
+        <v>0.04221543458744392</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1618216834749049</v>
+        <v>0.1618216834749155</v>
       </c>
       <c r="L3">
-        <v>0.6293053153707859</v>
+        <v>0.6293053153707646</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>2.034977039861531</v>
       </c>
       <c r="C4">
-        <v>0.5707555461013101</v>
+        <v>0.5707555461012248</v>
       </c>
       <c r="D4">
-        <v>0.006364591179963242</v>
+        <v>0.006364591179961465</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.108192104542425</v>
+        <v>1.108192104542439</v>
       </c>
       <c r="G4">
         <v>0.7999497703543028</v>
@@ -509,16 +509,16 @@
         <v>0.5431219842346735</v>
       </c>
       <c r="I4">
-        <v>0.04130082579678884</v>
+        <v>0.04130082579680661</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1477209286765842</v>
+        <v>0.1477209286765664</v>
       </c>
       <c r="L4">
-        <v>0.5697376999810757</v>
+        <v>0.569737699981097</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.948728953988279</v>
+        <v>1.948728953988137</v>
       </c>
       <c r="C5">
-        <v>0.54707507760574</v>
+        <v>0.5470750776057969</v>
       </c>
       <c r="D5">
-        <v>0.006242755959167567</v>
+        <v>0.006242755959220858</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0.7798108117075557</v>
       </c>
       <c r="H5">
-        <v>0.5354978790054119</v>
+        <v>0.5354978790054048</v>
       </c>
       <c r="I5">
-        <v>0.04095677606789039</v>
+        <v>0.04095677606787262</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1420412802236406</v>
+        <v>0.142041280223637</v>
       </c>
       <c r="L5">
-        <v>0.5456219034639034</v>
+        <v>0.5456219034639247</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.934426194311101</v>
+        <v>1.934426194311129</v>
       </c>
       <c r="C6">
-        <v>0.5431482324479759</v>
+        <v>0.5431482324480896</v>
       </c>
       <c r="D6">
-        <v>0.006222589524689681</v>
+        <v>0.00622258952469501</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>1.073627224399274</v>
       </c>
       <c r="G6">
-        <v>0.7764999847083516</v>
+        <v>0.7764999847083445</v>
       </c>
       <c r="H6">
-        <v>0.5342564934795533</v>
+        <v>0.5342564934795604</v>
       </c>
       <c r="I6">
         <v>0.04090131446554146</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.14110195513992</v>
+        <v>0.1411019551399342</v>
       </c>
       <c r="L6">
-        <v>0.5416263230768052</v>
+        <v>0.541626323076791</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033812570677753</v>
+        <v>2.033812570677583</v>
       </c>
       <c r="C7">
-        <v>0.5704358145749495</v>
+        <v>0.5704358145749211</v>
       </c>
       <c r="D7">
-        <v>0.006362943612263194</v>
+        <v>0.006362943612334249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>1.107788883412709</v>
       </c>
       <c r="G7">
-        <v>0.7996759070371553</v>
+        <v>0.7996759070371624</v>
       </c>
       <c r="H7">
-        <v>0.5430174923729112</v>
+        <v>0.5430174923729183</v>
       </c>
       <c r="I7">
-        <v>0.04129607266502333</v>
+        <v>0.04129607266503221</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1476440726094133</v>
+        <v>0.1476440726094204</v>
       </c>
       <c r="L7">
         <v>0.5694118580639653</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.475611669012665</v>
+        <v>2.475611669012608</v>
       </c>
       <c r="C8">
         <v>0.6917813364451604</v>
       </c>
       <c r="D8">
-        <v>0.006993362986072782</v>
+        <v>0.006993362986150942</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,19 +655,19 @@
         <v>1.265341190883973</v>
       </c>
       <c r="G8">
-        <v>0.9071633576311626</v>
+        <v>0.9071633576311484</v>
       </c>
       <c r="H8">
         <v>0.5854984304354716</v>
       </c>
       <c r="I8">
-        <v>0.04329574468768627</v>
+        <v>0.04329574468765962</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1771201736813559</v>
+        <v>0.1771201736813488</v>
       </c>
       <c r="L8">
         <v>0.6934860140337449</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359131269328486</v>
+        <v>3.359131269328657</v>
       </c>
       <c r="C9">
-        <v>0.9348569007032665</v>
+        <v>0.9348569007031813</v>
       </c>
       <c r="D9">
-        <v>0.008289203357307429</v>
+        <v>0.008289203357303876</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>1.604201787413999</v>
       </c>
       <c r="G9">
-        <v>1.140821663803763</v>
+        <v>1.140821663803749</v>
       </c>
       <c r="H9">
-        <v>0.6851540802154403</v>
+        <v>0.6851540802154332</v>
       </c>
       <c r="I9">
-        <v>0.04830616066990956</v>
+        <v>0.04830616066991844</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2377281425148965</v>
+        <v>0.2377281425148681</v>
       </c>
       <c r="L9">
-        <v>0.9439760551190304</v>
+        <v>0.9439760551190233</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.024721691891557</v>
+        <v>4.024721691891443</v>
       </c>
       <c r="C10">
-        <v>1.118486248334875</v>
+        <v>1.118486248335046</v>
       </c>
       <c r="D10">
-        <v>0.009300631569256979</v>
+        <v>0.009300631569374218</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.877218415759586</v>
+        <v>1.877218415759572</v>
       </c>
       <c r="G10">
-        <v>1.330852740282424</v>
+        <v>1.33085274028241</v>
       </c>
       <c r="H10">
-        <v>0.7711358777586099</v>
+        <v>0.771135877758617</v>
       </c>
       <c r="I10">
-        <v>0.05282528035140466</v>
+        <v>0.05282528035143486</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2846364780944199</v>
+        <v>0.2846364780944342</v>
       </c>
       <c r="L10">
-        <v>1.134464156551367</v>
+        <v>1.13446415655136</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.332622883331794</v>
+        <v>4.332622883331737</v>
       </c>
       <c r="C11">
-        <v>1.203610883894328</v>
+        <v>1.203610883894441</v>
       </c>
       <c r="D11">
-        <v>0.009779966761055192</v>
+        <v>0.009779966761247039</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.008124434534679</v>
+        <v>2.008124434534693</v>
       </c>
       <c r="G11">
         <v>1.422413271926743</v>
       </c>
       <c r="H11">
-        <v>0.8137334645783199</v>
+        <v>0.813733464578327</v>
       </c>
       <c r="I11">
-        <v>0.05510734008174545</v>
+        <v>0.05510734008175611</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3066630765989942</v>
+        <v>0.3066630765989729</v>
       </c>
       <c r="L11">
-        <v>1.22305106851897</v>
+        <v>1.223051068518956</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.450098063216956</v>
+        <v>4.450098063217013</v>
       </c>
       <c r="C12">
-        <v>1.236120944703373</v>
+        <v>1.236120944703202</v>
       </c>
       <c r="D12">
-        <v>0.009964880270192822</v>
+        <v>0.009964880270093346</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.058800710246615</v>
+        <v>2.058800710246629</v>
       </c>
       <c r="G12">
-        <v>1.45792730345137</v>
+        <v>1.457927303451356</v>
       </c>
       <c r="H12">
         <v>0.8304327600258645</v>
       </c>
       <c r="I12">
-        <v>0.05600825480919269</v>
+        <v>0.05600825480918914</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3151190002647866</v>
+        <v>0.3151190002647937</v>
       </c>
       <c r="L12">
-        <v>1.256924510886705</v>
+        <v>1.256924510886691</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.424756086554964</v>
+        <v>4.424756086554851</v>
       </c>
       <c r="C13">
-        <v>1.229106278104894</v>
+        <v>1.229106278105121</v>
       </c>
       <c r="D13">
-        <v>0.009924893401361601</v>
+        <v>0.009924893401453971</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.04783510463713</v>
+        <v>2.047835104637144</v>
       </c>
       <c r="G13">
-        <v>1.450239432174541</v>
+        <v>1.450239432174556</v>
       </c>
       <c r="H13">
-        <v>0.8268098189535777</v>
+        <v>0.8268098189535849</v>
       </c>
       <c r="I13">
-        <v>0.05581251975522861</v>
+        <v>0.05581251975524104</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3132924780569297</v>
+        <v>0.3132924780569368</v>
       </c>
       <c r="L13">
-        <v>1.249613839285203</v>
+        <v>1.249613839285189</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.342269123521817</v>
+        <v>4.342269123521703</v>
       </c>
       <c r="C14">
-        <v>1.206279703389896</v>
+        <v>1.206279703390123</v>
       </c>
       <c r="D14">
-        <v>0.009795107563327576</v>
+        <v>0.009795107563313366</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.012270591879968</v>
+        <v>2.012270591879954</v>
       </c>
       <c r="G14">
-        <v>1.425317499327434</v>
+        <v>1.425317499327448</v>
       </c>
       <c r="H14">
-        <v>0.8150955155372159</v>
+        <v>0.815095515537223</v>
       </c>
       <c r="I14">
-        <v>0.05518069644488044</v>
+        <v>0.05518069644490531</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3073563484010648</v>
+        <v>0.3073563484010435</v>
       </c>
       <c r="L14">
-        <v>1.22583098802879</v>
+        <v>1.225830988028804</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,7 +912,7 @@
         <v>1.19233508674904</v>
       </c>
       <c r="D15">
-        <v>0.009716073340694464</v>
+        <v>0.009716073340698017</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>1.410165142106038</v>
       </c>
       <c r="H15">
-        <v>0.8079963481634636</v>
+        <v>0.8079963481634707</v>
       </c>
       <c r="I15">
-        <v>0.05479860578491014</v>
+        <v>0.05479860578491902</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0.3037357736242541</v>
       </c>
       <c r="L15">
-        <v>1.211307528468524</v>
+        <v>1.211307528468495</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>4.004714530483625</v>
       </c>
       <c r="C16">
-        <v>1.112959003871879</v>
+        <v>1.112959003871993</v>
       </c>
       <c r="D16">
-        <v>0.009269744757393283</v>
+        <v>0.009269744757162357</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.868810014094649</v>
+        <v>1.868810014094663</v>
       </c>
       <c r="G16">
         <v>1.324980780323131</v>
       </c>
       <c r="H16">
-        <v>0.7684277206912</v>
+        <v>0.7684277206912142</v>
       </c>
       <c r="I16">
-        <v>0.05268104418539998</v>
+        <v>0.05268104418539465</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2832121545537944</v>
+        <v>0.2832121545538016</v>
       </c>
       <c r="L16">
-        <v>1.128717790482</v>
+        <v>1.128717790481986</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.82996672721282</v>
+        <v>3.829966727212991</v>
       </c>
       <c r="C17">
-        <v>1.064703051767765</v>
+        <v>1.064703051767509</v>
       </c>
       <c r="D17">
-        <v>0.009001281850480325</v>
+        <v>0.009001281850384402</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.79588755250694</v>
+        <v>1.795887552506954</v>
       </c>
       <c r="G17">
-        <v>1.274104740476545</v>
+        <v>1.274104740476531</v>
       </c>
       <c r="H17">
         <v>0.7450915333207391</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2708085469079222</v>
+        <v>0.2708085469079293</v>
       </c>
       <c r="L17">
-        <v>1.07858015907793</v>
+        <v>1.078580159077937</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.729928868280979</v>
+        <v>3.729928868281092</v>
       </c>
       <c r="C18">
-        <v>1.037094129290551</v>
+        <v>1.037094129290722</v>
       </c>
       <c r="D18">
-        <v>0.008848635610245736</v>
+        <v>0.008848635610252842</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.754566675852459</v>
+        <v>1.754566675852431</v>
       </c>
       <c r="G18">
         <v>1.245316489370083</v>
       </c>
       <c r="H18">
-        <v>0.7319926191011703</v>
+        <v>0.7319926191011774</v>
       </c>
       <c r="I18">
-        <v>0.05075159110380056</v>
+        <v>0.0507515911038201</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2637379894495169</v>
+        <v>0.2637379894495453</v>
       </c>
       <c r="L18">
         <v>1.049920959927945</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.696134821051373</v>
+        <v>3.69613482105143</v>
       </c>
       <c r="C19">
-        <v>1.02777008215449</v>
+        <v>1.027770082154518</v>
       </c>
       <c r="D19">
-        <v>0.008797237939759839</v>
+        <v>0.008797237939837999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.740678996701249</v>
+        <v>1.740678996701234</v>
       </c>
       <c r="G19">
         <v>1.235647702189254</v>
       </c>
       <c r="H19">
-        <v>0.7276111762466542</v>
+        <v>0.7276111762466613</v>
       </c>
       <c r="I19">
-        <v>0.0505210546147854</v>
+        <v>0.05052105461481737</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2613544977088722</v>
+        <v>0.261354497708858</v>
       </c>
       <c r="L19">
-        <v>1.040246714195462</v>
+        <v>1.040246714195483</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,10 +1099,10 @@
         <v>3.848519048061519</v>
       </c>
       <c r="C20">
-        <v>1.069824486845334</v>
+        <v>1.069824486845391</v>
       </c>
       <c r="D20">
-        <v>0.009029673088583934</v>
+        <v>0.00902967308881486</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>1.803584915924787</v>
       </c>
       <c r="G20">
-        <v>1.279470762040802</v>
+        <v>1.27947076204083</v>
       </c>
       <c r="H20">
-        <v>0.7475417717681765</v>
+        <v>0.7475417717681694</v>
       </c>
       <c r="I20">
-        <v>0.05157239576575279</v>
+        <v>0.05157239576574391</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2721222325004788</v>
+        <v>0.2721222325004717</v>
       </c>
       <c r="L20">
         <v>1.083898566757277</v>
@@ -1137,31 +1137,31 @@
         <v>4.366472440408415</v>
       </c>
       <c r="C21">
-        <v>1.212976552987413</v>
+        <v>1.212976552987072</v>
       </c>
       <c r="D21">
-        <v>0.009833130964874925</v>
+        <v>0.009833130964889136</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.022685558963289</v>
+        <v>2.022685558963246</v>
       </c>
       <c r="G21">
-        <v>1.432613907284519</v>
+        <v>1.432613907284505</v>
       </c>
       <c r="H21">
-        <v>0.8185202818442221</v>
+        <v>0.8185202818442079</v>
       </c>
       <c r="I21">
-        <v>0.05536524482673499</v>
+        <v>0.05536524482674032</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3090966769768215</v>
+        <v>0.3090966769767931</v>
       </c>
       <c r="L21">
         <v>1.232807274715952</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.710192018448311</v>
+        <v>4.710192018448481</v>
       </c>
       <c r="C22">
-        <v>1.308164819657804</v>
+        <v>1.308164819657861</v>
       </c>
       <c r="D22">
-        <v>0.01037842693518698</v>
+        <v>0.01037842693529001</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.172399284488208</v>
+        <v>2.172399284488222</v>
       </c>
       <c r="G22">
         <v>1.537669238809954</v>
@@ -1193,13 +1193,13 @@
         <v>0.8682601269440937</v>
       </c>
       <c r="I22">
-        <v>0.0580606279199074</v>
+        <v>0.05806062791991273</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3339404103850967</v>
+        <v>0.3339404103850683</v>
       </c>
       <c r="L22">
         <v>1.332064174358464</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.52621390020596</v>
+        <v>4.526213900205846</v>
       </c>
       <c r="C23">
-        <v>1.257194956639808</v>
+        <v>1.257194956639751</v>
       </c>
       <c r="D23">
-        <v>0.01008530683864706</v>
+        <v>0.01008530683886022</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.091846837183866</v>
+        <v>2.09184683718388</v>
       </c>
       <c r="G23">
         <v>1.481105951537117</v>
@@ -1231,7 +1231,7 @@
         <v>0.8413818572251799</v>
       </c>
       <c r="I23">
-        <v>0.05660070894930413</v>
+        <v>0.05660070894931657</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,34 +1251,34 @@
         <v>3.840130224463451</v>
       </c>
       <c r="C24">
-        <v>1.067508671892597</v>
+        <v>1.067508671892483</v>
       </c>
       <c r="D24">
-        <v>0.009016832171614197</v>
+        <v>0.00901683217161775</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.800103069413879</v>
+        <v>1.800103069413893</v>
       </c>
       <c r="G24">
-        <v>1.277043355476565</v>
+        <v>1.277043355476536</v>
       </c>
       <c r="H24">
         <v>0.7464330354254471</v>
       </c>
       <c r="I24">
-        <v>0.05151373472669363</v>
+        <v>0.05151373472664389</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2715281281678443</v>
+        <v>0.2715281281678372</v>
       </c>
       <c r="L24">
-        <v>1.081493602527772</v>
+        <v>1.081493602527765</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.117697181229801</v>
+        <v>3.117697181229858</v>
       </c>
       <c r="C25">
-        <v>0.8683649045924824</v>
+        <v>0.8683649045923687</v>
       </c>
       <c r="D25">
-        <v>0.007930102949622153</v>
+        <v>0.007930102949842421</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.508764961675553</v>
+        <v>1.508764961675539</v>
       </c>
       <c r="G25">
         <v>1.07473392385657</v>
@@ -1307,16 +1307,16 @@
         <v>0.6561729936818423</v>
       </c>
       <c r="I25">
-        <v>0.04681725250401847</v>
+        <v>0.04681725250404511</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2209668466295085</v>
+        <v>0.2209668466295014</v>
       </c>
       <c r="L25">
-        <v>0.8752419573583552</v>
+        <v>0.8752419573583623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.596276424928021</v>
+        <v>2.596276424928135</v>
       </c>
       <c r="C2">
-        <v>0.7249420040399173</v>
+        <v>0.7249420040398036</v>
       </c>
       <c r="D2">
-        <v>0.007167474683214436</v>
+        <v>0.007167474683207331</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,22 +427,22 @@
         <v>1.309857833705479</v>
       </c>
       <c r="G2">
-        <v>0.9376869866286768</v>
+        <v>0.9376869866286626</v>
       </c>
       <c r="H2">
-        <v>0.5980212454245972</v>
+        <v>0.5980212454245901</v>
       </c>
       <c r="I2">
-        <v>0.04390541729337727</v>
+        <v>0.04390541729339859</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1852741034710021</v>
+        <v>0.1852741034710093</v>
       </c>
       <c r="L2">
-        <v>0.7275202375680578</v>
+        <v>0.7275202375680649</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>2.24746980361931</v>
       </c>
       <c r="C3">
-        <v>0.6291080544350507</v>
+        <v>0.6291080544349086</v>
       </c>
       <c r="D3">
-        <v>0.006666464816882822</v>
+        <v>0.006666464816881046</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.182869935115633</v>
+        <v>1.182869935115647</v>
       </c>
       <c r="G3">
-        <v>0.8507849168145114</v>
+        <v>0.8507849168145043</v>
       </c>
       <c r="H3">
-        <v>0.5628716900296808</v>
+        <v>0.562871690029688</v>
       </c>
       <c r="I3">
-        <v>0.04221543458744392</v>
+        <v>0.04221543458743859</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1618216834749155</v>
+        <v>0.1618216834749049</v>
       </c>
       <c r="L3">
-        <v>0.6293053153707646</v>
+        <v>0.6293053153707859</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>2.034977039861531</v>
       </c>
       <c r="C4">
-        <v>0.5707555461012248</v>
+        <v>0.5707555461013101</v>
       </c>
       <c r="D4">
-        <v>0.006364591179961465</v>
+        <v>0.006364591179963242</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.108192104542439</v>
+        <v>1.108192104542425</v>
       </c>
       <c r="G4">
         <v>0.7999497703543028</v>
@@ -509,16 +509,16 @@
         <v>0.5431219842346735</v>
       </c>
       <c r="I4">
-        <v>0.04130082579680661</v>
+        <v>0.04130082579678884</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1477209286765664</v>
+        <v>0.1477209286765842</v>
       </c>
       <c r="L4">
-        <v>0.569737699981097</v>
+        <v>0.5697376999810757</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.948728953988137</v>
+        <v>1.948728953988279</v>
       </c>
       <c r="C5">
-        <v>0.5470750776057969</v>
+        <v>0.54707507760574</v>
       </c>
       <c r="D5">
-        <v>0.006242755959220858</v>
+        <v>0.006242755959167567</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0.7798108117075557</v>
       </c>
       <c r="H5">
-        <v>0.5354978790054048</v>
+        <v>0.5354978790054119</v>
       </c>
       <c r="I5">
-        <v>0.04095677606787262</v>
+        <v>0.04095677606789039</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.142041280223637</v>
+        <v>0.1420412802236406</v>
       </c>
       <c r="L5">
-        <v>0.5456219034639247</v>
+        <v>0.5456219034639034</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.934426194311129</v>
+        <v>1.934426194311101</v>
       </c>
       <c r="C6">
-        <v>0.5431482324480896</v>
+        <v>0.5431482324479759</v>
       </c>
       <c r="D6">
-        <v>0.00622258952469501</v>
+        <v>0.006222589524689681</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>1.073627224399274</v>
       </c>
       <c r="G6">
-        <v>0.7764999847083445</v>
+        <v>0.7764999847083516</v>
       </c>
       <c r="H6">
-        <v>0.5342564934795604</v>
+        <v>0.5342564934795533</v>
       </c>
       <c r="I6">
         <v>0.04090131446554146</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1411019551399342</v>
+        <v>0.14110195513992</v>
       </c>
       <c r="L6">
-        <v>0.541626323076791</v>
+        <v>0.5416263230768052</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033812570677583</v>
+        <v>2.033812570677753</v>
       </c>
       <c r="C7">
-        <v>0.5704358145749211</v>
+        <v>0.5704358145749495</v>
       </c>
       <c r="D7">
-        <v>0.006362943612334249</v>
+        <v>0.006362943612263194</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>1.107788883412709</v>
       </c>
       <c r="G7">
-        <v>0.7996759070371624</v>
+        <v>0.7996759070371553</v>
       </c>
       <c r="H7">
-        <v>0.5430174923729183</v>
+        <v>0.5430174923729112</v>
       </c>
       <c r="I7">
-        <v>0.04129607266503221</v>
+        <v>0.04129607266502333</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1476440726094204</v>
+        <v>0.1476440726094133</v>
       </c>
       <c r="L7">
         <v>0.5694118580639653</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.475611669012608</v>
+        <v>2.475611669012665</v>
       </c>
       <c r="C8">
         <v>0.6917813364451604</v>
       </c>
       <c r="D8">
-        <v>0.006993362986150942</v>
+        <v>0.006993362986072782</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,19 +655,19 @@
         <v>1.265341190883973</v>
       </c>
       <c r="G8">
-        <v>0.9071633576311484</v>
+        <v>0.9071633576311626</v>
       </c>
       <c r="H8">
         <v>0.5854984304354716</v>
       </c>
       <c r="I8">
-        <v>0.04329574468765962</v>
+        <v>0.04329574468768627</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1771201736813488</v>
+        <v>0.1771201736813559</v>
       </c>
       <c r="L8">
         <v>0.6934860140337449</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359131269328657</v>
+        <v>3.359131269328486</v>
       </c>
       <c r="C9">
-        <v>0.9348569007031813</v>
+        <v>0.9348569007032665</v>
       </c>
       <c r="D9">
-        <v>0.008289203357303876</v>
+        <v>0.008289203357307429</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,22 +693,22 @@
         <v>1.604201787413999</v>
       </c>
       <c r="G9">
-        <v>1.140821663803749</v>
+        <v>1.140821663803763</v>
       </c>
       <c r="H9">
-        <v>0.6851540802154332</v>
+        <v>0.6851540802154403</v>
       </c>
       <c r="I9">
-        <v>0.04830616066991844</v>
+        <v>0.04830616066990956</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2377281425148681</v>
+        <v>0.2377281425148965</v>
       </c>
       <c r="L9">
-        <v>0.9439760551190233</v>
+        <v>0.9439760551190304</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.024721691891443</v>
+        <v>4.024721691891557</v>
       </c>
       <c r="C10">
-        <v>1.118486248335046</v>
+        <v>1.118486248334875</v>
       </c>
       <c r="D10">
-        <v>0.009300631569374218</v>
+        <v>0.009300631569256979</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.877218415759572</v>
+        <v>1.877218415759586</v>
       </c>
       <c r="G10">
-        <v>1.33085274028241</v>
+        <v>1.330852740282424</v>
       </c>
       <c r="H10">
-        <v>0.771135877758617</v>
+        <v>0.7711358777586099</v>
       </c>
       <c r="I10">
-        <v>0.05282528035143486</v>
+        <v>0.05282528035140466</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2846364780944342</v>
+        <v>0.2846364780944199</v>
       </c>
       <c r="L10">
-        <v>1.13446415655136</v>
+        <v>1.134464156551367</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.332622883331737</v>
+        <v>4.332622883331794</v>
       </c>
       <c r="C11">
-        <v>1.203610883894441</v>
+        <v>1.203610883894328</v>
       </c>
       <c r="D11">
-        <v>0.009779966761247039</v>
+        <v>0.009779966761055192</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.008124434534693</v>
+        <v>2.008124434534679</v>
       </c>
       <c r="G11">
         <v>1.422413271926743</v>
       </c>
       <c r="H11">
-        <v>0.813733464578327</v>
+        <v>0.8137334645783199</v>
       </c>
       <c r="I11">
-        <v>0.05510734008175611</v>
+        <v>0.05510734008174545</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3066630765989729</v>
+        <v>0.3066630765989942</v>
       </c>
       <c r="L11">
-        <v>1.223051068518956</v>
+        <v>1.22305106851897</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.450098063217013</v>
+        <v>4.450098063216956</v>
       </c>
       <c r="C12">
-        <v>1.236120944703202</v>
+        <v>1.236120944703373</v>
       </c>
       <c r="D12">
-        <v>0.009964880270093346</v>
+        <v>0.009964880270192822</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.058800710246629</v>
+        <v>2.058800710246615</v>
       </c>
       <c r="G12">
-        <v>1.457927303451356</v>
+        <v>1.45792730345137</v>
       </c>
       <c r="H12">
         <v>0.8304327600258645</v>
       </c>
       <c r="I12">
-        <v>0.05600825480918914</v>
+        <v>0.05600825480919269</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3151190002647937</v>
+        <v>0.3151190002647866</v>
       </c>
       <c r="L12">
-        <v>1.256924510886691</v>
+        <v>1.256924510886705</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.424756086554851</v>
+        <v>4.424756086554964</v>
       </c>
       <c r="C13">
-        <v>1.229106278105121</v>
+        <v>1.229106278104894</v>
       </c>
       <c r="D13">
-        <v>0.009924893401453971</v>
+        <v>0.009924893401361601</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.047835104637144</v>
+        <v>2.04783510463713</v>
       </c>
       <c r="G13">
-        <v>1.450239432174556</v>
+        <v>1.450239432174541</v>
       </c>
       <c r="H13">
-        <v>0.8268098189535849</v>
+        <v>0.8268098189535777</v>
       </c>
       <c r="I13">
-        <v>0.05581251975524104</v>
+        <v>0.05581251975522861</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3132924780569368</v>
+        <v>0.3132924780569297</v>
       </c>
       <c r="L13">
-        <v>1.249613839285189</v>
+        <v>1.249613839285203</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.342269123521703</v>
+        <v>4.342269123521817</v>
       </c>
       <c r="C14">
-        <v>1.206279703390123</v>
+        <v>1.206279703389896</v>
       </c>
       <c r="D14">
-        <v>0.009795107563313366</v>
+        <v>0.009795107563327576</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.012270591879954</v>
+        <v>2.012270591879968</v>
       </c>
       <c r="G14">
-        <v>1.425317499327448</v>
+        <v>1.425317499327434</v>
       </c>
       <c r="H14">
-        <v>0.815095515537223</v>
+        <v>0.8150955155372159</v>
       </c>
       <c r="I14">
-        <v>0.05518069644490531</v>
+        <v>0.05518069644488044</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3073563484010435</v>
+        <v>0.3073563484010648</v>
       </c>
       <c r="L14">
-        <v>1.225830988028804</v>
+        <v>1.22583098802879</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,7 +912,7 @@
         <v>1.19233508674904</v>
       </c>
       <c r="D15">
-        <v>0.009716073340698017</v>
+        <v>0.009716073340694464</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>1.410165142106038</v>
       </c>
       <c r="H15">
-        <v>0.8079963481634707</v>
+        <v>0.8079963481634636</v>
       </c>
       <c r="I15">
-        <v>0.05479860578491902</v>
+        <v>0.05479860578491014</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0.3037357736242541</v>
       </c>
       <c r="L15">
-        <v>1.211307528468495</v>
+        <v>1.211307528468524</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>4.004714530483625</v>
       </c>
       <c r="C16">
-        <v>1.112959003871993</v>
+        <v>1.112959003871879</v>
       </c>
       <c r="D16">
-        <v>0.009269744757162357</v>
+        <v>0.009269744757393283</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.868810014094663</v>
+        <v>1.868810014094649</v>
       </c>
       <c r="G16">
         <v>1.324980780323131</v>
       </c>
       <c r="H16">
-        <v>0.7684277206912142</v>
+        <v>0.7684277206912</v>
       </c>
       <c r="I16">
-        <v>0.05268104418539465</v>
+        <v>0.05268104418539998</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2832121545538016</v>
+        <v>0.2832121545537944</v>
       </c>
       <c r="L16">
-        <v>1.128717790481986</v>
+        <v>1.128717790482</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.829966727212991</v>
+        <v>3.82996672721282</v>
       </c>
       <c r="C17">
-        <v>1.064703051767509</v>
+        <v>1.064703051767765</v>
       </c>
       <c r="D17">
-        <v>0.009001281850384402</v>
+        <v>0.009001281850480325</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.795887552506954</v>
+        <v>1.79588755250694</v>
       </c>
       <c r="G17">
-        <v>1.274104740476531</v>
+        <v>1.274104740476545</v>
       </c>
       <c r="H17">
         <v>0.7450915333207391</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2708085469079293</v>
+        <v>0.2708085469079222</v>
       </c>
       <c r="L17">
-        <v>1.078580159077937</v>
+        <v>1.07858015907793</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.729928868281092</v>
+        <v>3.729928868280979</v>
       </c>
       <c r="C18">
-        <v>1.037094129290722</v>
+        <v>1.037094129290551</v>
       </c>
       <c r="D18">
-        <v>0.008848635610252842</v>
+        <v>0.008848635610245736</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.754566675852431</v>
+        <v>1.754566675852459</v>
       </c>
       <c r="G18">
         <v>1.245316489370083</v>
       </c>
       <c r="H18">
-        <v>0.7319926191011774</v>
+        <v>0.7319926191011703</v>
       </c>
       <c r="I18">
-        <v>0.0507515911038201</v>
+        <v>0.05075159110380056</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2637379894495453</v>
+        <v>0.2637379894495169</v>
       </c>
       <c r="L18">
         <v>1.049920959927945</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.69613482105143</v>
+        <v>3.696134821051373</v>
       </c>
       <c r="C19">
-        <v>1.027770082154518</v>
+        <v>1.02777008215449</v>
       </c>
       <c r="D19">
-        <v>0.008797237939837999</v>
+        <v>0.008797237939759839</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.740678996701234</v>
+        <v>1.740678996701249</v>
       </c>
       <c r="G19">
         <v>1.235647702189254</v>
       </c>
       <c r="H19">
-        <v>0.7276111762466613</v>
+        <v>0.7276111762466542</v>
       </c>
       <c r="I19">
-        <v>0.05052105461481737</v>
+        <v>0.0505210546147854</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.261354497708858</v>
+        <v>0.2613544977088722</v>
       </c>
       <c r="L19">
-        <v>1.040246714195483</v>
+        <v>1.040246714195462</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,10 +1099,10 @@
         <v>3.848519048061519</v>
       </c>
       <c r="C20">
-        <v>1.069824486845391</v>
+        <v>1.069824486845334</v>
       </c>
       <c r="D20">
-        <v>0.00902967308881486</v>
+        <v>0.009029673088583934</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,19 +1111,19 @@
         <v>1.803584915924787</v>
       </c>
       <c r="G20">
-        <v>1.27947076204083</v>
+        <v>1.279470762040802</v>
       </c>
       <c r="H20">
-        <v>0.7475417717681694</v>
+        <v>0.7475417717681765</v>
       </c>
       <c r="I20">
-        <v>0.05157239576574391</v>
+        <v>0.05157239576575279</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2721222325004717</v>
+        <v>0.2721222325004788</v>
       </c>
       <c r="L20">
         <v>1.083898566757277</v>
@@ -1137,31 +1137,31 @@
         <v>4.366472440408415</v>
       </c>
       <c r="C21">
-        <v>1.212976552987072</v>
+        <v>1.212976552987413</v>
       </c>
       <c r="D21">
-        <v>0.009833130964889136</v>
+        <v>0.009833130964874925</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.022685558963246</v>
+        <v>2.022685558963289</v>
       </c>
       <c r="G21">
-        <v>1.432613907284505</v>
+        <v>1.432613907284519</v>
       </c>
       <c r="H21">
-        <v>0.8185202818442079</v>
+        <v>0.8185202818442221</v>
       </c>
       <c r="I21">
-        <v>0.05536524482674032</v>
+        <v>0.05536524482673499</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3090966769767931</v>
+        <v>0.3090966769768215</v>
       </c>
       <c r="L21">
         <v>1.232807274715952</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.710192018448481</v>
+        <v>4.710192018448311</v>
       </c>
       <c r="C22">
-        <v>1.308164819657861</v>
+        <v>1.308164819657804</v>
       </c>
       <c r="D22">
-        <v>0.01037842693529001</v>
+        <v>0.01037842693518698</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.172399284488222</v>
+        <v>2.172399284488208</v>
       </c>
       <c r="G22">
         <v>1.537669238809954</v>
@@ -1193,13 +1193,13 @@
         <v>0.8682601269440937</v>
       </c>
       <c r="I22">
-        <v>0.05806062791991273</v>
+        <v>0.0580606279199074</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3339404103850683</v>
+        <v>0.3339404103850967</v>
       </c>
       <c r="L22">
         <v>1.332064174358464</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.526213900205846</v>
+        <v>4.52621390020596</v>
       </c>
       <c r="C23">
-        <v>1.257194956639751</v>
+        <v>1.257194956639808</v>
       </c>
       <c r="D23">
-        <v>0.01008530683886022</v>
+        <v>0.01008530683864706</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.09184683718388</v>
+        <v>2.091846837183866</v>
       </c>
       <c r="G23">
         <v>1.481105951537117</v>
@@ -1231,7 +1231,7 @@
         <v>0.8413818572251799</v>
       </c>
       <c r="I23">
-        <v>0.05660070894931657</v>
+        <v>0.05660070894930413</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,34 +1251,34 @@
         <v>3.840130224463451</v>
       </c>
       <c r="C24">
-        <v>1.067508671892483</v>
+        <v>1.067508671892597</v>
       </c>
       <c r="D24">
-        <v>0.00901683217161775</v>
+        <v>0.009016832171614197</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.800103069413893</v>
+        <v>1.800103069413879</v>
       </c>
       <c r="G24">
-        <v>1.277043355476536</v>
+        <v>1.277043355476565</v>
       </c>
       <c r="H24">
         <v>0.7464330354254471</v>
       </c>
       <c r="I24">
-        <v>0.05151373472664389</v>
+        <v>0.05151373472669363</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.2715281281678372</v>
+        <v>0.2715281281678443</v>
       </c>
       <c r="L24">
-        <v>1.081493602527765</v>
+        <v>1.081493602527772</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.117697181229858</v>
+        <v>3.117697181229801</v>
       </c>
       <c r="C25">
-        <v>0.8683649045923687</v>
+        <v>0.8683649045924824</v>
       </c>
       <c r="D25">
-        <v>0.007930102949842421</v>
+        <v>0.007930102949622153</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.508764961675539</v>
+        <v>1.508764961675553</v>
       </c>
       <c r="G25">
         <v>1.07473392385657</v>
@@ -1307,16 +1307,16 @@
         <v>0.6561729936818423</v>
       </c>
       <c r="I25">
-        <v>0.04681725250404511</v>
+        <v>0.04681725250401847</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2209668466295014</v>
+        <v>0.2209668466295085</v>
       </c>
       <c r="L25">
-        <v>0.8752419573583623</v>
+        <v>0.8752419573583552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.596276424928135</v>
+        <v>2.59620561978096</v>
       </c>
       <c r="C2">
-        <v>0.7249420040398036</v>
+        <v>0.724599074251131</v>
       </c>
       <c r="D2">
-        <v>0.007167474683207331</v>
+        <v>0.007210428131322999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.309857833705479</v>
+        <v>1.308083105920133</v>
       </c>
       <c r="G2">
-        <v>0.9376869866286626</v>
+        <v>0.2949271621949521</v>
       </c>
       <c r="H2">
-        <v>0.5980212454245901</v>
+        <v>0.6452107684514772</v>
       </c>
       <c r="I2">
-        <v>0.04390541729339859</v>
+        <v>0.5970057279405125</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04389247862071244</v>
       </c>
       <c r="K2">
-        <v>0.1852741034710093</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7275202375680649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1852865762510305</v>
+      </c>
+      <c r="M2">
+        <v>0.7275314256344743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.24746980361931</v>
+        <v>2.247432305011671</v>
       </c>
       <c r="C3">
-        <v>0.6291080544349086</v>
+        <v>0.6288222623902016</v>
       </c>
       <c r="D3">
-        <v>0.006666464816881046</v>
+        <v>0.006702961249491324</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.182869935115647</v>
+        <v>1.181287944859818</v>
       </c>
       <c r="G3">
-        <v>0.8507849168145043</v>
+        <v>0.2634092097948511</v>
       </c>
       <c r="H3">
-        <v>0.562871690029688</v>
+        <v>0.5900869560639137</v>
       </c>
       <c r="I3">
-        <v>0.04221543458743859</v>
+        <v>0.561957935657631</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04220478784365334</v>
       </c>
       <c r="K3">
-        <v>0.1618216834749049</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6293053153707859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1618334772710455</v>
+      </c>
+      <c r="M3">
+        <v>0.629319209519025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034977039861531</v>
+        <v>2.034956903492798</v>
       </c>
       <c r="C4">
-        <v>0.5707555461013101</v>
+        <v>0.5705036748299506</v>
       </c>
       <c r="D4">
-        <v>0.006364591179963242</v>
+        <v>0.006397043684929216</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.108192104542425</v>
+        <v>1.106725094330159</v>
       </c>
       <c r="G4">
-        <v>0.7999497703543028</v>
+        <v>0.2448610596477181</v>
       </c>
       <c r="H4">
-        <v>0.5431219842346735</v>
+        <v>0.5579554660701547</v>
       </c>
       <c r="I4">
-        <v>0.04130082579678884</v>
+        <v>0.5422690116036719</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04129166783708094</v>
       </c>
       <c r="K4">
-        <v>0.1477209286765842</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5697376999810757</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1477322206381508</v>
+      </c>
+      <c r="M4">
+        <v>0.5697524743357363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.948728953988279</v>
+        <v>1.948715213774165</v>
       </c>
       <c r="C5">
-        <v>0.54707507760574</v>
+        <v>0.5468367826802876</v>
       </c>
       <c r="D5">
-        <v>0.006242755959167567</v>
+        <v>0.006273541456032206</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.078512244648365</v>
+        <v>1.077091358533778</v>
       </c>
       <c r="G5">
-        <v>0.7798108117075557</v>
+        <v>0.2374850464916705</v>
       </c>
       <c r="H5">
-        <v>0.5354978790054119</v>
+        <v>0.5452549492220626</v>
       </c>
       <c r="I5">
-        <v>0.04095677606789039</v>
+        <v>0.5346693039924162</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04094824492734972</v>
       </c>
       <c r="K5">
-        <v>0.1420412802236406</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5456219034639034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.142052350378588</v>
+      </c>
+      <c r="M5">
+        <v>0.5456368646383041</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.934426194311101</v>
+        <v>1.934413477825814</v>
       </c>
       <c r="C6">
-        <v>0.5431482324479759</v>
+        <v>0.5429121782181596</v>
       </c>
       <c r="D6">
-        <v>0.006222589524689681</v>
+        <v>0.006253097087757453</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.073627224399274</v>
+        <v>1.072213956117707</v>
       </c>
       <c r="G6">
-        <v>0.7764999847083516</v>
+        <v>0.2362707412118539</v>
       </c>
       <c r="H6">
-        <v>0.5342564934795533</v>
+        <v>0.543168740876304</v>
       </c>
       <c r="I6">
-        <v>0.04090131446554146</v>
+        <v>0.5334319487824644</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04089288861187512</v>
       </c>
       <c r="K6">
-        <v>0.14110195513992</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5416263230768052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1411129875269417</v>
+      </c>
+      <c r="M6">
+        <v>0.5416413055616758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033812570677753</v>
+        <v>2.033792523197462</v>
       </c>
       <c r="C7">
-        <v>0.5704358145749495</v>
+        <v>0.5701841273407524</v>
       </c>
       <c r="D7">
-        <v>0.006362943612263194</v>
+        <v>0.00639537371146659</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.107788883412709</v>
+        <v>1.106322498064074</v>
       </c>
       <c r="G7">
-        <v>0.7996759070371553</v>
+        <v>0.2447608700994692</v>
       </c>
       <c r="H7">
-        <v>0.5430174923729112</v>
+        <v>0.5577826378648183</v>
       </c>
       <c r="I7">
-        <v>0.04129607266502333</v>
+        <v>0.5421648502101419</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04128692307784476</v>
       </c>
       <c r="K7">
-        <v>0.1476440726094133</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5694118580639653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1476553616447553</v>
+      </c>
+      <c r="M7">
+        <v>0.5694266356033992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.475611669012665</v>
+        <v>2.47555305067516</v>
       </c>
       <c r="C8">
-        <v>0.6917813364451604</v>
+        <v>0.6914583777775078</v>
       </c>
       <c r="D8">
-        <v>0.006993362986072782</v>
+        <v>0.00703410705913754</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.265341190883973</v>
+        <v>1.263633689056803</v>
       </c>
       <c r="G8">
-        <v>0.9071633576311626</v>
+        <v>0.2838805832940778</v>
       </c>
       <c r="H8">
-        <v>0.5854984304354716</v>
+        <v>0.6258244603093601</v>
       </c>
       <c r="I8">
-        <v>0.04329574468768627</v>
+        <v>0.5845183896951269</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04328357913899872</v>
       </c>
       <c r="K8">
-        <v>0.1771201736813559</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6934860140337449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1771324325981354</v>
+      </c>
+      <c r="M8">
+        <v>0.6934983129917995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.359131269328486</v>
+        <v>3.358967541718584</v>
       </c>
       <c r="C9">
-        <v>0.9348569007032665</v>
+        <v>0.9343826416663319</v>
       </c>
       <c r="D9">
-        <v>0.008289203357307429</v>
+        <v>0.008345578441474544</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.604201787413999</v>
+        <v>1.601988954129681</v>
       </c>
       <c r="G9">
-        <v>1.140821663803763</v>
+        <v>0.3679474140930523</v>
       </c>
       <c r="H9">
-        <v>0.6851540802154403</v>
+        <v>0.7747351865046426</v>
       </c>
       <c r="I9">
-        <v>0.04830616066990956</v>
+        <v>0.6839078338807454</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04828874149574247</v>
       </c>
       <c r="K9">
-        <v>0.2377281425148965</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9439760551190304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2377414122078179</v>
+      </c>
+      <c r="M9">
+        <v>0.9439760255938268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.024721691891557</v>
+        <v>4.024454795953886</v>
       </c>
       <c r="C10">
-        <v>1.118486248334875</v>
+        <v>1.117890092524988</v>
       </c>
       <c r="D10">
-        <v>0.009300631569256979</v>
+        <v>0.009368010981077646</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.877218415759586</v>
+        <v>1.874605141008587</v>
       </c>
       <c r="G10">
-        <v>1.330852740282424</v>
+        <v>0.4356996618279965</v>
       </c>
       <c r="H10">
-        <v>0.7711358777586099</v>
+        <v>0.8964768774344662</v>
       </c>
       <c r="I10">
-        <v>0.05282528035140466</v>
+        <v>0.7696794453885616</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05280441632787358</v>
       </c>
       <c r="K10">
-        <v>0.2846364780944199</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.134464156551367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2846495784143244</v>
+      </c>
+      <c r="M10">
+        <v>1.13444845426708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.332622883331794</v>
+        <v>4.332301274089616</v>
       </c>
       <c r="C11">
-        <v>1.203610883894328</v>
+        <v>1.202955955470827</v>
       </c>
       <c r="D11">
-        <v>0.009779966761055192</v>
+        <v>0.009852228965765875</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.008124434534679</v>
+        <v>2.00532014762021</v>
       </c>
       <c r="G11">
-        <v>1.422413271926743</v>
+        <v>0.4682050484563405</v>
       </c>
       <c r="H11">
-        <v>0.8137334645783199</v>
+        <v>0.9552765824902707</v>
       </c>
       <c r="I11">
-        <v>0.05510734008174545</v>
+        <v>0.8121770054652728</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05508499892948926</v>
       </c>
       <c r="K11">
-        <v>0.3066630765989942</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.22305106851897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.3066757955119215</v>
+      </c>
+      <c r="M11">
+        <v>1.223026235799438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.450098063216956</v>
+        <v>4.449754401117843</v>
       </c>
       <c r="C12">
-        <v>1.236120944703373</v>
+        <v>1.235443184873986</v>
       </c>
       <c r="D12">
-        <v>0.009964880270192822</v>
+        <v>0.0100389717543159</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.058800710246615</v>
+        <v>2.055922569811429</v>
       </c>
       <c r="G12">
-        <v>1.45792730345137</v>
+        <v>0.4807926789573713</v>
       </c>
       <c r="H12">
-        <v>0.8304327600258645</v>
+        <v>0.9781043609728357</v>
       </c>
       <c r="I12">
-        <v>0.05600825480919269</v>
+        <v>0.8288376658565966</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0559853669616146</v>
       </c>
       <c r="K12">
-        <v>0.3151190002647866</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.256924510886705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.3151315197092472</v>
+      </c>
+      <c r="M12">
+        <v>1.256895875574102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.424756086554964</v>
+        <v>4.424417237077762</v>
       </c>
       <c r="C13">
-        <v>1.229106278104894</v>
+        <v>1.228433462750047</v>
       </c>
       <c r="D13">
-        <v>0.009924893401361601</v>
+        <v>0.009998591831099191</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.04783510463713</v>
+        <v>2.044972941938113</v>
       </c>
       <c r="G13">
-        <v>1.450239432174541</v>
+        <v>0.4780686927429372</v>
       </c>
       <c r="H13">
-        <v>0.8268098189535777</v>
+        <v>0.9731618054468356</v>
       </c>
       <c r="I13">
-        <v>0.05581251975522861</v>
+        <v>0.8252230813736006</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0557897490925523</v>
       </c>
       <c r="K13">
-        <v>0.3132924780569297</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.249613839285203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3133050431132389</v>
+      </c>
+      <c r="M13">
+        <v>1.24958603930024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.342269123521817</v>
+        <v>4.341945728074677</v>
       </c>
       <c r="C14">
-        <v>1.206279703389896</v>
+        <v>1.205622908763416</v>
       </c>
       <c r="D14">
-        <v>0.009795107563327576</v>
+        <v>0.009867520672251828</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.012270591879968</v>
+        <v>2.009460261051132</v>
       </c>
       <c r="G14">
-        <v>1.425317499327434</v>
+        <v>0.4692348339679597</v>
       </c>
       <c r="H14">
-        <v>0.8150955155372159</v>
+        <v>0.9571429504446201</v>
       </c>
       <c r="I14">
-        <v>0.05518069644488044</v>
+        <v>0.8135358938414399</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.0551583100645221</v>
       </c>
       <c r="K14">
-        <v>0.3073563484010648</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.22583098802879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.3073690520795722</v>
+      </c>
+      <c r="M14">
+        <v>1.22580584974871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.29186258867702</v>
+        <v>4.29154847853971</v>
       </c>
       <c r="C15">
-        <v>1.19233508674904</v>
+        <v>1.191688027165014</v>
       </c>
       <c r="D15">
-        <v>0.009716073340694464</v>
+        <v>0.009787696517729927</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.990634658404048</v>
+        <v>1.987855869898439</v>
       </c>
       <c r="G15">
-        <v>1.410165142106038</v>
+        <v>0.4638612689763306</v>
       </c>
       <c r="H15">
-        <v>0.8079963481634636</v>
+        <v>0.9474063007865539</v>
       </c>
       <c r="I15">
-        <v>0.05479860578491014</v>
+        <v>0.8064532331569723</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05477645642456253</v>
       </c>
       <c r="K15">
-        <v>0.3037357736242541</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.211307528468524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.3037485546709249</v>
+      </c>
+      <c r="M15">
+        <v>1.211283973743136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.004714530483625</v>
+        <v>4.004451035997249</v>
       </c>
       <c r="C16">
-        <v>1.112959003871879</v>
+        <v>1.112366614133407</v>
       </c>
       <c r="D16">
-        <v>0.009269744757393283</v>
+        <v>0.009336802424705581</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.868810014094649</v>
+        <v>1.86620902398171</v>
       </c>
       <c r="G16">
-        <v>1.324980780323131</v>
+        <v>0.4336122604925237</v>
       </c>
       <c r="H16">
-        <v>0.7684277206912</v>
+        <v>0.8927087647069811</v>
       </c>
       <c r="I16">
-        <v>0.05268104418539998</v>
+        <v>0.7669777264736837</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.05266027848838739</v>
       </c>
       <c r="K16">
-        <v>0.2832121545537944</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.128717790482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2832252727631968</v>
+      </c>
+      <c r="M16">
+        <v>1.128702639949196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.82996672721282</v>
+        <v>3.829732148288372</v>
       </c>
       <c r="C17">
-        <v>1.064703051767765</v>
+        <v>1.064143284566171</v>
       </c>
       <c r="D17">
-        <v>0.009001281850480325</v>
+        <v>0.00906550586037369</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.79588755250694</v>
+        <v>1.793393204387584</v>
       </c>
       <c r="G17">
-        <v>1.274104740476545</v>
+        <v>0.4155114121515737</v>
       </c>
       <c r="H17">
-        <v>0.7450915333207391</v>
+        <v>0.8600764264531193</v>
       </c>
       <c r="I17">
-        <v>0.05144278531875734</v>
+        <v>0.7436974543002748</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.05142289137956624</v>
       </c>
       <c r="K17">
-        <v>0.2708085469079222</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.07858015907793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2708217866799956</v>
+      </c>
+      <c r="M17">
+        <v>1.078569613975297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.729928868280979</v>
+        <v>3.729710203141053</v>
       </c>
       <c r="C18">
-        <v>1.037094129290551</v>
+        <v>1.036552819791211</v>
       </c>
       <c r="D18">
-        <v>0.008848635610245736</v>
+        <v>0.008911218326051795</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.754566675852459</v>
+        <v>1.752132849466875</v>
       </c>
       <c r="G18">
-        <v>1.245316489370083</v>
+        <v>0.405256424495704</v>
       </c>
       <c r="H18">
-        <v>0.7319926191011703</v>
+        <v>0.8416243044359248</v>
       </c>
       <c r="I18">
-        <v>0.05075159110380056</v>
+        <v>0.730630294126513</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.05073220707335757</v>
       </c>
       <c r="K18">
-        <v>0.2637379894495169</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.049920959927945</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2637512712900687</v>
+      </c>
+      <c r="M18">
+        <v>1.049912879385573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.696134821051373</v>
+        <v>3.695921426786015</v>
       </c>
       <c r="C19">
-        <v>1.02777008215449</v>
+        <v>1.027234972315227</v>
       </c>
       <c r="D19">
-        <v>0.008797237939759839</v>
+        <v>0.008859263031112619</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.740678996701249</v>
+        <v>1.73826552875633</v>
       </c>
       <c r="G19">
-        <v>1.235647702189254</v>
+        <v>0.4018100431326275</v>
       </c>
       <c r="H19">
-        <v>0.7276111762466542</v>
+        <v>0.8354292042296265</v>
       </c>
       <c r="I19">
-        <v>0.0505210546147854</v>
+        <v>0.7262595361908382</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05050184469404151</v>
       </c>
       <c r="K19">
-        <v>0.2613544977088722</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.040246714195462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2613677893167363</v>
+      </c>
+      <c r="M19">
+        <v>1.04023943803805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.848519048061519</v>
+        <v>3.848281466752269</v>
       </c>
       <c r="C20">
-        <v>1.069824486845334</v>
+        <v>1.069261279242085</v>
       </c>
       <c r="D20">
-        <v>0.009029673088583934</v>
+        <v>0.009094199944815529</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.803584915924787</v>
+        <v>1.801079301706224</v>
       </c>
       <c r="G20">
-        <v>1.279470762040802</v>
+        <v>0.4174218691625668</v>
       </c>
       <c r="H20">
-        <v>0.7475417717681765</v>
+        <v>0.8635168920323792</v>
       </c>
       <c r="I20">
-        <v>0.05157239576575279</v>
+        <v>0.7461417834191622</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0515524081482539</v>
       </c>
       <c r="K20">
-        <v>0.2721222325004788</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.083898566757277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2721354622889223</v>
+      </c>
+      <c r="M20">
+        <v>1.083887550863899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.366472440408415</v>
+        <v>4.366144543837095</v>
       </c>
       <c r="C21">
-        <v>1.212976552987413</v>
+        <v>1.212315069160809</v>
       </c>
       <c r="D21">
-        <v>0.009833130964874925</v>
+        <v>0.009905922157017244</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.022685558963289</v>
+        <v>2.019860047330425</v>
       </c>
       <c r="G21">
-        <v>1.432613907284519</v>
+        <v>0.4718216811256326</v>
       </c>
       <c r="H21">
-        <v>0.8185202818442221</v>
+        <v>0.9618322338926646</v>
       </c>
       <c r="I21">
-        <v>0.05536524482673499</v>
+        <v>0.8169527171794044</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.05534274523328264</v>
       </c>
       <c r="K21">
-        <v>0.3090966769768215</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.232807274715952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3091093415338975</v>
+      </c>
+      <c r="M21">
+        <v>1.232781364502131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.710192018448311</v>
+        <v>4.709797192479868</v>
       </c>
       <c r="C22">
-        <v>1.308164819657804</v>
+        <v>1.307435694950982</v>
       </c>
       <c r="D22">
-        <v>0.01037842693518698</v>
+        <v>0.0104565031355115</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.172399284488208</v>
+        <v>2.169355687701355</v>
       </c>
       <c r="G22">
-        <v>1.537669238809954</v>
+        <v>0.5090188941917404</v>
       </c>
       <c r="H22">
-        <v>0.8682601269440937</v>
+        <v>1.029399429926016</v>
       </c>
       <c r="I22">
-        <v>0.0580606279199074</v>
+        <v>0.8665785565550408</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05803656005745417</v>
       </c>
       <c r="K22">
-        <v>0.3339404103850967</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.332064174358464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3339523776915385</v>
+      </c>
+      <c r="M22">
+        <v>1.332026484013596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.52621390020596</v>
+        <v>4.525855599592319</v>
       </c>
       <c r="C23">
-        <v>1.257194956639808</v>
+        <v>1.256502281888004</v>
       </c>
       <c r="D23">
-        <v>0.01008530683864706</v>
+        <v>0.01016057373383816</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.091846837183866</v>
+        <v>2.088920554428839</v>
       </c>
       <c r="G23">
-        <v>1.481105951537117</v>
+        <v>0.489002433392713</v>
       </c>
       <c r="H23">
-        <v>0.8413818572251799</v>
+        <v>0.9930090098334432</v>
       </c>
       <c r="I23">
-        <v>0.05660070894930413</v>
+        <v>0.8397615900981776</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05657747154868531</v>
       </c>
       <c r="K23">
-        <v>0.3206129112864033</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.278893719104815</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3206252850923619</v>
+      </c>
+      <c r="M23">
+        <v>1.278862524942411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.840130224463451</v>
+        <v>3.839894002728329</v>
       </c>
       <c r="C24">
-        <v>1.067508671892597</v>
+        <v>1.066947020614265</v>
       </c>
       <c r="D24">
-        <v>0.009016832171614197</v>
+        <v>0.009081222149053048</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.800103069413879</v>
+        <v>1.797602551035425</v>
       </c>
       <c r="G24">
-        <v>1.277043355476565</v>
+        <v>0.416557682561006</v>
       </c>
       <c r="H24">
-        <v>0.7464330354254471</v>
+        <v>0.861960501367605</v>
       </c>
       <c r="I24">
-        <v>0.05151373472669363</v>
+        <v>0.7450357198968973</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.05149378943394822</v>
       </c>
       <c r="K24">
-        <v>0.2715281281678443</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.081493602527772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.271541362555709</v>
+      </c>
+      <c r="M24">
+        <v>1.081482800045194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.117697181229801</v>
+        <v>3.117565799608997</v>
       </c>
       <c r="C25">
-        <v>0.8683649045924824</v>
+        <v>0.8679331636369625</v>
       </c>
       <c r="D25">
-        <v>0.007930102949622153</v>
+        <v>0.007982327986756133</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.508764961675553</v>
+        <v>1.506693202295224</v>
       </c>
       <c r="G25">
-        <v>1.07473392385657</v>
+        <v>0.3442719863630401</v>
       </c>
       <c r="H25">
-        <v>0.6561729936818423</v>
+        <v>0.7325126030659561</v>
       </c>
       <c r="I25">
-        <v>0.04681725250401847</v>
+        <v>0.655000955187937</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04680118220071172</v>
       </c>
       <c r="K25">
-        <v>0.2209668466295085</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8752419573583552</v>
+        <v>0.2209799721863064</v>
+      </c>
+      <c r="M25">
+        <v>0.8752462565735186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.59620561978096</v>
+        <v>2.958245612580868</v>
       </c>
       <c r="C2">
-        <v>0.724599074251131</v>
+        <v>0.3197573904891726</v>
       </c>
       <c r="D2">
-        <v>0.007210428131322999</v>
+        <v>0.01254943675615294</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.308083105920133</v>
+        <v>1.913981344480689</v>
       </c>
       <c r="G2">
-        <v>0.2949271621949521</v>
+        <v>0.0008264203837271623</v>
       </c>
       <c r="H2">
-        <v>0.6452107684514772</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5970057279405125</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04389247862071244</v>
+        <v>0.07143812227969093</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6687657467775523</v>
       </c>
       <c r="L2">
-        <v>0.1852865762510305</v>
+        <v>0.2890353354953845</v>
       </c>
       <c r="M2">
-        <v>0.7275314256344743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.167782916196842</v>
+      </c>
+      <c r="O2">
+        <v>1.341706977361184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.247432305011671</v>
+        <v>2.598697650392069</v>
       </c>
       <c r="C3">
-        <v>0.6288222623902016</v>
+        <v>0.2773229144993081</v>
       </c>
       <c r="D3">
-        <v>0.006702961249491324</v>
+        <v>0.01160455829199947</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.181287944859818</v>
+        <v>1.809755927898252</v>
       </c>
       <c r="G3">
-        <v>0.2634092097948511</v>
+        <v>0.0008336119288282769</v>
       </c>
       <c r="H3">
-        <v>0.5900869560639137</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.561957935657631</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04220478784365334</v>
+        <v>0.07198642854363513</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5829007603887106</v>
       </c>
       <c r="L3">
-        <v>0.1618334772710455</v>
+        <v>0.2605381489619276</v>
       </c>
       <c r="M3">
-        <v>0.629319209519025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.224245329126958</v>
+      </c>
+      <c r="O3">
+        <v>1.268973917349001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.034956903492798</v>
+        <v>2.38130656141783</v>
       </c>
       <c r="C4">
-        <v>0.5705036748299506</v>
+        <v>0.2514905264434191</v>
       </c>
       <c r="D4">
-        <v>0.006397043684929216</v>
+        <v>0.01103197362781749</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.106725094330159</v>
+        <v>1.749362755607706</v>
       </c>
       <c r="G4">
-        <v>0.2448610596477181</v>
+        <v>0.0008381588714342473</v>
       </c>
       <c r="H4">
-        <v>0.5579554660701547</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5422690116036719</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04129166783708094</v>
+        <v>0.07240805522941685</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5309001061571763</v>
       </c>
       <c r="L4">
-        <v>0.1477322206381508</v>
+        <v>0.243389948996807</v>
       </c>
       <c r="M4">
-        <v>0.5697524743357363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.260591510091821</v>
+      </c>
+      <c r="O4">
+        <v>1.226971388518223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.948715213774165</v>
+        <v>2.293473919099483</v>
       </c>
       <c r="C5">
-        <v>0.5468367826802876</v>
+        <v>0.2410089891945404</v>
       </c>
       <c r="D5">
-        <v>0.006273541456032206</v>
+        <v>0.01080029906531799</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.077091358533778</v>
+        <v>1.725594685095786</v>
       </c>
       <c r="G5">
-        <v>0.2374850464916705</v>
+        <v>0.0008400458775784883</v>
       </c>
       <c r="H5">
-        <v>0.5452549492220626</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5346693039924162</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04094824492734972</v>
+        <v>0.07260054302855856</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5098688961634892</v>
       </c>
       <c r="L5">
-        <v>0.142052350378588</v>
+        <v>0.2364822046009891</v>
       </c>
       <c r="M5">
-        <v>0.5456368646383041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.275810449125558</v>
+      </c>
+      <c r="O5">
+        <v>1.210475433430879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.934413477825814</v>
+        <v>2.278932467413767</v>
       </c>
       <c r="C6">
-        <v>0.5429121782181596</v>
+        <v>0.2392709835758779</v>
       </c>
       <c r="D6">
-        <v>0.006253097087757453</v>
+        <v>0.01076192315760238</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.072213956117707</v>
+        <v>1.721697149739455</v>
       </c>
       <c r="G6">
-        <v>0.2362707412118539</v>
+        <v>0.0008403613025905552</v>
       </c>
       <c r="H6">
-        <v>0.543168740876304</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5334319487824644</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04089288861187512</v>
+        <v>0.07263373459896805</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5063857052049698</v>
       </c>
       <c r="L6">
-        <v>0.1411129875269417</v>
+        <v>0.2353398182400639</v>
       </c>
       <c r="M6">
-        <v>0.5416413055616758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.278361758384527</v>
+      </c>
+      <c r="O6">
+        <v>1.207772441535013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.033792523197462</v>
+        <v>2.380119075678522</v>
       </c>
       <c r="C7">
-        <v>0.5701841273407524</v>
+        <v>0.251348998486435</v>
       </c>
       <c r="D7">
-        <v>0.00639537371146659</v>
+        <v>0.01102884277463367</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.106322498064074</v>
+        <v>1.749038879350124</v>
       </c>
       <c r="G7">
-        <v>0.2447608700994692</v>
+        <v>0.0008381841807877671</v>
       </c>
       <c r="H7">
-        <v>0.5577826378648183</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5421648502101419</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04128692307784476</v>
+        <v>0.07241056837106186</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5306158538135222</v>
       </c>
       <c r="L7">
-        <v>0.1476553616447553</v>
+        <v>0.2432964732156364</v>
       </c>
       <c r="M7">
-        <v>0.5694266356033992</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.260795125996289</v>
+      </c>
+      <c r="O7">
+        <v>1.226746466478161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.47555305067516</v>
+        <v>2.833515786822659</v>
       </c>
       <c r="C8">
-        <v>0.6914583777775078</v>
+        <v>0.3050731519889212</v>
       </c>
       <c r="D8">
-        <v>0.00703410705913754</v>
+        <v>0.01222191317938837</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.263633689056803</v>
+        <v>1.877257507260012</v>
       </c>
       <c r="G8">
-        <v>0.2838805832940778</v>
+        <v>0.000828873444414957</v>
       </c>
       <c r="H8">
-        <v>0.6258244603093601</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5845183896951269</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04328357913899872</v>
+        <v>0.07160911148347182</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6389962688169817</v>
       </c>
       <c r="L8">
-        <v>0.1771324325981354</v>
+        <v>0.2791323275271935</v>
       </c>
       <c r="M8">
-        <v>0.6934983129917995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.186893900188011</v>
+      </c>
+      <c r="O8">
+        <v>1.316047750797921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.358967541718584</v>
+        <v>3.753948642552018</v>
       </c>
       <c r="C9">
-        <v>0.9343826416663319</v>
+        <v>0.4127184894300342</v>
       </c>
       <c r="D9">
-        <v>0.008345578441474544</v>
+        <v>0.0146344346861973</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.601988954129681</v>
+        <v>2.160374127071293</v>
       </c>
       <c r="G9">
-        <v>0.3679474140930523</v>
+        <v>0.0008116044693392489</v>
       </c>
       <c r="H9">
-        <v>0.7747351865046426</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6839078338807454</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04828874149574247</v>
+        <v>0.07074551134767759</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8583278139749524</v>
       </c>
       <c r="L9">
-        <v>0.2377414122078179</v>
+        <v>0.3525488843343538</v>
       </c>
       <c r="M9">
-        <v>0.9439760255938268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.055990847241041</v>
+      </c>
+      <c r="O9">
+        <v>1.514575635016996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.024454795953886</v>
+        <v>4.456311192714509</v>
       </c>
       <c r="C10">
-        <v>1.117890092524988</v>
+        <v>0.4940182371367428</v>
       </c>
       <c r="D10">
-        <v>0.009368010981077646</v>
+        <v>0.01647214192683677</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.874605141008587</v>
+        <v>2.392449818240237</v>
       </c>
       <c r="G10">
-        <v>0.4356996618279965</v>
+        <v>0.0007994401548229756</v>
       </c>
       <c r="H10">
-        <v>0.8964768774344662</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7696794453885616</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05280441632787358</v>
+        <v>0.07059426059865004</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.025277649045307</v>
       </c>
       <c r="L10">
-        <v>0.2846495784143244</v>
+        <v>0.4089757353318078</v>
       </c>
       <c r="M10">
-        <v>1.13444845426708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.9694328522001143</v>
+      </c>
+      <c r="O10">
+        <v>1.67828638358894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.332301274089616</v>
+        <v>4.78326723853678</v>
       </c>
       <c r="C11">
-        <v>1.202955955470827</v>
+        <v>0.5316900697508515</v>
       </c>
       <c r="D11">
-        <v>0.009852228965765875</v>
+        <v>0.01732787982519568</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.00532014762021</v>
+        <v>2.504446237128491</v>
       </c>
       <c r="G11">
-        <v>0.4682050484563405</v>
+        <v>0.0007940001125561185</v>
       </c>
       <c r="H11">
-        <v>0.9552765824902707</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8121770054652728</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05508499892948926</v>
+        <v>0.07064323164773612</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.102905839809551</v>
       </c>
       <c r="L11">
-        <v>0.3066757955119215</v>
+        <v>0.4353290053999785</v>
       </c>
       <c r="M11">
-        <v>1.223026235799438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.932413684472138</v>
+      </c>
+      <c r="O11">
+        <v>1.757538234430214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.449754401117843</v>
+        <v>4.908312304688764</v>
       </c>
       <c r="C12">
-        <v>1.235443184873986</v>
+        <v>0.5460737380360001</v>
       </c>
       <c r="D12">
-        <v>0.0100389717543159</v>
+        <v>0.01765531206731907</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.055922569811429</v>
+        <v>2.547892070536435</v>
       </c>
       <c r="G12">
-        <v>0.4807926789573713</v>
+        <v>0.0007919517360583964</v>
       </c>
       <c r="H12">
-        <v>0.9781043609728357</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8288376658565966</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0559853669616146</v>
+        <v>0.07067991525462958</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.132582468657262</v>
       </c>
       <c r="L12">
-        <v>0.3151315197092472</v>
+        <v>0.4454200361162322</v>
       </c>
       <c r="M12">
-        <v>1.256895875574102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.9187601638136584</v>
+      </c>
+      <c r="O12">
+        <v>1.788320577015156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.424417237077762</v>
+        <v>4.881323945369616</v>
       </c>
       <c r="C13">
-        <v>1.228433462750047</v>
+        <v>0.5429703724182104</v>
       </c>
       <c r="D13">
-        <v>0.009998591831099191</v>
+        <v>0.01758463371209729</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.044972941938113</v>
+        <v>2.538487283205356</v>
       </c>
       <c r="G13">
-        <v>0.4780686927429372</v>
+        <v>0.0007923924032307765</v>
       </c>
       <c r="H13">
-        <v>0.9731618054468356</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8252230813736006</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0557897490925523</v>
+        <v>0.07067118750316226</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.126177937280758</v>
       </c>
       <c r="L13">
-        <v>0.3133050431132389</v>
+        <v>0.4432415621208463</v>
       </c>
       <c r="M13">
-        <v>1.24958603930024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.9216840222598535</v>
+      </c>
+      <c r="O13">
+        <v>1.781655299360466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.341945728074677</v>
+        <v>4.793529044375646</v>
       </c>
       <c r="C14">
-        <v>1.205622908763416</v>
+        <v>0.5328709366214355</v>
       </c>
       <c r="D14">
-        <v>0.009867520672251828</v>
+        <v>0.01735474667937353</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.009460261051132</v>
+        <v>2.507999122007689</v>
       </c>
       <c r="G14">
-        <v>0.4692348339679597</v>
+        <v>0.0007938313689767937</v>
       </c>
       <c r="H14">
-        <v>0.9571429504446201</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8135358938414399</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0551583100645221</v>
+        <v>0.07064587874450368</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.105341495008275</v>
       </c>
       <c r="L14">
-        <v>0.3073690520795722</v>
+        <v>0.4361568828049798</v>
       </c>
       <c r="M14">
-        <v>1.22580584974871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.931282929950072</v>
+      </c>
+      <c r="O14">
+        <v>1.760054740753617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.29154847853971</v>
+        <v>4.739917966198789</v>
       </c>
       <c r="C15">
-        <v>1.191688027165014</v>
+        <v>0.5267007370232761</v>
       </c>
       <c r="D15">
-        <v>0.009787696517729927</v>
+        <v>0.01721439225629595</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.987855869898439</v>
+        <v>2.489462577745996</v>
       </c>
       <c r="G15">
-        <v>0.4638612689763306</v>
+        <v>0.0007947142372878826</v>
       </c>
       <c r="H15">
-        <v>0.9474063007865539</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8064532331569723</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05477645642456253</v>
+        <v>0.07063277655176492</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.09261632534313</v>
       </c>
       <c r="L15">
-        <v>0.3037485546709249</v>
+        <v>0.4318322645443686</v>
       </c>
       <c r="M15">
-        <v>1.211283973743136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.9372108714787899</v>
+      </c>
+      <c r="O15">
+        <v>1.746926890718953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.004451035997249</v>
+        <v>4.435107240313073</v>
       </c>
       <c r="C16">
-        <v>1.112366614133407</v>
+        <v>0.491571733815789</v>
       </c>
       <c r="D16">
-        <v>0.009336802424705581</v>
+        <v>0.01641665950390347</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.86620902398171</v>
+        <v>2.385269108434159</v>
       </c>
       <c r="G16">
-        <v>0.4336122604925237</v>
+        <v>0.0007997974071406123</v>
       </c>
       <c r="H16">
-        <v>0.8927087647069811</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7669777264736837</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05266027848838739</v>
+        <v>0.07059353020826364</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.020241516870172</v>
       </c>
       <c r="L16">
-        <v>0.2832252727631968</v>
+        <v>0.4072683558014631</v>
       </c>
       <c r="M16">
-        <v>1.128702639949196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.9719017151468066</v>
+      </c>
+      <c r="O16">
+        <v>1.673210240102136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.829732148288372</v>
+        <v>4.250133735342274</v>
       </c>
       <c r="C17">
-        <v>1.064143284566171</v>
+        <v>0.4702104695760738</v>
       </c>
       <c r="D17">
-        <v>0.00906550586037369</v>
+        <v>0.01593269726512503</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.793393204387584</v>
+        <v>2.323070679503289</v>
       </c>
       <c r="G17">
-        <v>0.4155114121515737</v>
+        <v>0.0008029385048575148</v>
       </c>
       <c r="H17">
-        <v>0.8600764264531193</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7436974543002748</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05142289137956624</v>
+        <v>0.07060043661229543</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.976298883335005</v>
       </c>
       <c r="L17">
-        <v>0.2708217866799956</v>
+        <v>0.3923834445217409</v>
       </c>
       <c r="M17">
-        <v>1.078569613975297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.9938045636241597</v>
+      </c>
+      <c r="O17">
+        <v>1.629268511280628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.729710203141053</v>
+        <v>4.144432143171912</v>
       </c>
       <c r="C18">
-        <v>1.036552819791211</v>
+        <v>0.4579875365332668</v>
       </c>
       <c r="D18">
-        <v>0.008911218326051795</v>
+        <v>0.0156561576084151</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.752132849466875</v>
+        <v>2.287893095385499</v>
       </c>
       <c r="G18">
-        <v>0.405256424495704</v>
+        <v>0.0008047541064769259</v>
       </c>
       <c r="H18">
-        <v>0.8416243044359248</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.730630294126513</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05073220707335757</v>
+        <v>0.07061541556389273</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9511799960920797</v>
       </c>
       <c r="L18">
-        <v>0.2637512712900687</v>
+        <v>0.383885587883654</v>
       </c>
       <c r="M18">
-        <v>1.049912879385573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1.006622590450341</v>
+      </c>
+      <c r="O18">
+        <v>1.604438657880962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.695921426786015</v>
+        <v>4.108757276079928</v>
       </c>
       <c r="C19">
-        <v>1.027234972315227</v>
+        <v>0.4538594179550444</v>
       </c>
       <c r="D19">
-        <v>0.008859263031112619</v>
+        <v>0.01556282383198138</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.73826552875633</v>
+        <v>2.276081957099876</v>
       </c>
       <c r="G19">
-        <v>0.4018100431326275</v>
+        <v>0.0008053704228393466</v>
       </c>
       <c r="H19">
-        <v>0.8354292042296265</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7262595361908382</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05050184469404151</v>
+        <v>0.07062234290869895</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9427008132666401</v>
       </c>
       <c r="L19">
-        <v>0.2613677893167363</v>
+        <v>0.3810188949361333</v>
       </c>
       <c r="M19">
-        <v>1.04023943803805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1.01099960953762</v>
+      </c>
+      <c r="O19">
+        <v>1.596105583247123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.848281466752269</v>
+        <v>4.269751915866266</v>
       </c>
       <c r="C20">
-        <v>1.069261279242085</v>
+        <v>0.4724777083565925</v>
       </c>
       <c r="D20">
-        <v>0.009094199944815529</v>
+        <v>0.01598402356371409</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.801079301706224</v>
+        <v>2.329629220649679</v>
       </c>
       <c r="G20">
-        <v>0.4174218691625668</v>
+        <v>0.0008026032183286195</v>
       </c>
       <c r="H20">
-        <v>0.8635168920323792</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7461417834191622</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0515524081482539</v>
+        <v>0.07059855395512926</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9809602651907596</v>
       </c>
       <c r="L20">
-        <v>0.2721354622889223</v>
+        <v>0.3939613003358318</v>
       </c>
       <c r="M20">
-        <v>1.083887550863899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.9914500108348463</v>
+      </c>
+      <c r="O20">
+        <v>1.633899623038076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.366144543837095</v>
+        <v>4.81928165877099</v>
       </c>
       <c r="C21">
-        <v>1.212315069160809</v>
+        <v>0.5358340145947693</v>
       </c>
       <c r="D21">
-        <v>0.009905922157017244</v>
+        <v>0.01742217353750419</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.019860047330425</v>
+        <v>2.516925188500721</v>
       </c>
       <c r="G21">
-        <v>0.4718216811256326</v>
+        <v>0.0007934084090664665</v>
       </c>
       <c r="H21">
-        <v>0.9618322338926646</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8169527171794044</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05534274523328264</v>
+        <v>0.07065281002143919</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.111453720321848</v>
       </c>
       <c r="L21">
-        <v>0.3091093415338975</v>
+        <v>0.4382346831740733</v>
       </c>
       <c r="M21">
-        <v>1.232781364502131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.9284533748553301</v>
+      </c>
+      <c r="O21">
+        <v>1.766377695458019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.709797192479868</v>
+        <v>5.185712364769529</v>
       </c>
       <c r="C22">
-        <v>1.307435694950982</v>
+        <v>0.577940359019351</v>
       </c>
       <c r="D22">
-        <v>0.0104565031355115</v>
+        <v>0.01838211850894211</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.169355687701355</v>
+        <v>2.645428969718068</v>
       </c>
       <c r="G22">
-        <v>0.5090188941917404</v>
+        <v>0.0007874659913089467</v>
       </c>
       <c r="H22">
-        <v>1.029399429926016</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8665785565550408</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05803656005745417</v>
+        <v>0.07079465267339202</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.198394985905111</v>
       </c>
       <c r="L22">
-        <v>0.3339523776915385</v>
+        <v>0.4678277000341495</v>
       </c>
       <c r="M22">
-        <v>1.332026484013596</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.8894222319236249</v>
+      </c>
+      <c r="O22">
+        <v>1.857502118033224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.525855599592319</v>
+        <v>4.989416493253941</v>
       </c>
       <c r="C23">
-        <v>1.256502281888004</v>
+        <v>0.5553964732622489</v>
       </c>
       <c r="D23">
-        <v>0.01016057373383816</v>
+        <v>0.01786774393837121</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.088920554428839</v>
+        <v>2.576246238011834</v>
       </c>
       <c r="G23">
-        <v>0.489002433392713</v>
+        <v>0.0007906320955219925</v>
       </c>
       <c r="H23">
-        <v>0.9930090098334432</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8397615900981776</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05657747154868531</v>
+        <v>0.07070878286877047</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.151827313248987</v>
       </c>
       <c r="L23">
-        <v>0.3206252850923619</v>
+        <v>0.4519684139831242</v>
       </c>
       <c r="M23">
-        <v>1.278862524942411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.9100486289702303</v>
+      </c>
+      <c r="O23">
+        <v>1.808421333062213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.839894002728329</v>
+        <v>4.260880548417276</v>
       </c>
       <c r="C24">
-        <v>1.066947020614265</v>
+        <v>0.4714525106491578</v>
       </c>
       <c r="D24">
-        <v>0.009081222149053048</v>
+        <v>0.01596081369908475</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.797602551035425</v>
+        <v>2.326662302404927</v>
       </c>
       <c r="G24">
-        <v>0.416557682561006</v>
+        <v>0.0008027547708622046</v>
       </c>
       <c r="H24">
-        <v>0.861960501367605</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7450357198968973</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05149378943394822</v>
+        <v>0.07059937090525636</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9788524078031884</v>
       </c>
       <c r="L24">
-        <v>0.271541362555709</v>
+        <v>0.3932477668210055</v>
       </c>
       <c r="M24">
-        <v>1.081482800045194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.9925138028009357</v>
+      </c>
+      <c r="O24">
+        <v>1.631804555482844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.117565799608997</v>
+        <v>3.500909192799156</v>
       </c>
       <c r="C25">
-        <v>0.8679331636369625</v>
+        <v>0.383272956357672</v>
       </c>
       <c r="D25">
-        <v>0.007982327986756133</v>
+        <v>0.01397200663560483</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.506693202295224</v>
+        <v>2.07992857224923</v>
       </c>
       <c r="G25">
-        <v>0.3442719863630401</v>
+        <v>0.0008161780979321837</v>
       </c>
       <c r="H25">
-        <v>0.7325126030659561</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.655000955187937</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04680118220071172</v>
+        <v>0.0708982986211204</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7981031053817418</v>
       </c>
       <c r="L25">
-        <v>0.2209799721863064</v>
+        <v>0.3322955422422069</v>
       </c>
       <c r="M25">
-        <v>0.8752462565735186</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.089798958032453</v>
+      </c>
+      <c r="O25">
+        <v>1.458013764360246</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.958245612580868</v>
+        <v>0.988876924614118</v>
       </c>
       <c r="C2">
-        <v>0.3197573904891726</v>
+        <v>0.2005765646546855</v>
       </c>
       <c r="D2">
-        <v>0.01254943675615294</v>
+        <v>0.08271472381824907</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.913981344480689</v>
+        <v>0.4401971422781514</v>
       </c>
       <c r="G2">
-        <v>0.0008264203837271623</v>
+        <v>0.3410835990256444</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3099519235390247</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07143812227969093</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6687657467775523</v>
+        <v>0.8353052884855856</v>
       </c>
       <c r="L2">
-        <v>0.2890353354953845</v>
+        <v>0.2260475605392855</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2351107979011218</v>
       </c>
       <c r="N2">
-        <v>1.167782916196842</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.341706977361184</v>
+        <v>1.319618037249356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.598697650392069</v>
+        <v>0.8597309658445056</v>
       </c>
       <c r="C3">
-        <v>0.2773229144993081</v>
+        <v>0.2059328188023954</v>
       </c>
       <c r="D3">
-        <v>0.01160455829199947</v>
+        <v>0.07455361964522211</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.809755927898252</v>
+        <v>0.4264313929871619</v>
       </c>
       <c r="G3">
-        <v>0.0008336119288282769</v>
+        <v>0.3365293530160258</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3135471794529536</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07198642854363513</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5829007603887106</v>
+        <v>0.7372383399537625</v>
       </c>
       <c r="L3">
-        <v>0.2605381489619276</v>
+        <v>0.2072531193234539</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2058358590655018</v>
       </c>
       <c r="N3">
-        <v>1.224245329126958</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.268973917349001</v>
+        <v>1.317140854355259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.38130656141783</v>
+        <v>0.7805453171164913</v>
       </c>
       <c r="C4">
-        <v>0.2514905264434191</v>
+        <v>0.2093760860465217</v>
       </c>
       <c r="D4">
-        <v>0.01103197362781749</v>
+        <v>0.06952436093943959</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.749362755607706</v>
+        <v>0.4188201427348446</v>
       </c>
       <c r="G4">
-        <v>0.0008381588714342473</v>
+        <v>0.3345126813068831</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3162453478137479</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07240805522941685</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5309001061571763</v>
+        <v>0.6769309007480047</v>
       </c>
       <c r="L4">
-        <v>0.243389948996807</v>
+        <v>0.1959842084131225</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1879669526021459</v>
       </c>
       <c r="N4">
-        <v>1.260591510091821</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.226971388518223</v>
+        <v>1.318291040576753</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.293473919099483</v>
+        <v>0.7482946701187245</v>
       </c>
       <c r="C5">
-        <v>0.2410089891945404</v>
+        <v>0.2108177843617263</v>
       </c>
       <c r="D5">
-        <v>0.01080029906531799</v>
+        <v>0.0674699328188666</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.725594685095786</v>
+        <v>0.4159211563455969</v>
       </c>
       <c r="G5">
-        <v>0.0008400458775784883</v>
+        <v>0.3338787460419397</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3174647001710653</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07260054302855856</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5098688961634892</v>
+        <v>0.652325744378885</v>
       </c>
       <c r="L5">
-        <v>0.2364822046009891</v>
+        <v>0.1914563416535913</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1807088772423455</v>
       </c>
       <c r="N5">
-        <v>1.275810449125558</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.210475433430879</v>
+        <v>1.319406652144096</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.278932467413767</v>
+        <v>0.7429402992255802</v>
       </c>
       <c r="C6">
-        <v>0.2392709835758779</v>
+        <v>0.2110594960475041</v>
       </c>
       <c r="D6">
-        <v>0.01076192315760238</v>
+        <v>0.0671284865956352</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.721697149739455</v>
+        <v>0.4154517714525383</v>
       </c>
       <c r="G6">
-        <v>0.0008403613025905552</v>
+        <v>0.3337845963159083</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3176743089142207</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07263373459896805</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5063857052049698</v>
+        <v>0.6482381403592257</v>
       </c>
       <c r="L6">
-        <v>0.2353398182400639</v>
+        <v>0.1907082681234087</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1795050225241646</v>
       </c>
       <c r="N6">
-        <v>1.278361758384527</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.207772441535013</v>
+        <v>1.319630265128055</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.380119075678522</v>
+        <v>0.7801103124910469</v>
       </c>
       <c r="C7">
-        <v>0.251348998486435</v>
+        <v>0.2093953736529492</v>
       </c>
       <c r="D7">
-        <v>0.01102884277463367</v>
+        <v>0.06949667476668964</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.749038879350124</v>
+        <v>0.4187802367996341</v>
       </c>
       <c r="G7">
-        <v>0.0008381841807877671</v>
+        <v>0.3345033816844989</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3162613118355893</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07241056837106186</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5306158538135222</v>
+        <v>0.6765991933519757</v>
       </c>
       <c r="L7">
-        <v>0.2432964732156364</v>
+        <v>0.1959228885790765</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1878689757774659</v>
       </c>
       <c r="N7">
-        <v>1.260795125996289</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.226746466478161</v>
+        <v>1.318303498804198</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.833515786822659</v>
+        <v>0.9443184657700954</v>
       </c>
       <c r="C8">
-        <v>0.3050731519889212</v>
+        <v>0.2023911418082598</v>
       </c>
       <c r="D8">
-        <v>0.01222191317938837</v>
+        <v>0.07990434944158409</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.877257507260012</v>
+        <v>0.4352707442926089</v>
       </c>
       <c r="G8">
-        <v>0.000828873444414957</v>
+        <v>0.3393464462495146</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3110875418374803</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07160911148347182</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6389962688169817</v>
+        <v>0.8015076955245632</v>
       </c>
       <c r="L8">
-        <v>0.2791323275271935</v>
+        <v>0.219508638540475</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2249929262170376</v>
       </c>
       <c r="N8">
-        <v>1.186893900188011</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.316047750797921</v>
+        <v>1.318194242690709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.753948642552018</v>
+        <v>1.267682764326253</v>
       </c>
       <c r="C9">
-        <v>0.4127184894300342</v>
+        <v>0.189896242982126</v>
       </c>
       <c r="D9">
-        <v>0.0146344346861973</v>
+        <v>0.1001866614695572</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.160374127071293</v>
+        <v>0.4746991789064623</v>
       </c>
       <c r="G9">
-        <v>0.0008116044693392489</v>
+        <v>0.3554169134397824</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3050031597425829</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07074551134767759</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8583278139749524</v>
+        <v>1.045996427967367</v>
       </c>
       <c r="L9">
-        <v>0.3525488843343538</v>
+        <v>0.2680935816657239</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2987808457980705</v>
       </c>
       <c r="N9">
-        <v>1.055990847241041</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.514575635016996</v>
+        <v>1.340347899805479</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.456311192714509</v>
+        <v>1.506806292415291</v>
       </c>
       <c r="C10">
-        <v>0.4940182371367428</v>
+        <v>0.1814930198443179</v>
       </c>
       <c r="D10">
-        <v>0.01647214192683677</v>
+        <v>0.1150385891978516</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.392449818240237</v>
+        <v>0.5086021456363881</v>
       </c>
       <c r="G10">
-        <v>0.0007994401548229756</v>
+        <v>0.3717974281460528</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3032547417493987</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07059426059865004</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.025277649045307</v>
+        <v>1.225788610040553</v>
       </c>
       <c r="L10">
-        <v>0.4089757353318078</v>
+        <v>0.3054829808587129</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3538154088734302</v>
       </c>
       <c r="N10">
-        <v>0.9694328522001143</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.67828638358894</v>
+        <v>1.371976647885106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.78326723853678</v>
+        <v>1.616098383572336</v>
       </c>
       <c r="C11">
-        <v>0.5316900697508515</v>
+        <v>0.1778436698475474</v>
       </c>
       <c r="D11">
-        <v>0.01732787982519568</v>
+        <v>0.1217910267909588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.504446237128491</v>
+        <v>0.5252407765062301</v>
       </c>
       <c r="G11">
-        <v>0.0007940001125561185</v>
+        <v>0.380375563239582</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3031082157302762</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07064323164773612</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.102905839809551</v>
+        <v>1.307723679699762</v>
       </c>
       <c r="L11">
-        <v>0.4353290053999785</v>
+        <v>0.3229242432281012</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3790829141999339</v>
       </c>
       <c r="N11">
-        <v>0.932413684472138</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.757538234430214</v>
+        <v>1.390102611923368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.908312304688764</v>
+        <v>1.657573204011442</v>
       </c>
       <c r="C12">
-        <v>0.5460737380360001</v>
+        <v>0.1764871215548496</v>
       </c>
       <c r="D12">
-        <v>0.01765531206731907</v>
+        <v>0.1243480138536484</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.547892070536435</v>
+        <v>0.5317289402680103</v>
       </c>
       <c r="G12">
-        <v>0.0007919517360583964</v>
+        <v>0.3837976839110127</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3031511857567892</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07067991525462958</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.132582468657262</v>
+        <v>1.338780646693181</v>
       </c>
       <c r="L12">
-        <v>0.4454200361162322</v>
+        <v>0.3295966189397603</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3886889596033711</v>
       </c>
       <c r="N12">
-        <v>0.9187601638136584</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.788320577015156</v>
+        <v>1.397539785729776</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.881323945369616</v>
+        <v>1.648636692904262</v>
       </c>
       <c r="C13">
-        <v>0.5429703724182104</v>
+        <v>0.1767781420849914</v>
       </c>
       <c r="D13">
-        <v>0.01758463371209729</v>
+        <v>0.1237973127971941</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.538487283205356</v>
+        <v>0.5303230508755163</v>
       </c>
       <c r="G13">
-        <v>0.0007923924032307765</v>
+        <v>0.3830527453312413</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3031374669491242</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07067118750316226</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.126177937280758</v>
+        <v>1.332090494239793</v>
       </c>
       <c r="L13">
-        <v>0.4432415621208463</v>
+        <v>0.3281564984193182</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.386618371520477</v>
       </c>
       <c r="N13">
-        <v>0.9216840222598535</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.781655299360466</v>
+        <v>1.39591196762629</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.793529044375646</v>
+        <v>1.619508686654001</v>
       </c>
       <c r="C14">
-        <v>0.5328709366214355</v>
+        <v>0.177731554405586</v>
       </c>
       <c r="D14">
-        <v>0.01735474667937353</v>
+        <v>0.1220013887952121</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.507999122007689</v>
+        <v>0.5257707293232272</v>
       </c>
       <c r="G14">
-        <v>0.0007938313689767937</v>
+        <v>0.3806535505675726</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3031097470020683</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07064587874450368</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.105341495008275</v>
+        <v>1.310278102231166</v>
       </c>
       <c r="L14">
-        <v>0.4361568828049798</v>
+        <v>0.3234717928600901</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3798724255767141</v>
       </c>
       <c r="N14">
-        <v>0.931282929950072</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.760054740753617</v>
+        <v>1.390702770750607</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.739917966198789</v>
+        <v>1.601678883033031</v>
       </c>
       <c r="C15">
-        <v>0.5267007370232761</v>
+        <v>0.1783188664267321</v>
       </c>
       <c r="D15">
-        <v>0.01721439225629595</v>
+        <v>0.1209013478760141</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.489462577745996</v>
+        <v>0.5230071034243196</v>
       </c>
       <c r="G15">
-        <v>0.0007947142372878826</v>
+        <v>0.3792069659903206</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3031057481856436</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07063277655176492</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.09261632534313</v>
+        <v>1.296921553848364</v>
       </c>
       <c r="L15">
-        <v>0.4318322645443686</v>
+        <v>0.3206112685178795</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3757453965883215</v>
       </c>
       <c r="N15">
-        <v>0.9372108714787899</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.746926890718953</v>
+        <v>1.387587742919465</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.435107240313073</v>
+        <v>1.499675342724345</v>
       </c>
       <c r="C16">
-        <v>0.491571733815789</v>
+        <v>0.1817350396606408</v>
       </c>
       <c r="D16">
-        <v>0.01641665950390347</v>
+        <v>0.1145972699224558</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.385269108434159</v>
+        <v>0.5075403020120604</v>
       </c>
       <c r="G16">
-        <v>0.0007997974071406123</v>
+        <v>0.3712604855691382</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3032778070996329</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07059353020826364</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.020241516870172</v>
+        <v>1.220437653743232</v>
       </c>
       <c r="L16">
-        <v>0.4072683558014631</v>
+        <v>0.3043523244082138</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3521691584184481</v>
       </c>
       <c r="N16">
-        <v>0.9719017151468066</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.673210240102136</v>
+        <v>1.370870295783703</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.250133735342274</v>
+        <v>1.437240974826693</v>
       </c>
       <c r="C17">
-        <v>0.4702104695760738</v>
+        <v>0.1838754604337716</v>
       </c>
       <c r="D17">
-        <v>0.01593269726512503</v>
+        <v>0.1107293201586543</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.323070679503289</v>
+        <v>0.4983721040559033</v>
       </c>
       <c r="G17">
-        <v>0.0008029385048575148</v>
+        <v>0.3666822621381414</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.303553109146165</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07060043661229543</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.976298883335005</v>
+        <v>1.173560923435673</v>
       </c>
       <c r="L17">
-        <v>0.3923834445217409</v>
+        <v>0.2944926277774726</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3377683820519692</v>
       </c>
       <c r="N17">
-        <v>0.9938045636241597</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.629268511280628</v>
+        <v>1.361596797012197</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.144432143171912</v>
+        <v>1.401377799396641</v>
       </c>
       <c r="C18">
-        <v>0.4579875365332668</v>
+        <v>0.1851228584638775</v>
       </c>
       <c r="D18">
-        <v>0.0156561576084151</v>
+        <v>0.1085041884253073</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.287893095385499</v>
+        <v>0.4932124552762573</v>
       </c>
       <c r="G18">
-        <v>0.0008047541064769259</v>
+        <v>0.3641542793043087</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3037722001322081</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07061541556389273</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9511799960920797</v>
+        <v>1.146611910272412</v>
       </c>
       <c r="L18">
-        <v>0.383885587883654</v>
+        <v>0.2888619614276138</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3295069920602955</v>
       </c>
       <c r="N18">
-        <v>1.006622590450341</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.604438657880962</v>
+        <v>1.356612484411102</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.108757276079928</v>
+        <v>1.389242865560789</v>
       </c>
       <c r="C19">
-        <v>0.4538594179550444</v>
+        <v>0.1855479893483611</v>
       </c>
       <c r="D19">
-        <v>0.01556282383198138</v>
+        <v>0.1077507146187315</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.276081957099876</v>
+        <v>0.4914846354334514</v>
       </c>
       <c r="G19">
-        <v>0.0008053704228393466</v>
+        <v>0.3633160846186811</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3038566616827225</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07062234290869895</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9427008132666401</v>
+        <v>1.137489452790589</v>
       </c>
       <c r="L19">
-        <v>0.3810188949361333</v>
+        <v>0.2869622851497979</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3267133993546878</v>
       </c>
       <c r="N19">
-        <v>1.01099960953762</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.596105583247123</v>
+        <v>1.354983865147076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.269751915866266</v>
+        <v>1.443882210553483</v>
       </c>
       <c r="C20">
-        <v>0.4724777083565925</v>
+        <v>0.183645920353861</v>
       </c>
       <c r="D20">
-        <v>0.01598402356371409</v>
+        <v>0.1111411065846823</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.329629220649679</v>
+        <v>0.4993362224516105</v>
       </c>
       <c r="G20">
-        <v>0.0008026032183286195</v>
+        <v>0.3671586417657551</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3035174796373497</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07059855395512926</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9809602651907596</v>
+        <v>1.178549598864208</v>
       </c>
       <c r="L20">
-        <v>0.3939613003358318</v>
+        <v>0.2955379921409644</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.339299107197462</v>
       </c>
       <c r="N20">
-        <v>0.9914500108348463</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.633899623038076</v>
+        <v>1.362547546824914</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.81928165877099</v>
+        <v>1.628061772467447</v>
       </c>
       <c r="C21">
-        <v>0.5358340145947693</v>
+        <v>0.1774508214723838</v>
       </c>
       <c r="D21">
-        <v>0.01742217353750419</v>
+        <v>0.1225288912173568</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.516925188500721</v>
+        <v>0.5271026640771623</v>
       </c>
       <c r="G21">
-        <v>0.0007934084090664665</v>
+        <v>0.3813534387691249</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.303115174246372</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07065281002143919</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.111453720321848</v>
+        <v>1.316684044476403</v>
       </c>
       <c r="L21">
-        <v>0.4382346831740733</v>
+        <v>0.3248459199142388</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3818528110904538</v>
       </c>
       <c r="N21">
-        <v>0.9284533748553301</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.766377695458019</v>
+        <v>1.392216983720715</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.185712364769529</v>
+        <v>1.748955727896998</v>
       </c>
       <c r="C22">
-        <v>0.577940359019351</v>
+        <v>0.1735501395908479</v>
       </c>
       <c r="D22">
-        <v>0.01838211850894211</v>
+        <v>0.1299716524359695</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.645428969718068</v>
+        <v>0.5463488124010922</v>
       </c>
       <c r="G22">
-        <v>0.0007874659913089467</v>
+        <v>0.3916494093057281</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.303428754127907</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07079465267339202</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.198394985905111</v>
+        <v>1.407141937786236</v>
       </c>
       <c r="L22">
-        <v>0.4678277000341495</v>
+        <v>0.3443980588518656</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4098866508704262</v>
       </c>
       <c r="N22">
-        <v>0.8894222319236249</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.857502118033224</v>
+        <v>1.414967344488872</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.989416493253941</v>
+        <v>1.684379561876113</v>
       </c>
       <c r="C23">
-        <v>0.5553964732622489</v>
+        <v>0.175618290812789</v>
       </c>
       <c r="D23">
-        <v>0.01786774393837121</v>
+        <v>0.1259991099873474</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.576246238011834</v>
+        <v>0.5359718322837352</v>
       </c>
       <c r="G23">
-        <v>0.0007906320955219925</v>
+        <v>0.386056947045077</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.303206850463539</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07070878286877047</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.151827313248987</v>
+        <v>1.358843385831193</v>
       </c>
       <c r="L23">
-        <v>0.4519684139831242</v>
+        <v>0.3339244016512879</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3949025610105323</v>
       </c>
       <c r="N23">
-        <v>0.9100486289702303</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.808421333062213</v>
+        <v>1.40250522755386</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.260880548417276</v>
+        <v>1.440879611858719</v>
       </c>
       <c r="C24">
-        <v>0.4714525106491578</v>
+        <v>0.1837496430000556</v>
       </c>
       <c r="D24">
-        <v>0.01596081369908475</v>
+        <v>0.1109549423291298</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.326662302404927</v>
+        <v>0.4988999988875804</v>
       </c>
       <c r="G24">
-        <v>0.0008027547708622046</v>
+        <v>0.3669429471730723</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3035333986955777</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07059937090525636</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9788524078031884</v>
+        <v>1.176294216113007</v>
       </c>
       <c r="L24">
-        <v>0.3932477668210055</v>
+        <v>0.2950652655738963</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3386070112219883</v>
       </c>
       <c r="N24">
-        <v>0.9925138028009357</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.631804555482844</v>
+        <v>1.362116634232422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.500909192799156</v>
+        <v>1.179987421256698</v>
       </c>
       <c r="C25">
-        <v>0.383272956357672</v>
+        <v>0.1931415983340656</v>
       </c>
       <c r="D25">
-        <v>0.01397200663560483</v>
+        <v>0.09471057350513945</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.07992857224923</v>
+        <v>0.4632124812937093</v>
       </c>
       <c r="G25">
-        <v>0.0008161780979321837</v>
+        <v>0.3503091850285358</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3061898235417644</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0708982986211204</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7981031053817418</v>
+        <v>0.9798605080522691</v>
       </c>
       <c r="L25">
-        <v>0.3322955422422069</v>
+        <v>0.2546731642544415</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2786915415039601</v>
       </c>
       <c r="N25">
-        <v>1.089798958032453</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.458013764360246</v>
+        <v>1.331788811277789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.988876924614118</v>
+        <v>0.4423115263591342</v>
       </c>
       <c r="C2">
-        <v>0.2005765646546855</v>
+        <v>0.3792800776886729</v>
       </c>
       <c r="D2">
-        <v>0.08271472381824907</v>
+        <v>0.04153582648314824</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4401971422781514</v>
+        <v>0.7749282079033861</v>
       </c>
       <c r="G2">
-        <v>0.3410835990256444</v>
+        <v>0.6187996857315312</v>
       </c>
       <c r="H2">
-        <v>0.3099519235390247</v>
+        <v>0.7493751252327172</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8353052884855856</v>
+        <v>0.2514287238144277</v>
       </c>
       <c r="L2">
-        <v>0.2260475605392855</v>
+        <v>0.3031147674088714</v>
       </c>
       <c r="M2">
-        <v>0.2351107979011218</v>
+        <v>0.1656964608235647</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.319618037249356</v>
+        <v>2.721674786174674</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8597309658445056</v>
+        <v>0.4042229608625973</v>
       </c>
       <c r="C3">
-        <v>0.2059328188023954</v>
+        <v>0.381780301871423</v>
       </c>
       <c r="D3">
-        <v>0.07455361964522211</v>
+        <v>0.03871279724742749</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4264313929871619</v>
+        <v>0.7771467947007764</v>
       </c>
       <c r="G3">
-        <v>0.3365293530160258</v>
+        <v>0.6226241675176354</v>
       </c>
       <c r="H3">
-        <v>0.3135471794529536</v>
+        <v>0.754765332532692</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7372383399537625</v>
+        <v>0.2196857830806493</v>
       </c>
       <c r="L3">
-        <v>0.2072531193234539</v>
+        <v>0.2999378463029885</v>
       </c>
       <c r="M3">
-        <v>0.2058358590655018</v>
+        <v>0.1579297760462772</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.317140854355259</v>
+        <v>2.740821529504998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7805453171164913</v>
+        <v>0.3809050649576591</v>
       </c>
       <c r="C4">
-        <v>0.2093760860465217</v>
+        <v>0.3834056892649116</v>
       </c>
       <c r="D4">
-        <v>0.06952436093943959</v>
+        <v>0.03696360060506976</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4188201427348446</v>
+        <v>0.7789522475964858</v>
       </c>
       <c r="G4">
-        <v>0.3345126813068831</v>
+        <v>0.6253550821754672</v>
       </c>
       <c r="H4">
-        <v>0.3162453478137479</v>
+        <v>0.7583738548702428</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6769309007480047</v>
+        <v>0.2001117936538463</v>
       </c>
       <c r="L4">
-        <v>0.1959842084131225</v>
+        <v>0.2981422160951368</v>
       </c>
       <c r="M4">
-        <v>0.1879669526021459</v>
+        <v>0.1532242264532933</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.318291040576753</v>
+        <v>2.754006130871105</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7482946701187245</v>
+        <v>0.3714207485209897</v>
       </c>
       <c r="C5">
-        <v>0.2108177843617263</v>
+        <v>0.3840907824670765</v>
       </c>
       <c r="D5">
-        <v>0.0674699328188666</v>
+        <v>0.03624683910025794</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4159211563455969</v>
+        <v>0.7797995033374931</v>
       </c>
       <c r="G5">
-        <v>0.3338787460419397</v>
+        <v>0.6265641624967344</v>
       </c>
       <c r="H5">
-        <v>0.3174647001710653</v>
+        <v>0.7599195923842359</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.652325744378885</v>
+        <v>0.1921146889346801</v>
       </c>
       <c r="L5">
-        <v>0.1914563416535913</v>
+        <v>0.2974495415190077</v>
       </c>
       <c r="M5">
-        <v>0.1807088772423455</v>
+        <v>0.151322712420253</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.319406652144096</v>
+        <v>2.759738264361559</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7429402992255802</v>
+        <v>0.3698469863861931</v>
       </c>
       <c r="C6">
-        <v>0.2110594960475041</v>
+        <v>0.3842059160614859</v>
       </c>
       <c r="D6">
-        <v>0.0671284865956352</v>
+        <v>0.03612758387068027</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4154517714525383</v>
+        <v>0.7799469268820118</v>
       </c>
       <c r="G6">
-        <v>0.3337845963159083</v>
+        <v>0.62677073980975</v>
       </c>
       <c r="H6">
-        <v>0.3176743089142207</v>
+        <v>0.7601808070458915</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6482381403592257</v>
+        <v>0.1907855496858417</v>
       </c>
       <c r="L6">
-        <v>0.1907082681234087</v>
+        <v>0.2973368848799112</v>
       </c>
       <c r="M6">
-        <v>0.1795050225241646</v>
+        <v>0.1510079400072293</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.319630265128055</v>
+        <v>2.76071178498978</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7801103124910469</v>
+        <v>0.3807770827390868</v>
       </c>
       <c r="C7">
-        <v>0.2093953736529492</v>
+        <v>0.3834148365621743</v>
       </c>
       <c r="D7">
-        <v>0.06949667476668964</v>
+        <v>0.03695395005474467</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4187802367996341</v>
+        <v>0.7789632223616607</v>
       </c>
       <c r="G7">
-        <v>0.3345033816844989</v>
+        <v>0.6253709987223388</v>
       </c>
       <c r="H7">
-        <v>0.3162613118355893</v>
+        <v>0.7583943965079314</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6765991933519757</v>
+        <v>0.2000040244244303</v>
       </c>
       <c r="L7">
-        <v>0.1959228885790765</v>
+        <v>0.2981327161867355</v>
       </c>
       <c r="M7">
-        <v>0.1878689757774659</v>
+        <v>0.1531985168606447</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.318303498804198</v>
+        <v>2.754081981481889</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9443184657700954</v>
+        <v>0.4291647244641297</v>
       </c>
       <c r="C8">
-        <v>0.2023911418082598</v>
+        <v>0.3801234517826195</v>
       </c>
       <c r="D8">
-        <v>0.07990434944158409</v>
+        <v>0.04056575476774071</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4352707442926089</v>
+        <v>0.7756012214079533</v>
       </c>
       <c r="G8">
-        <v>0.3393464462495146</v>
+        <v>0.6200389351644944</v>
       </c>
       <c r="H8">
-        <v>0.3110875418374803</v>
+        <v>0.7511716719657642</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8015076955245632</v>
+        <v>0.2405014194834649</v>
       </c>
       <c r="L8">
-        <v>0.219508638540475</v>
+        <v>0.3019872386627753</v>
       </c>
       <c r="M8">
-        <v>0.2249929262170376</v>
+        <v>0.1630054646976902</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.318194242690709</v>
+        <v>2.727980180185497</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.267682764326253</v>
+        <v>0.5245733200372058</v>
       </c>
       <c r="C9">
-        <v>0.189896242982126</v>
+        <v>0.374383090613069</v>
       </c>
       <c r="D9">
-        <v>0.1001866614695572</v>
+        <v>0.0475215424716211</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4746991789064623</v>
+        <v>0.7725230952948721</v>
       </c>
       <c r="G9">
-        <v>0.3554169134397824</v>
+        <v>0.6126201386812369</v>
       </c>
       <c r="H9">
-        <v>0.3050031597425829</v>
+        <v>0.7393765984075742</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.045996427967367</v>
+        <v>0.3192342957632945</v>
       </c>
       <c r="L9">
-        <v>0.2680935816657239</v>
+        <v>0.3107731131640605</v>
       </c>
       <c r="M9">
-        <v>0.2987808457980705</v>
+        <v>0.1827336038928919</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.340347899805479</v>
+        <v>2.688124623594248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.506806292415291</v>
+        <v>0.5949621389601987</v>
       </c>
       <c r="C10">
-        <v>0.1814930198443179</v>
+        <v>0.3705981642000893</v>
       </c>
       <c r="D10">
-        <v>0.1150385891978516</v>
+        <v>0.05255336505203445</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5086021456363881</v>
+        <v>0.7724025754784734</v>
       </c>
       <c r="G10">
-        <v>0.3717974281460528</v>
+        <v>0.6090232965665905</v>
       </c>
       <c r="H10">
-        <v>0.3032547417493987</v>
+        <v>0.7321507047506657</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.225788610040553</v>
+        <v>0.3766441734435944</v>
       </c>
       <c r="L10">
-        <v>0.3054829808587129</v>
+        <v>0.3179735603485199</v>
       </c>
       <c r="M10">
-        <v>0.3538154088734302</v>
+        <v>0.1975256737194329</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.371976647885106</v>
+        <v>2.66574612493946</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.616098383572336</v>
+        <v>0.6270423514181687</v>
       </c>
       <c r="C11">
-        <v>0.1778436698475474</v>
+        <v>0.3689696327839336</v>
       </c>
       <c r="D11">
-        <v>0.1217910267909588</v>
+        <v>0.05482517544919574</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5252407765062301</v>
+        <v>0.7728123460345913</v>
       </c>
       <c r="G11">
-        <v>0.380375563239582</v>
+        <v>0.607790008788939</v>
       </c>
       <c r="H11">
-        <v>0.3031082157302762</v>
+        <v>0.7291752855341542</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.307723679699762</v>
+        <v>0.4026632008947502</v>
       </c>
       <c r="L11">
-        <v>0.3229242432281012</v>
+        <v>0.3214106041756537</v>
       </c>
       <c r="M11">
-        <v>0.3790829141999339</v>
+        <v>0.2043186660632657</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.390102611923368</v>
+        <v>2.657063910368521</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.657573204011442</v>
+        <v>0.6391983475205052</v>
       </c>
       <c r="C12">
-        <v>0.1764871215548496</v>
+        <v>0.3683663165357132</v>
       </c>
       <c r="D12">
-        <v>0.1243480138536484</v>
+        <v>0.05568294885313207</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5317289402680103</v>
+        <v>0.7730342777326555</v>
       </c>
       <c r="G12">
-        <v>0.3837976839110127</v>
+        <v>0.6073809656939773</v>
       </c>
       <c r="H12">
-        <v>0.3031511857567892</v>
+        <v>0.7280933241036252</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.338780646693181</v>
+        <v>0.412501544265865</v>
       </c>
       <c r="L12">
-        <v>0.3295966189397603</v>
+        <v>0.3227352847823539</v>
       </c>
       <c r="M12">
-        <v>0.3886889596033711</v>
+        <v>0.2069000819821127</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.397539785729776</v>
+        <v>2.653991504360732</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.648636692904262</v>
+        <v>0.6365799954937472</v>
       </c>
       <c r="C13">
-        <v>0.1767781420849914</v>
+        <v>0.3684956572763625</v>
       </c>
       <c r="D13">
-        <v>0.1237973127971941</v>
+        <v>0.05549832435465873</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5303230508755163</v>
+        <v>0.7729835123541022</v>
       </c>
       <c r="G13">
-        <v>0.3830527453312413</v>
+        <v>0.6074664813909294</v>
       </c>
       <c r="H13">
-        <v>0.3031374669491242</v>
+        <v>0.7283243537584525</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.332090494239793</v>
+        <v>0.4103833344714758</v>
       </c>
       <c r="L13">
-        <v>0.3281564984193182</v>
+        <v>0.3224489629396743</v>
       </c>
       <c r="M13">
-        <v>0.386618371520477</v>
+        <v>0.2063437273954065</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.39591196762629</v>
+        <v>2.654643624301514</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.619508686654001</v>
+        <v>0.6280422779504704</v>
       </c>
       <c r="C14">
-        <v>0.177731554405586</v>
+        <v>0.3689197297779785</v>
       </c>
       <c r="D14">
-        <v>0.1220013887952121</v>
+        <v>0.05489579555376167</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5257707293232272</v>
+        <v>0.7728292667874399</v>
       </c>
       <c r="G14">
-        <v>0.3806535505675726</v>
+        <v>0.6077551944415802</v>
       </c>
       <c r="H14">
-        <v>0.3031097470020683</v>
+        <v>0.7290853750588013</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.310278102231166</v>
+        <v>0.4034729010075182</v>
       </c>
       <c r="L14">
-        <v>0.3234717928600901</v>
+        <v>0.3215191230135162</v>
       </c>
       <c r="M14">
-        <v>0.3798724255767141</v>
+        <v>0.2045308600268072</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.390702770750607</v>
+        <v>2.656806825730484</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.601678883033031</v>
+        <v>0.6228136892607097</v>
       </c>
       <c r="C15">
-        <v>0.1783188664267321</v>
+        <v>0.3691812269604853</v>
       </c>
       <c r="D15">
-        <v>0.1209013478760141</v>
+        <v>0.05452640095927563</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5230071034243196</v>
+        <v>0.7727434796708863</v>
       </c>
       <c r="G15">
-        <v>0.3792069659903206</v>
+        <v>0.6079395907544978</v>
       </c>
       <c r="H15">
-        <v>0.3031057481856436</v>
+        <v>0.7295573507550017</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.296921553848364</v>
+        <v>0.3992381567438201</v>
       </c>
       <c r="L15">
-        <v>0.3206112685178795</v>
+        <v>0.3209525812045086</v>
       </c>
       <c r="M15">
-        <v>0.3757453965883215</v>
+        <v>0.2034216015684436</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.387587742919465</v>
+        <v>2.658159894327099</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.499675342724345</v>
+        <v>0.5928667679780801</v>
       </c>
       <c r="C16">
-        <v>0.1817350396606408</v>
+        <v>0.3707064659039467</v>
       </c>
       <c r="D16">
-        <v>0.1145972699224558</v>
+        <v>0.05240454756813051</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5075403020120604</v>
+        <v>0.7723851408008429</v>
       </c>
       <c r="G16">
-        <v>0.3712604855691382</v>
+        <v>0.609112005879993</v>
       </c>
       <c r="H16">
-        <v>0.3032778070996329</v>
+        <v>0.7323514225454915</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.220437653743232</v>
+        <v>0.3749417698318211</v>
       </c>
       <c r="L16">
-        <v>0.3043523244082138</v>
+        <v>0.3177521848782874</v>
       </c>
       <c r="M16">
-        <v>0.3521691584184481</v>
+        <v>0.1970830111043185</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.370870295783703</v>
+        <v>2.66634366643936</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.437240974826693</v>
+        <v>0.5745101600064686</v>
       </c>
       <c r="C17">
-        <v>0.1838754604337716</v>
+        <v>0.3716660084953638</v>
       </c>
       <c r="D17">
-        <v>0.1107293201586543</v>
+        <v>0.05109842788682073</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4983721040559033</v>
+        <v>0.7722842719497081</v>
       </c>
       <c r="G17">
-        <v>0.3666822621381414</v>
+        <v>0.6099344706725347</v>
       </c>
       <c r="H17">
-        <v>0.303553109146165</v>
+        <v>0.7341452847657166</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.173560923435673</v>
+        <v>0.3600114860153951</v>
       </c>
       <c r="L17">
-        <v>0.2944926277774726</v>
+        <v>0.3158301586307886</v>
       </c>
       <c r="M17">
-        <v>0.3377683820519692</v>
+        <v>0.1932107801089771</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.361596797012197</v>
+        <v>2.671747765045012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.401377799396641</v>
+        <v>0.5639576131237902</v>
       </c>
       <c r="C18">
-        <v>0.1851228584638775</v>
+        <v>0.3722266913284749</v>
       </c>
       <c r="D18">
-        <v>0.1085041884253073</v>
+        <v>0.05034556668457668</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4932124552762573</v>
+        <v>0.7722699877240302</v>
       </c>
       <c r="G18">
-        <v>0.3641542793043087</v>
+        <v>0.6104454546748883</v>
       </c>
       <c r="H18">
-        <v>0.3037722001322081</v>
+        <v>0.7352064064733455</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.146611910272412</v>
+        <v>0.3514148828560621</v>
       </c>
       <c r="L18">
-        <v>0.2888619614276138</v>
+        <v>0.3147398682256721</v>
       </c>
       <c r="M18">
-        <v>0.3295069920602955</v>
+        <v>0.1909896085441716</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.356612484411102</v>
+        <v>2.674997048928674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.389242865560789</v>
+        <v>0.5603857007250781</v>
       </c>
       <c r="C19">
-        <v>0.1855479893483611</v>
+        <v>0.3724180378631878</v>
       </c>
       <c r="D19">
-        <v>0.1077507146187315</v>
+        <v>0.05009038453167847</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4914846354334514</v>
+        <v>0.7722726639316306</v>
       </c>
       <c r="G19">
-        <v>0.3633160846186811</v>
+        <v>0.6106249774866086</v>
       </c>
       <c r="H19">
-        <v>0.3038566616827225</v>
+        <v>0.7355707247862355</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.137489452790589</v>
+        <v>0.3485026747072482</v>
       </c>
       <c r="L19">
-        <v>0.2869622851497979</v>
+        <v>0.314373329100988</v>
       </c>
       <c r="M19">
-        <v>0.3267133993546878</v>
+        <v>0.1902385987115807</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.354983865147076</v>
+        <v>2.676121416639091</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.443882210553483</v>
+        <v>0.5764636686699589</v>
       </c>
       <c r="C20">
-        <v>0.183645920353861</v>
+        <v>0.3715629551844124</v>
       </c>
       <c r="D20">
-        <v>0.1111411065846823</v>
+        <v>0.05123763406480464</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4993362224516105</v>
+        <v>0.7722904837658362</v>
       </c>
       <c r="G20">
-        <v>0.3671586417657551</v>
+        <v>0.6098429926433155</v>
       </c>
       <c r="H20">
-        <v>0.3035174796373497</v>
+        <v>0.7339512889181492</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.178549598864208</v>
+        <v>0.361601785876104</v>
       </c>
       <c r="L20">
-        <v>0.2955379921409644</v>
+        <v>0.3160331881893086</v>
       </c>
       <c r="M20">
-        <v>0.339299107197462</v>
+        <v>0.193622362349636</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.362547546824914</v>
+        <v>2.671157897889316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.628061772467447</v>
+        <v>0.6305498033690355</v>
       </c>
       <c r="C21">
-        <v>0.1774508214723838</v>
+        <v>0.3687948067427662</v>
       </c>
       <c r="D21">
-        <v>0.1225288912173568</v>
+        <v>0.05507284135791224</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5271026640771623</v>
+        <v>0.7728727609758366</v>
       </c>
       <c r="G21">
-        <v>0.3813534387691249</v>
+        <v>0.6076688186892767</v>
       </c>
       <c r="H21">
-        <v>0.303115174246372</v>
+        <v>0.7288606301642062</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.316684044476403</v>
+        <v>0.40550306064182</v>
       </c>
       <c r="L21">
-        <v>0.3248459199142388</v>
+        <v>0.3217916119865691</v>
       </c>
       <c r="M21">
-        <v>0.3818528110904538</v>
+        <v>0.2050630984792718</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.392216983720715</v>
+        <v>2.656165596488108</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.748955727896998</v>
+        <v>0.6659440300457504</v>
       </c>
       <c r="C22">
-        <v>0.1735501395908479</v>
+        <v>0.3670635948745691</v>
       </c>
       <c r="D22">
-        <v>0.1299716524359695</v>
+        <v>0.05756471129180341</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5463488124010922</v>
+        <v>0.7736424209613801</v>
       </c>
       <c r="G22">
-        <v>0.3916494093057281</v>
+        <v>0.6065858155967021</v>
       </c>
       <c r="H22">
-        <v>0.303428754127907</v>
+        <v>0.7257944918800803</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.407141937786236</v>
+        <v>0.4341103254242</v>
       </c>
       <c r="L22">
-        <v>0.3443980588518656</v>
+        <v>0.325689953979051</v>
       </c>
       <c r="M22">
-        <v>0.4098866508704262</v>
+        <v>0.2125930047197997</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.414967344488872</v>
+        <v>2.647622528671349</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.684379561876113</v>
+        <v>0.6470495077518024</v>
       </c>
       <c r="C23">
-        <v>0.175618290812789</v>
+        <v>0.3679804561370581</v>
       </c>
       <c r="D23">
-        <v>0.1259991099873474</v>
+        <v>0.05623610795834111</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5359718322837352</v>
+        <v>0.7731960516148249</v>
       </c>
       <c r="G23">
-        <v>0.386056947045077</v>
+        <v>0.6071329014507114</v>
       </c>
       <c r="H23">
-        <v>0.303206850463539</v>
+        <v>0.7274070926789165</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.358843385831193</v>
+        <v>0.418850025388565</v>
       </c>
       <c r="L23">
-        <v>0.3339244016512879</v>
+        <v>0.3235970206692826</v>
       </c>
       <c r="M23">
-        <v>0.3949025610105323</v>
+        <v>0.2085693763276382</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.40250522755386</v>
+        <v>2.652067278882356</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.440879611858719</v>
+        <v>0.5755804845112777</v>
       </c>
       <c r="C24">
-        <v>0.1837496430000556</v>
+        <v>0.3716095174596852</v>
       </c>
       <c r="D24">
-        <v>0.1109549423291298</v>
+        <v>0.05117470504023203</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4988999988875804</v>
+        <v>0.7722875392578246</v>
       </c>
       <c r="G24">
-        <v>0.3669429471730723</v>
+        <v>0.6098842310658696</v>
       </c>
       <c r="H24">
-        <v>0.3035333986955777</v>
+        <v>0.7340389015917168</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.176294216113007</v>
+        <v>0.3608828517123754</v>
       </c>
       <c r="L24">
-        <v>0.2950652655738963</v>
+        <v>0.3159413527065169</v>
       </c>
       <c r="M24">
-        <v>0.3386070112219883</v>
+        <v>0.1934362703537715</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.362116634232422</v>
+        <v>2.671424133275565</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.179987421256698</v>
+        <v>0.4987096491629188</v>
       </c>
       <c r="C25">
-        <v>0.1931415983340656</v>
+        <v>0.3758598570481304</v>
       </c>
       <c r="D25">
-        <v>0.09471057350513945</v>
+        <v>0.04565353267349792</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4632124812937093</v>
+        <v>0.7729797046343663</v>
       </c>
       <c r="G25">
-        <v>0.3503091850285358</v>
+        <v>0.6143017301046783</v>
       </c>
       <c r="H25">
-        <v>0.3061898235417644</v>
+        <v>0.742314316386917</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9798605080522691</v>
+        <v>0.2980100089758082</v>
       </c>
       <c r="L25">
-        <v>0.2546731642544415</v>
+        <v>0.3082651972506767</v>
       </c>
       <c r="M25">
-        <v>0.2786915415039601</v>
+        <v>0.1773439588834833</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.331788811277789</v>
+        <v>2.697694030629805</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4423115263591342</v>
+        <v>0.9888769246142317</v>
       </c>
       <c r="C2">
-        <v>0.3792800776886729</v>
+        <v>0.200576564654753</v>
       </c>
       <c r="D2">
-        <v>0.04153582648314824</v>
+        <v>0.08271472381824196</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7749282079033861</v>
+        <v>0.4401971422781585</v>
       </c>
       <c r="G2">
-        <v>0.6187996857315312</v>
+        <v>0.3410835990257013</v>
       </c>
       <c r="H2">
-        <v>0.7493751252327172</v>
+        <v>0.3099519235390176</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2514287238144277</v>
+        <v>0.8353052884855572</v>
       </c>
       <c r="L2">
-        <v>0.3031147674088714</v>
+        <v>0.2260475605392855</v>
       </c>
       <c r="M2">
-        <v>0.1656964608235647</v>
+        <v>0.2351107979011182</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.721674786174674</v>
+        <v>1.319618037249313</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4042229608625973</v>
+        <v>0.8597309658445624</v>
       </c>
       <c r="C3">
-        <v>0.381780301871423</v>
+        <v>0.205932818802296</v>
       </c>
       <c r="D3">
-        <v>0.03871279724742749</v>
+        <v>0.07455361964511553</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7771467947007764</v>
+        <v>0.4264313929871548</v>
       </c>
       <c r="G3">
-        <v>0.6226241675176354</v>
+        <v>0.3365293530160116</v>
       </c>
       <c r="H3">
-        <v>0.754765332532692</v>
+        <v>0.3135471794528328</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2196857830806493</v>
+        <v>0.7372383399536631</v>
       </c>
       <c r="L3">
-        <v>0.2999378463029885</v>
+        <v>0.2072531193234965</v>
       </c>
       <c r="M3">
-        <v>0.1579297760462772</v>
+        <v>0.2058358590654947</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.740821529504998</v>
+        <v>1.317140854355259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3809050649576591</v>
+        <v>0.7805453171165198</v>
       </c>
       <c r="C4">
-        <v>0.3834056892649116</v>
+        <v>0.2093760860462339</v>
       </c>
       <c r="D4">
-        <v>0.03696360060506976</v>
+        <v>0.06952436093941827</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7789522475964858</v>
+        <v>0.4188201427348304</v>
       </c>
       <c r="G4">
-        <v>0.6253550821754672</v>
+        <v>0.3345126813068688</v>
       </c>
       <c r="H4">
-        <v>0.7583738548702428</v>
+        <v>0.3162453478137266</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2001117936538463</v>
+        <v>0.6769309007480047</v>
       </c>
       <c r="L4">
-        <v>0.2981422160951368</v>
+        <v>0.1959842084131935</v>
       </c>
       <c r="M4">
-        <v>0.1532242264532933</v>
+        <v>0.1879669526021637</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.754006130871105</v>
+        <v>1.31829104057671</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3714207485209897</v>
+        <v>0.7482946701186108</v>
       </c>
       <c r="C5">
-        <v>0.3840907824670765</v>
+        <v>0.2108177843615735</v>
       </c>
       <c r="D5">
-        <v>0.03624683910025794</v>
+        <v>0.06746993281905134</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7797995033374931</v>
+        <v>0.4159211563455827</v>
       </c>
       <c r="G5">
-        <v>0.6265641624967344</v>
+        <v>0.3338787460420036</v>
       </c>
       <c r="H5">
-        <v>0.7599195923842359</v>
+        <v>0.3174647001710653</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1921146889346801</v>
+        <v>0.6523257443787998</v>
       </c>
       <c r="L5">
-        <v>0.2974495415190077</v>
+        <v>0.1914563416536907</v>
       </c>
       <c r="M5">
-        <v>0.151322712420253</v>
+        <v>0.1807088772423526</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.759738264361559</v>
+        <v>1.319406652144082</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3698469863861931</v>
+        <v>0.7429402992255518</v>
       </c>
       <c r="C6">
-        <v>0.3842059160614859</v>
+        <v>0.2110594960471417</v>
       </c>
       <c r="D6">
-        <v>0.03612758387068027</v>
+        <v>0.06712848659557125</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7799469268820118</v>
+        <v>0.415451771452517</v>
       </c>
       <c r="G6">
-        <v>0.62677073980975</v>
+        <v>0.3337845963158443</v>
       </c>
       <c r="H6">
-        <v>0.7601808070458915</v>
+        <v>0.317674308914107</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1907855496858417</v>
+        <v>0.6482381403593678</v>
       </c>
       <c r="L6">
-        <v>0.2973368848799112</v>
+        <v>0.19070826812343</v>
       </c>
       <c r="M6">
-        <v>0.1510079400072293</v>
+        <v>0.1795050225241503</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.76071178498978</v>
+        <v>1.31963026512804</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3807770827390868</v>
+        <v>0.7801103124909332</v>
       </c>
       <c r="C7">
-        <v>0.3834148365621743</v>
+        <v>0.2093953736529564</v>
       </c>
       <c r="D7">
-        <v>0.03695395005474467</v>
+        <v>0.06949667476659727</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7789632223616607</v>
+        <v>0.4187802367996412</v>
       </c>
       <c r="G7">
-        <v>0.6253709987223388</v>
+        <v>0.3345033816844563</v>
       </c>
       <c r="H7">
-        <v>0.7583943965079314</v>
+        <v>0.3162613118355893</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2000040244244303</v>
+        <v>0.6765991933519757</v>
       </c>
       <c r="L7">
-        <v>0.2981327161867355</v>
+        <v>0.1959228885789912</v>
       </c>
       <c r="M7">
-        <v>0.1531985168606447</v>
+        <v>0.1878689757774517</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.754081981481889</v>
+        <v>1.318303498804198</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4291647244641297</v>
+        <v>0.9443184657700954</v>
       </c>
       <c r="C8">
-        <v>0.3801234517826195</v>
+        <v>0.2023911418085582</v>
       </c>
       <c r="D8">
-        <v>0.04056575476774071</v>
+        <v>0.07990434944143487</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7756012214079533</v>
+        <v>0.4352707442925805</v>
       </c>
       <c r="G8">
-        <v>0.6200389351644944</v>
+        <v>0.3393464462495217</v>
       </c>
       <c r="H8">
-        <v>0.7511716719657642</v>
+        <v>0.3110875418373524</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2405014194834649</v>
+        <v>0.8015076955245632</v>
       </c>
       <c r="L8">
-        <v>0.3019872386627753</v>
+        <v>0.2195086385405745</v>
       </c>
       <c r="M8">
-        <v>0.1630054646976902</v>
+        <v>0.2249929262170483</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.727980180185497</v>
+        <v>1.318194242690694</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5245733200372058</v>
+        <v>1.267682764326224</v>
       </c>
       <c r="C9">
-        <v>0.374383090613069</v>
+        <v>0.1898962429821296</v>
       </c>
       <c r="D9">
-        <v>0.0475215424716211</v>
+        <v>0.1001866614696709</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7725230952948721</v>
+        <v>0.4746991789064481</v>
       </c>
       <c r="G9">
-        <v>0.6126201386812369</v>
+        <v>0.3554169134397824</v>
       </c>
       <c r="H9">
-        <v>0.7393765984075742</v>
+        <v>0.3050031597425971</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3192342957632945</v>
+        <v>1.045996427967282</v>
       </c>
       <c r="L9">
-        <v>0.3107731131640605</v>
+        <v>0.2680935816657097</v>
       </c>
       <c r="M9">
-        <v>0.1827336038928919</v>
+        <v>0.2987808457980634</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.688124623594248</v>
+        <v>1.340347899805423</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5949621389601987</v>
+        <v>1.506806292415291</v>
       </c>
       <c r="C10">
-        <v>0.3705981642000893</v>
+        <v>0.1814930198442255</v>
       </c>
       <c r="D10">
-        <v>0.05255336505203445</v>
+        <v>0.1150385891977095</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7724025754784734</v>
+        <v>0.5086021456363738</v>
       </c>
       <c r="G10">
-        <v>0.6090232965665905</v>
+        <v>0.3717974281460386</v>
       </c>
       <c r="H10">
-        <v>0.7321507047506657</v>
+        <v>0.3032547417493987</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3766441734435944</v>
+        <v>1.225788610040581</v>
       </c>
       <c r="L10">
-        <v>0.3179735603485199</v>
+        <v>0.3054829808587129</v>
       </c>
       <c r="M10">
-        <v>0.1975256737194329</v>
+        <v>0.3538154088734373</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.66574612493946</v>
+        <v>1.371976647885162</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6270423514181687</v>
+        <v>1.616098383572336</v>
       </c>
       <c r="C11">
-        <v>0.3689696327839336</v>
+        <v>0.1778436698475367</v>
       </c>
       <c r="D11">
-        <v>0.05482517544919574</v>
+        <v>0.1217910267908309</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7728123460345913</v>
+        <v>0.5252407765062443</v>
       </c>
       <c r="G11">
-        <v>0.607790008788939</v>
+        <v>0.3803755632395109</v>
       </c>
       <c r="H11">
-        <v>0.7291752855341542</v>
+        <v>0.3031082157303899</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4026632008947502</v>
+        <v>1.307723679699649</v>
       </c>
       <c r="L11">
-        <v>0.3214106041756537</v>
+        <v>0.3229242432280302</v>
       </c>
       <c r="M11">
-        <v>0.2043186660632657</v>
+        <v>0.3790829141999339</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.657063910368521</v>
+        <v>1.390102611923339</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6391983475205052</v>
+        <v>1.657573204011214</v>
       </c>
       <c r="C12">
-        <v>0.3683663165357132</v>
+        <v>0.1764871215545405</v>
       </c>
       <c r="D12">
-        <v>0.05568294885313207</v>
+        <v>0.1243480138535347</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7730342777326555</v>
+        <v>0.5317289402680103</v>
       </c>
       <c r="G12">
-        <v>0.6073809656939773</v>
+        <v>0.3837976839110127</v>
       </c>
       <c r="H12">
-        <v>0.7280933241036252</v>
+        <v>0.3031511857567892</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.412501544265865</v>
+        <v>1.338780646693095</v>
       </c>
       <c r="L12">
-        <v>0.3227352847823539</v>
+        <v>0.3295966189396751</v>
       </c>
       <c r="M12">
-        <v>0.2069000819821127</v>
+        <v>0.3886889596033711</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.653991504360732</v>
+        <v>1.397539785729748</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6365799954937472</v>
+        <v>1.64863669290429</v>
       </c>
       <c r="C13">
-        <v>0.3684956572763625</v>
+        <v>0.1767781420851513</v>
       </c>
       <c r="D13">
-        <v>0.05549832435465873</v>
+        <v>0.123797312797393</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7729835123541022</v>
+        <v>0.5303230508755092</v>
       </c>
       <c r="G13">
-        <v>0.6074664813909294</v>
+        <v>0.3830527453312413</v>
       </c>
       <c r="H13">
-        <v>0.7283243537584525</v>
+        <v>0.3031374669492379</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4103833344714758</v>
+        <v>1.332090494239708</v>
       </c>
       <c r="L13">
-        <v>0.3224489629396743</v>
+        <v>0.3281564984192613</v>
       </c>
       <c r="M13">
-        <v>0.2063437273954065</v>
+        <v>0.386618371520477</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.654643624301514</v>
+        <v>1.395911967626233</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6280422779504704</v>
+        <v>1.619508686654001</v>
       </c>
       <c r="C14">
-        <v>0.3689197297779785</v>
+        <v>0.1777315544058098</v>
       </c>
       <c r="D14">
-        <v>0.05489579555376167</v>
+        <v>0.1220013887950415</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7728292667874399</v>
+        <v>0.5257707293232201</v>
       </c>
       <c r="G14">
-        <v>0.6077551944415802</v>
+        <v>0.3806535505676436</v>
       </c>
       <c r="H14">
-        <v>0.7290853750588013</v>
+        <v>0.3031097470019546</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4034729010075182</v>
+        <v>1.310278102231166</v>
       </c>
       <c r="L14">
-        <v>0.3215191230135162</v>
+        <v>0.3234717928600901</v>
       </c>
       <c r="M14">
-        <v>0.2045308600268072</v>
+        <v>0.3798724255767141</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.656806825730484</v>
+        <v>1.390702770750607</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6228136892607097</v>
+        <v>1.60167888303306</v>
       </c>
       <c r="C15">
-        <v>0.3691812269604853</v>
+        <v>0.1783188664266291</v>
       </c>
       <c r="D15">
-        <v>0.05452640095927563</v>
+        <v>0.120901347876142</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7727434796708863</v>
+        <v>0.5230071034243053</v>
       </c>
       <c r="G15">
-        <v>0.6079395907544978</v>
+        <v>0.3792069659903206</v>
       </c>
       <c r="H15">
-        <v>0.7295573507550017</v>
+        <v>0.3031057481856436</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3992381567438201</v>
+        <v>1.296921553848335</v>
       </c>
       <c r="L15">
-        <v>0.3209525812045086</v>
+        <v>0.3206112685179505</v>
       </c>
       <c r="M15">
-        <v>0.2034216015684436</v>
+        <v>0.3757453965883286</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.658159894327099</v>
+        <v>1.387587742919351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5928667679780801</v>
+        <v>1.499675342724487</v>
       </c>
       <c r="C16">
-        <v>0.3707064659039467</v>
+        <v>0.1817350396606443</v>
       </c>
       <c r="D16">
-        <v>0.05240454756813051</v>
+        <v>0.1145972699225837</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7723851408008429</v>
+        <v>0.5075403020120604</v>
       </c>
       <c r="G16">
-        <v>0.609112005879993</v>
+        <v>0.3712604855690671</v>
       </c>
       <c r="H16">
-        <v>0.7323514225454915</v>
+        <v>0.3032778070996471</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3749417698318211</v>
+        <v>1.220437653743176</v>
       </c>
       <c r="L16">
-        <v>0.3177521848782874</v>
+        <v>0.3043523244081712</v>
       </c>
       <c r="M16">
-        <v>0.1970830111043185</v>
+        <v>0.3521691584184552</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.66634366643936</v>
+        <v>1.370870295783646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5745101600064686</v>
+        <v>1.437240974826778</v>
       </c>
       <c r="C17">
-        <v>0.3716660084953638</v>
+        <v>0.1838754604339314</v>
       </c>
       <c r="D17">
-        <v>0.05109842788682073</v>
+        <v>0.1107293201586685</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7722842719497081</v>
+        <v>0.4983721040559033</v>
       </c>
       <c r="G17">
-        <v>0.6099344706725347</v>
+        <v>0.3666822621381129</v>
       </c>
       <c r="H17">
-        <v>0.7341452847657166</v>
+        <v>0.303553109146165</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3600114860153951</v>
+        <v>1.173560923435673</v>
       </c>
       <c r="L17">
-        <v>0.3158301586307886</v>
+        <v>0.2944926277774869</v>
       </c>
       <c r="M17">
-        <v>0.1932107801089771</v>
+        <v>0.3377683820519692</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.671747765045012</v>
+        <v>1.361596797012197</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5639576131237902</v>
+        <v>1.401377799396528</v>
       </c>
       <c r="C18">
-        <v>0.3722266913284749</v>
+        <v>0.1851228584640303</v>
       </c>
       <c r="D18">
-        <v>0.05034556668457668</v>
+        <v>0.1085041884253926</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7722699877240302</v>
+        <v>0.4932124552762644</v>
       </c>
       <c r="G18">
-        <v>0.6104454546748883</v>
+        <v>0.364154279304195</v>
       </c>
       <c r="H18">
-        <v>0.7352064064733455</v>
+        <v>0.3037722001323218</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3514148828560621</v>
+        <v>1.146611910272355</v>
       </c>
       <c r="L18">
-        <v>0.3147398682256721</v>
+        <v>0.2888619614276138</v>
       </c>
       <c r="M18">
-        <v>0.1909896085441716</v>
+        <v>0.3295069920602813</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.674997048928674</v>
+        <v>1.356612484411045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5603857007250781</v>
+        <v>1.389242865560902</v>
       </c>
       <c r="C19">
-        <v>0.3724180378631878</v>
+        <v>0.185547989348283</v>
       </c>
       <c r="D19">
-        <v>0.05009038453167847</v>
+        <v>0.1077507146187315</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7722726639316306</v>
+        <v>0.4914846354334514</v>
       </c>
       <c r="G19">
-        <v>0.6106249774866086</v>
+        <v>0.3633160846186598</v>
       </c>
       <c r="H19">
-        <v>0.7355707247862355</v>
+        <v>0.3038566616827154</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3485026747072482</v>
+        <v>1.137489452790504</v>
       </c>
       <c r="L19">
-        <v>0.314373329100988</v>
+        <v>0.2869622851498548</v>
       </c>
       <c r="M19">
-        <v>0.1902385987115807</v>
+        <v>0.3267133993546878</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.676121416639091</v>
+        <v>1.354983865147076</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5764636686699589</v>
+        <v>1.443882210553369</v>
       </c>
       <c r="C20">
-        <v>0.3715629551844124</v>
+        <v>0.1836459203537117</v>
       </c>
       <c r="D20">
-        <v>0.05123763406480464</v>
+        <v>0.1111411065847321</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7722904837658362</v>
+        <v>0.4993362224516034</v>
       </c>
       <c r="G20">
-        <v>0.6098429926433155</v>
+        <v>0.3671586417657977</v>
       </c>
       <c r="H20">
-        <v>0.7339512889181492</v>
+        <v>0.3035174796373639</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.361601785876104</v>
+        <v>1.178549598864208</v>
       </c>
       <c r="L20">
-        <v>0.3160331881893086</v>
+        <v>0.2955379921410071</v>
       </c>
       <c r="M20">
-        <v>0.193622362349636</v>
+        <v>0.339299107197462</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.671157897889316</v>
+        <v>1.362547546824914</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6305498033690355</v>
+        <v>1.628061772467419</v>
       </c>
       <c r="C21">
-        <v>0.3687948067427662</v>
+        <v>0.1774508214723909</v>
       </c>
       <c r="D21">
-        <v>0.05507284135791224</v>
+        <v>0.1225288912175131</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7728727609758366</v>
+        <v>0.5271026640771623</v>
       </c>
       <c r="G21">
-        <v>0.6076688186892767</v>
+        <v>0.3813534387690822</v>
       </c>
       <c r="H21">
-        <v>0.7288606301642062</v>
+        <v>0.3031151742463436</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.40550306064182</v>
+        <v>1.316684044476432</v>
       </c>
       <c r="L21">
-        <v>0.3217916119865691</v>
+        <v>0.3248459199141394</v>
       </c>
       <c r="M21">
-        <v>0.2050630984792718</v>
+        <v>0.3818528110904467</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.656165596488108</v>
+        <v>1.392216983720687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6659440300457504</v>
+        <v>1.748955727897226</v>
       </c>
       <c r="C22">
-        <v>0.3670635948745691</v>
+        <v>0.1735501395909083</v>
       </c>
       <c r="D22">
-        <v>0.05756471129180341</v>
+        <v>0.1299716524362537</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7736424209613801</v>
+        <v>0.5463488124010993</v>
       </c>
       <c r="G22">
-        <v>0.6065858155967021</v>
+        <v>0.391649409305785</v>
       </c>
       <c r="H22">
-        <v>0.7257944918800803</v>
+        <v>0.303428754127907</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4341103254242</v>
+        <v>1.407141937786463</v>
       </c>
       <c r="L22">
-        <v>0.325689953979051</v>
+        <v>0.3443980588519082</v>
       </c>
       <c r="M22">
-        <v>0.2125930047197997</v>
+        <v>0.4098866508704262</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.647622528671349</v>
+        <v>1.414967344488986</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6470495077518024</v>
+        <v>1.684379561876256</v>
       </c>
       <c r="C23">
-        <v>0.3679804561370581</v>
+        <v>0.1756182908128707</v>
       </c>
       <c r="D23">
-        <v>0.05623610795834111</v>
+        <v>0.1259991099872337</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7731960516148249</v>
+        <v>0.5359718322837281</v>
       </c>
       <c r="G23">
-        <v>0.6071329014507114</v>
+        <v>0.3860569470450201</v>
       </c>
       <c r="H23">
-        <v>0.7274070926789165</v>
+        <v>0.303206850463539</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.418850025388565</v>
+        <v>1.358843385831165</v>
       </c>
       <c r="L23">
-        <v>0.3235970206692826</v>
+        <v>0.3339244016512595</v>
       </c>
       <c r="M23">
-        <v>0.2085693763276382</v>
+        <v>0.3949025610105323</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.652067278882356</v>
+        <v>1.402505227553803</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5755804845112777</v>
+        <v>1.44087961185889</v>
       </c>
       <c r="C24">
-        <v>0.3716095174596852</v>
+        <v>0.1837496430002901</v>
       </c>
       <c r="D24">
-        <v>0.05117470504023203</v>
+        <v>0.1109549423289309</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7722875392578246</v>
+        <v>0.4988999988875662</v>
       </c>
       <c r="G24">
-        <v>0.6098842310658696</v>
+        <v>0.3669429471729941</v>
       </c>
       <c r="H24">
-        <v>0.7340389015917168</v>
+        <v>0.3035333986955777</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3608828517123754</v>
+        <v>1.176294216113064</v>
       </c>
       <c r="L24">
-        <v>0.3159413527065169</v>
+        <v>0.2950652655738537</v>
       </c>
       <c r="M24">
-        <v>0.1934362703537715</v>
+        <v>0.3386070112219883</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.671424133275565</v>
+        <v>1.362116634232422</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4987096491629188</v>
+        <v>1.179987421256499</v>
       </c>
       <c r="C25">
-        <v>0.3758598570481304</v>
+        <v>0.193141598333753</v>
       </c>
       <c r="D25">
-        <v>0.04565353267349792</v>
+        <v>0.09471057350513945</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7729797046343663</v>
+        <v>0.4632124812937306</v>
       </c>
       <c r="G25">
-        <v>0.6143017301046783</v>
+        <v>0.3503091850285998</v>
       </c>
       <c r="H25">
-        <v>0.742314316386917</v>
+        <v>0.3061898235416507</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2980100089758082</v>
+        <v>0.9798605080523544</v>
       </c>
       <c r="L25">
-        <v>0.3082651972506767</v>
+        <v>0.2546731642543563</v>
       </c>
       <c r="M25">
-        <v>0.1773439588834833</v>
+        <v>0.2786915415039601</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.697694030629805</v>
+        <v>1.331788811277889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9888769246142317</v>
+        <v>1.012401652611203</v>
       </c>
       <c r="C2">
-        <v>0.200576564654753</v>
+        <v>0.1320307714381741</v>
       </c>
       <c r="D2">
-        <v>0.08271472381824196</v>
+        <v>0.1459400221942673</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4401971422781585</v>
+        <v>0.6341133230249056</v>
       </c>
       <c r="G2">
-        <v>0.3410835990257013</v>
+        <v>0.3630509835100852</v>
       </c>
       <c r="H2">
-        <v>0.3099519235390176</v>
+        <v>0.00442354996851313</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003823303699671321</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3328141585003834</v>
       </c>
       <c r="K2">
-        <v>0.8353052884855572</v>
+        <v>0.3737766650933771</v>
       </c>
       <c r="L2">
-        <v>0.2260475605392855</v>
+        <v>0.09516390518997397</v>
       </c>
       <c r="M2">
-        <v>0.2351107979011182</v>
+        <v>0.8447417291742454</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2752393974696474</v>
       </c>
       <c r="O2">
-        <v>1.319618037249313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8991633644917449</v>
+      </c>
+      <c r="Q2">
+        <v>1.413395951248759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8597309658445624</v>
+        <v>0.8831365037273429</v>
       </c>
       <c r="C3">
-        <v>0.205932818802296</v>
+        <v>0.1263998864265403</v>
       </c>
       <c r="D3">
-        <v>0.07455361964511553</v>
+        <v>0.1323046835303359</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4264313929871548</v>
+        <v>0.6170931897973446</v>
       </c>
       <c r="G3">
-        <v>0.3365293530160116</v>
+        <v>0.355430338152452</v>
       </c>
       <c r="H3">
-        <v>0.3135471794528328</v>
+        <v>0.00598793967387784</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.005059020938184222</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3328863293521351</v>
       </c>
       <c r="K3">
-        <v>0.7372383399536631</v>
+        <v>0.374173795512533</v>
       </c>
       <c r="L3">
-        <v>0.2072531193234965</v>
+        <v>0.09102071209161267</v>
       </c>
       <c r="M3">
-        <v>0.2058358590654947</v>
+        <v>0.737067301418449</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2463565045195253</v>
       </c>
       <c r="O3">
-        <v>1.317140854355259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9225990336423955</v>
+      </c>
+      <c r="Q3">
+        <v>1.397145607757992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7805453171165198</v>
+        <v>0.8033924021951862</v>
       </c>
       <c r="C4">
-        <v>0.2093760860462339</v>
+        <v>0.1229453757886318</v>
       </c>
       <c r="D4">
-        <v>0.06952436093941827</v>
+        <v>0.1239611481206282</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4188201427348304</v>
+        <v>0.6070410615227502</v>
       </c>
       <c r="G4">
-        <v>0.3345126813068688</v>
+        <v>0.3510515118411348</v>
       </c>
       <c r="H4">
-        <v>0.3162453478137266</v>
+        <v>0.007110375242805833</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00597956411974998</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3331459747632195</v>
       </c>
       <c r="K4">
-        <v>0.6769309007480047</v>
+        <v>0.3746145953091187</v>
       </c>
       <c r="L4">
-        <v>0.1959842084131935</v>
+        <v>0.08842520855890257</v>
       </c>
       <c r="M4">
-        <v>0.1879669526021637</v>
+        <v>0.6708135010511427</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2286746994357287</v>
       </c>
       <c r="O4">
-        <v>1.31829104057671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9375709254272095</v>
+      </c>
+      <c r="Q4">
+        <v>1.388248489750794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7482946701186108</v>
+        <v>0.770174793476599</v>
       </c>
       <c r="C5">
-        <v>0.2108177843615735</v>
+        <v>0.1216492895496089</v>
       </c>
       <c r="D5">
-        <v>0.06746993281905134</v>
+        <v>0.1205772708512924</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4159211563455827</v>
+        <v>0.6027084748197069</v>
       </c>
       <c r="G5">
-        <v>0.3338787460420036</v>
+        <v>0.3490791677720466</v>
       </c>
       <c r="H5">
-        <v>0.3174647001710653</v>
+        <v>0.007610118919632841</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.006473080599596504</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3331694258244298</v>
       </c>
       <c r="K5">
-        <v>0.6523257443787998</v>
+        <v>0.3745925438502091</v>
       </c>
       <c r="L5">
-        <v>0.1914563416536907</v>
+        <v>0.0873014386908757</v>
       </c>
       <c r="M5">
-        <v>0.1807088772423526</v>
+        <v>0.643784495757572</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2216101993421375</v>
       </c>
       <c r="O5">
-        <v>1.319406652144082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9438542782821493</v>
+      </c>
+      <c r="Q5">
+        <v>1.384050012501646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7429402992255518</v>
+        <v>0.7638863533743177</v>
       </c>
       <c r="C6">
-        <v>0.2110594960471417</v>
+        <v>0.1215720772891444</v>
       </c>
       <c r="D6">
-        <v>0.06712848659557125</v>
+        <v>0.1200273984943365</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.415451771452517</v>
+        <v>0.6015870192155859</v>
       </c>
       <c r="G6">
-        <v>0.3337845963158443</v>
+        <v>0.3484370951991025</v>
       </c>
       <c r="H6">
-        <v>0.317674308914107</v>
+        <v>0.007699064741698763</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00666122086110299</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3330109047691963</v>
       </c>
       <c r="K6">
-        <v>0.6482381403593678</v>
+        <v>0.3742861312281427</v>
       </c>
       <c r="L6">
-        <v>0.19070826812343</v>
+        <v>0.08704933760513356</v>
       </c>
       <c r="M6">
-        <v>0.1795050225241503</v>
+        <v>0.6393037825300212</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2205962638264793</v>
       </c>
       <c r="O6">
-        <v>1.31963026512804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9449549782763462</v>
+      </c>
+      <c r="Q6">
+        <v>1.38234551057829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7801103124909332</v>
+        <v>0.8008433637906194</v>
       </c>
       <c r="C7">
-        <v>0.2093953736529564</v>
+        <v>0.1233064381335112</v>
       </c>
       <c r="D7">
-        <v>0.06949667476659727</v>
+        <v>0.1239473368791693</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4187802367996412</v>
+        <v>0.6058694106963145</v>
       </c>
       <c r="G7">
-        <v>0.3345033816844563</v>
+        <v>0.3501543322978762</v>
       </c>
       <c r="H7">
-        <v>0.3162613118355893</v>
+        <v>0.007126239049418642</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00625391718531354</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3326948601298341</v>
       </c>
       <c r="K7">
-        <v>0.6765991933519757</v>
+        <v>0.3737806639310506</v>
       </c>
       <c r="L7">
-        <v>0.1959228885789912</v>
+        <v>0.08823363087843106</v>
       </c>
       <c r="M7">
-        <v>0.1878689757774517</v>
+        <v>0.6704756314901772</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2290130152962604</v>
       </c>
       <c r="O7">
-        <v>1.318303498804198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9377993811165695</v>
+      </c>
+      <c r="Q7">
+        <v>1.385400268215705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9443184657700954</v>
+        <v>0.9651012938624888</v>
       </c>
       <c r="C8">
-        <v>0.2023911418085582</v>
+        <v>0.1305988600392851</v>
       </c>
       <c r="D8">
-        <v>0.07990434944143487</v>
+        <v>0.1412748392458525</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4352707442925805</v>
+        <v>0.6266927711746391</v>
       </c>
       <c r="G8">
-        <v>0.3393464462495217</v>
+        <v>0.3592118149435706</v>
       </c>
       <c r="H8">
-        <v>0.3110875418373524</v>
+        <v>0.004938136019851269</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004538096757289445</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3322014034656533</v>
       </c>
       <c r="K8">
-        <v>0.8015076955245632</v>
+        <v>0.3727768187274627</v>
       </c>
       <c r="L8">
-        <v>0.2195086385405745</v>
+        <v>0.09351365493414932</v>
       </c>
       <c r="M8">
-        <v>0.2249929262170483</v>
+        <v>0.8076770500626651</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2658466871737204</v>
       </c>
       <c r="O8">
-        <v>1.318194242690694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9073612575546868</v>
+      </c>
+      <c r="Q8">
+        <v>1.403889782937199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.267682764326224</v>
+        <v>1.288080230243793</v>
       </c>
       <c r="C9">
-        <v>0.1898962429821296</v>
+        <v>0.144279215831709</v>
       </c>
       <c r="D9">
-        <v>0.1001866614696709</v>
+        <v>0.1754488929424554</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4746991789064481</v>
+        <v>0.6728128756442473</v>
       </c>
       <c r="G9">
-        <v>0.3554169134397824</v>
+        <v>0.381031464974015</v>
       </c>
       <c r="H9">
-        <v>0.3050031597425971</v>
+        <v>0.001982168842563192</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002108036069571995</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3337923324193852</v>
       </c>
       <c r="K9">
-        <v>1.045996427967282</v>
+        <v>0.3738988227756828</v>
       </c>
       <c r="L9">
-        <v>0.2680935816657097</v>
+        <v>0.1037808712436679</v>
       </c>
       <c r="M9">
-        <v>0.2987808457980634</v>
+        <v>1.075697475027113</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3377850187143139</v>
       </c>
       <c r="O9">
-        <v>1.340347899805423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.852091064399211</v>
+      </c>
+      <c r="Q9">
+        <v>1.454055283334696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.506806292415291</v>
+        <v>1.514932368555833</v>
       </c>
       <c r="C10">
-        <v>0.1814930198442255</v>
+        <v>0.1556013467752067</v>
       </c>
       <c r="D10">
-        <v>0.1150385891977095</v>
+        <v>0.1973037798165791</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5086021456363738</v>
+        <v>0.7010193331812218</v>
       </c>
       <c r="G10">
-        <v>0.3717974281460386</v>
+        <v>0.3942621851425869</v>
       </c>
       <c r="H10">
-        <v>0.3032547417493987</v>
+        <v>0.0009689852051466552</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00137681718403293</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3338358386792066</v>
       </c>
       <c r="K10">
-        <v>1.225788610040581</v>
+        <v>0.3721837371613717</v>
       </c>
       <c r="L10">
-        <v>0.3054829808587129</v>
+        <v>0.1075276305834407</v>
       </c>
       <c r="M10">
-        <v>0.3538154088734373</v>
+        <v>1.270404815720298</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3786607212012854</v>
       </c>
       <c r="O10">
-        <v>1.371976647885162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.8160952610101049</v>
+      </c>
+      <c r="Q10">
+        <v>1.482583740735706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.616098383572336</v>
+        <v>1.547131979126931</v>
       </c>
       <c r="C11">
-        <v>0.1778436698475367</v>
+        <v>0.1708135407851827</v>
       </c>
       <c r="D11">
-        <v>0.1217910267908309</v>
+        <v>0.1780182267558956</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5252407765062443</v>
+        <v>0.6499000904385994</v>
       </c>
       <c r="G11">
-        <v>0.3803755632395109</v>
+        <v>0.3644920789886896</v>
       </c>
       <c r="H11">
-        <v>0.3031082157303899</v>
+        <v>0.01957396442027104</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001762604745729313</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3158334618050276</v>
       </c>
       <c r="K11">
-        <v>1.307723679699649</v>
+        <v>0.3435730170668982</v>
       </c>
       <c r="L11">
-        <v>0.3229242432280302</v>
+        <v>0.08538457010484279</v>
       </c>
       <c r="M11">
-        <v>0.3790829141999339</v>
+        <v>1.342804329383455</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2956969563899747</v>
       </c>
       <c r="O11">
-        <v>1.390102611923339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.8159665333983313</v>
+      </c>
+      <c r="Q11">
+        <v>1.381921139454562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.657573204011214</v>
+        <v>1.528904680714419</v>
       </c>
       <c r="C12">
-        <v>0.1764871215545405</v>
+        <v>0.1818255558912512</v>
       </c>
       <c r="D12">
-        <v>0.1243480138535347</v>
+        <v>0.1579960447240296</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5317289402680103</v>
+        <v>0.6035260247040455</v>
       </c>
       <c r="G12">
-        <v>0.3837976839110127</v>
+        <v>0.3384005771480858</v>
       </c>
       <c r="H12">
-        <v>0.3031511857567892</v>
+        <v>0.05835723754037758</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001745137383076134</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3014297825840941</v>
       </c>
       <c r="K12">
-        <v>1.338780646693095</v>
+        <v>0.321920940657769</v>
       </c>
       <c r="L12">
-        <v>0.3295966189396751</v>
+        <v>0.07499557347862185</v>
       </c>
       <c r="M12">
-        <v>0.3886889596033711</v>
+        <v>1.362378290722177</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2259777287701894</v>
       </c>
       <c r="O12">
-        <v>1.397539785729748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8263638912815452</v>
+      </c>
+      <c r="Q12">
+        <v>1.296493693023109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.64863669290429</v>
+        <v>1.46761543692466</v>
       </c>
       <c r="C13">
-        <v>0.1767781420851513</v>
+        <v>0.190713311444938</v>
       </c>
       <c r="D13">
-        <v>0.123797312797393</v>
+        <v>0.1363987411351815</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5303230508755092</v>
+        <v>0.5563610540013499</v>
       </c>
       <c r="G13">
-        <v>0.3830527453312413</v>
+        <v>0.3122033690348616</v>
       </c>
       <c r="H13">
-        <v>0.3031374669492379</v>
+        <v>0.1143002984050554</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001790146166944062</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2882003473684378</v>
       </c>
       <c r="K13">
-        <v>1.332090494239708</v>
+        <v>0.3030102961869936</v>
       </c>
       <c r="L13">
-        <v>0.3281564984192613</v>
+        <v>0.07262120394094307</v>
       </c>
       <c r="M13">
-        <v>0.386618371520477</v>
+        <v>1.342287206142629</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1633846989294412</v>
       </c>
       <c r="O13">
-        <v>1.395911967626233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8450668727315218</v>
+      </c>
+      <c r="Q13">
+        <v>1.213226478699966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.619508686654001</v>
+        <v>1.404855249893615</v>
       </c>
       <c r="C14">
-        <v>0.1777315544058098</v>
+        <v>0.1962249964554275</v>
       </c>
       <c r="D14">
-        <v>0.1220013887950415</v>
+        <v>0.120840366772228</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5257707293232201</v>
+        <v>0.523130530641474</v>
       </c>
       <c r="G14">
-        <v>0.3806535505676436</v>
+        <v>0.2938217963740044</v>
       </c>
       <c r="H14">
-        <v>0.3031097470019546</v>
+        <v>0.1638194417055558</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.00194687496073076</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2794461917178737</v>
       </c>
       <c r="K14">
-        <v>1.310278102231166</v>
+        <v>0.291028590590642</v>
       </c>
       <c r="L14">
-        <v>0.3234717928600901</v>
+        <v>0.07569295717680369</v>
       </c>
       <c r="M14">
-        <v>0.3798724255767141</v>
+        <v>1.310306470966424</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1245297617696153</v>
       </c>
       <c r="O14">
-        <v>1.390702770750607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.862229293940139</v>
+      </c>
+      <c r="Q14">
+        <v>1.15587323999253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.60167888303306</v>
+        <v>1.379796454388838</v>
       </c>
       <c r="C15">
-        <v>0.1783188664266291</v>
+        <v>0.1971929065371256</v>
       </c>
       <c r="D15">
-        <v>0.120901347876142</v>
+        <v>0.1166404536355117</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5230071034243053</v>
+        <v>0.5144503867052279</v>
       </c>
       <c r="G15">
-        <v>0.3792069659903206</v>
+        <v>0.2890151870653668</v>
       </c>
       <c r="H15">
-        <v>0.3031057481856436</v>
+        <v>0.1764103127205914</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002126685654039839</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2774187916895627</v>
       </c>
       <c r="K15">
-        <v>1.296921553848335</v>
+        <v>0.2883682480766225</v>
       </c>
       <c r="L15">
-        <v>0.3206112685179505</v>
+        <v>0.0769961157045369</v>
       </c>
       <c r="M15">
-        <v>0.3757453965883286</v>
+        <v>1.294138593842263</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1155059165886385</v>
       </c>
       <c r="O15">
-        <v>1.387587742919351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8679066957067718</v>
+      </c>
+      <c r="Q15">
+        <v>1.141408007694125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.499675342724487</v>
+        <v>1.294881883826037</v>
       </c>
       <c r="C16">
-        <v>0.1817350396606443</v>
+        <v>0.1904085048074933</v>
       </c>
       <c r="D16">
-        <v>0.1145972699225837</v>
+        <v>0.1121647612229424</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5075403020120604</v>
+        <v>0.5115974111156376</v>
       </c>
       <c r="G16">
-        <v>0.3712604855690671</v>
+        <v>0.2881600550661148</v>
       </c>
       <c r="H16">
-        <v>0.3032778070996471</v>
+        <v>0.1641178519823541</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002550250579074209</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2797206701913382</v>
       </c>
       <c r="K16">
-        <v>1.220437653743176</v>
+        <v>0.2924184314271017</v>
       </c>
       <c r="L16">
-        <v>0.3043523244081712</v>
+        <v>0.0757510891928117</v>
       </c>
       <c r="M16">
-        <v>0.3521691584184552</v>
+        <v>1.214627329792251</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1124892616827537</v>
       </c>
       <c r="O16">
-        <v>1.370870295783646</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8775137175250336</v>
+      </c>
+      <c r="Q16">
+        <v>1.144253643041665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.437240974826778</v>
+        <v>1.262896597723312</v>
       </c>
       <c r="C17">
-        <v>0.1838754604339314</v>
+        <v>0.1822608174540932</v>
       </c>
       <c r="D17">
-        <v>0.1107293201586685</v>
+        <v>0.116827301175519</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4983721040559033</v>
+        <v>0.5269000172433209</v>
       </c>
       <c r="G17">
-        <v>0.3666822621381129</v>
+        <v>0.2972104724501037</v>
       </c>
       <c r="H17">
-        <v>0.303553109146165</v>
+        <v>0.1265973996196266</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002824759213100769</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2861415928469171</v>
       </c>
       <c r="K17">
-        <v>1.173560923435673</v>
+        <v>0.3018071927592629</v>
       </c>
       <c r="L17">
-        <v>0.2944926277774869</v>
+        <v>0.07238624806178962</v>
       </c>
       <c r="M17">
-        <v>0.3377683820519692</v>
+        <v>1.17073143772501</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.129700226321134</v>
       </c>
       <c r="O17">
-        <v>1.361596797012197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.875958337641805</v>
+      </c>
+      <c r="Q17">
+        <v>1.176790165468887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.401377799396528</v>
+        <v>1.274306727203765</v>
       </c>
       <c r="C18">
-        <v>0.1851228584640303</v>
+        <v>0.172035222105194</v>
       </c>
       <c r="D18">
-        <v>0.1085041884253926</v>
+        <v>0.1304194867310002</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4932124552762644</v>
+        <v>0.5610127027396885</v>
       </c>
       <c r="G18">
-        <v>0.364154279304195</v>
+        <v>0.3167419956263089</v>
       </c>
       <c r="H18">
-        <v>0.3037722001323218</v>
+        <v>0.07380576235684799</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002657174030191278</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2972493280227155</v>
       </c>
       <c r="K18">
-        <v>1.146611910272355</v>
+        <v>0.3178819944455995</v>
       </c>
       <c r="L18">
-        <v>0.2888619614276138</v>
+        <v>0.0711035102286488</v>
       </c>
       <c r="M18">
-        <v>0.3295069920602813</v>
+        <v>1.152235519849768</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1710582033043906</v>
       </c>
       <c r="O18">
-        <v>1.356612484411045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.865574952363481</v>
+      </c>
+      <c r="Q18">
+        <v>1.241410101880305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.389242865560902</v>
+        <v>1.315875908249808</v>
       </c>
       <c r="C19">
-        <v>0.185547989348283</v>
+        <v>0.1627336787901186</v>
       </c>
       <c r="D19">
-        <v>0.1077507146187315</v>
+        <v>0.1512176737591346</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4914846354334514</v>
+        <v>0.6073921203633432</v>
       </c>
       <c r="G19">
-        <v>0.3633160846186598</v>
+        <v>0.3426153752839269</v>
       </c>
       <c r="H19">
-        <v>0.3038566616827154</v>
+        <v>0.02830043613822397</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002693620268827246</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3108686428940217</v>
       </c>
       <c r="K19">
-        <v>1.137489452790504</v>
+        <v>0.3378239222015758</v>
       </c>
       <c r="L19">
-        <v>0.2869622851498548</v>
+        <v>0.07790889103754495</v>
       </c>
       <c r="M19">
-        <v>0.3267133993546878</v>
+        <v>1.155406106259363</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2371540053674579</v>
       </c>
       <c r="O19">
-        <v>1.354983865147076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8519521397777616</v>
+      </c>
+      <c r="Q19">
+        <v>1.324778331585151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.443882210553369</v>
+        <v>1.448449665890649</v>
       </c>
       <c r="C20">
-        <v>0.1836459203537117</v>
+        <v>0.1539435065496662</v>
       </c>
       <c r="D20">
-        <v>0.1111411065847321</v>
+        <v>0.1915114156086872</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4993362224516034</v>
+        <v>0.6897350331467891</v>
       </c>
       <c r="G20">
-        <v>0.3671586417657977</v>
+        <v>0.3878267449595469</v>
       </c>
       <c r="H20">
-        <v>0.3035174796373639</v>
+        <v>0.001169572983635181</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002325924165353932</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3322915128525423</v>
       </c>
       <c r="K20">
-        <v>1.178549598864208</v>
+        <v>0.3699059338264092</v>
       </c>
       <c r="L20">
-        <v>0.2955379921410071</v>
+        <v>0.1058812426298168</v>
       </c>
       <c r="M20">
-        <v>0.339299107197462</v>
+        <v>1.219299038185454</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3687442918040347</v>
       </c>
       <c r="O20">
-        <v>1.362547546824914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8262042968413219</v>
+      </c>
+      <c r="Q20">
+        <v>1.465605913088055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.628061772467419</v>
+        <v>1.635227448682741</v>
       </c>
       <c r="C21">
-        <v>0.1774508214723909</v>
+        <v>0.1609514740567803</v>
       </c>
       <c r="D21">
-        <v>0.1225288912175131</v>
+        <v>0.2136809362181964</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5271026640771623</v>
+        <v>0.7242560202545505</v>
       </c>
       <c r="G21">
-        <v>0.3813534387690822</v>
+        <v>0.405471174039036</v>
       </c>
       <c r="H21">
-        <v>0.3031151742463436</v>
+        <v>0.0003357216562813736</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001869235198405761</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3361900499258184</v>
       </c>
       <c r="K21">
-        <v>1.316684044476432</v>
+        <v>0.3744330675667698</v>
       </c>
       <c r="L21">
-        <v>0.3248459199141394</v>
+        <v>0.114178983267017</v>
       </c>
       <c r="M21">
-        <v>0.3818528110904467</v>
+        <v>1.37144215398834</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4194840882829993</v>
       </c>
       <c r="O21">
-        <v>1.392216983720687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7974106157313905</v>
+      </c>
+      <c r="Q21">
+        <v>1.511468739623581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.748955727897226</v>
+        <v>1.755943562939848</v>
       </c>
       <c r="C22">
-        <v>0.1735501395909083</v>
+        <v>0.1655328927158237</v>
       </c>
       <c r="D22">
-        <v>0.1299716524362537</v>
+        <v>0.2264143627563584</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5463488124010993</v>
+        <v>0.7449716555732522</v>
       </c>
       <c r="G22">
-        <v>0.391649409305785</v>
+        <v>0.4164062035033709</v>
       </c>
       <c r="H22">
-        <v>0.303428754127907</v>
+        <v>9.674046702401462E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001446891225127978</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3384907378269446</v>
       </c>
       <c r="K22">
-        <v>1.407141937786463</v>
+        <v>0.377032810834681</v>
       </c>
       <c r="L22">
-        <v>0.3443980588519082</v>
+        <v>0.1180202736044649</v>
       </c>
       <c r="M22">
-        <v>0.4098866508704262</v>
+        <v>1.469922339392269</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4457515083746557</v>
       </c>
       <c r="O22">
-        <v>1.414967344488986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7795418366529852</v>
+      </c>
+      <c r="Q22">
+        <v>1.539653138368607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.684379561876256</v>
+        <v>1.694099610991174</v>
       </c>
       <c r="C23">
-        <v>0.1756182908128707</v>
+        <v>0.1625951212253085</v>
       </c>
       <c r="D23">
-        <v>0.1259991099872337</v>
+        <v>0.2195751036344831</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5359718322837281</v>
+        <v>0.7351633903016932</v>
       </c>
       <c r="G23">
-        <v>0.3860569470450201</v>
+        <v>0.411544142205301</v>
       </c>
       <c r="H23">
-        <v>0.303206850463539</v>
+        <v>0.0002043940542717504</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001343358230048608</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3377559292471659</v>
       </c>
       <c r="K23">
-        <v>1.358843385831165</v>
+        <v>0.3765772457961667</v>
       </c>
       <c r="L23">
-        <v>0.3339244016512595</v>
+        <v>0.1161769936403303</v>
       </c>
       <c r="M23">
-        <v>0.3949025610105323</v>
+        <v>1.417335283819227</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4311956928004008</v>
       </c>
       <c r="O23">
-        <v>1.402505227553803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7886824239545547</v>
+      </c>
+      <c r="Q23">
+        <v>1.52770914140234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44087961185889</v>
+        <v>1.455353747468934</v>
       </c>
       <c r="C24">
-        <v>0.1837496430002901</v>
+        <v>0.1523193662530389</v>
       </c>
       <c r="D24">
-        <v>0.1109549423289309</v>
+        <v>0.1938291631450682</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4988999988875662</v>
+        <v>0.6969801119203964</v>
       </c>
       <c r="G24">
-        <v>0.3669429471729941</v>
+        <v>0.3923245953258245</v>
       </c>
       <c r="H24">
-        <v>0.3035333986955777</v>
+        <v>0.001003997956252833</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001811472559069216</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3346513609044806</v>
       </c>
       <c r="K24">
-        <v>1.176294216113064</v>
+        <v>0.373821490482694</v>
       </c>
       <c r="L24">
-        <v>0.2950652655738537</v>
+        <v>0.1088064300930043</v>
       </c>
       <c r="M24">
-        <v>0.3386070112219883</v>
+        <v>1.218219111609443</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3771061339532906</v>
       </c>
       <c r="O24">
-        <v>1.362116634232422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8251169832537784</v>
+      </c>
+      <c r="Q24">
+        <v>1.480080963945468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.179987421256499</v>
+        <v>1.197136943250797</v>
       </c>
       <c r="C25">
-        <v>0.193141598333753</v>
+        <v>0.1412836329349076</v>
       </c>
       <c r="D25">
-        <v>0.09471057350513945</v>
+        <v>0.1662316094973164</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4632124812937306</v>
+        <v>0.6579659889332845</v>
       </c>
       <c r="G25">
-        <v>0.3503091850285998</v>
+        <v>0.3732824245574875</v>
       </c>
       <c r="H25">
-        <v>0.3061898235416507</v>
+        <v>0.002637370808540096</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003067559618859406</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3323652895557956</v>
       </c>
       <c r="K25">
-        <v>0.9798605080523544</v>
+        <v>0.3719346799700212</v>
       </c>
       <c r="L25">
-        <v>0.2546731642543563</v>
+        <v>0.1007299453862913</v>
       </c>
       <c r="M25">
-        <v>0.2786915415039601</v>
+        <v>1.003317948759559</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3190570971536317</v>
       </c>
       <c r="O25">
-        <v>1.331788811277889</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8669243494585963</v>
+      </c>
+      <c r="Q25">
+        <v>1.434488152723333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012401652611203</v>
+        <v>0.9768693125404013</v>
       </c>
       <c r="C2">
-        <v>0.1320307714381741</v>
+        <v>0.1228334747740973</v>
       </c>
       <c r="D2">
-        <v>0.1459400221942673</v>
+        <v>0.1470085588082384</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6341133230249056</v>
+        <v>0.6046296895980063</v>
       </c>
       <c r="G2">
-        <v>0.3630509835100852</v>
+        <v>0.3250990594702827</v>
       </c>
       <c r="H2">
-        <v>0.00442354996851313</v>
+        <v>0.00370609688947271</v>
       </c>
       <c r="I2">
-        <v>0.003823303699671321</v>
+        <v>0.002881243855057392</v>
       </c>
       <c r="J2">
-        <v>0.3328141585003834</v>
+        <v>0.3441020534490704</v>
       </c>
       <c r="K2">
-        <v>0.3737766650933771</v>
+        <v>0.3441056804286085</v>
       </c>
       <c r="L2">
-        <v>0.09516390518997397</v>
+        <v>0.1641662204507739</v>
       </c>
       <c r="M2">
-        <v>0.8447417291742454</v>
+        <v>0.09887482955463867</v>
       </c>
       <c r="N2">
-        <v>0.2752393974696474</v>
+        <v>0.09030819741217044</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8474562257585774</v>
       </c>
       <c r="P2">
-        <v>0.8991633644917449</v>
+        <v>0.2882948555475195</v>
       </c>
       <c r="Q2">
-        <v>1.413395951248759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8800946853092881</v>
+      </c>
+      <c r="S2">
+        <v>1.334324265497955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8831365037273429</v>
+        <v>0.8549165031630821</v>
       </c>
       <c r="C3">
-        <v>0.1263998864265403</v>
+        <v>0.115151352085995</v>
       </c>
       <c r="D3">
-        <v>0.1323046835303359</v>
+        <v>0.1333334316415176</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6170931897973446</v>
+        <v>0.5902274202034548</v>
       </c>
       <c r="G3">
-        <v>0.355430338152452</v>
+        <v>0.3204552830108156</v>
       </c>
       <c r="H3">
-        <v>0.00598793967387784</v>
+        <v>0.005061554648033817</v>
       </c>
       <c r="I3">
-        <v>0.005059020938184222</v>
+        <v>0.003804272926821284</v>
       </c>
       <c r="J3">
-        <v>0.3328863293521351</v>
+        <v>0.3426900423066712</v>
       </c>
       <c r="K3">
-        <v>0.374173795512533</v>
+        <v>0.3458958504242204</v>
       </c>
       <c r="L3">
-        <v>0.09102071209161267</v>
+        <v>0.1684953596908443</v>
       </c>
       <c r="M3">
-        <v>0.737067301418449</v>
+        <v>0.09747058965483468</v>
       </c>
       <c r="N3">
-        <v>0.2463565045195253</v>
+        <v>0.08674165424429958</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.739728138148422</v>
       </c>
       <c r="P3">
-        <v>0.9225990336423955</v>
+        <v>0.2581069145638537</v>
       </c>
       <c r="Q3">
-        <v>1.397145607757992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9002705213461759</v>
+      </c>
+      <c r="S3">
+        <v>1.323708397756263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8033924021951862</v>
+        <v>0.7795048642416873</v>
       </c>
       <c r="C4">
-        <v>0.1229453757886318</v>
+        <v>0.1104876090086222</v>
       </c>
       <c r="D4">
-        <v>0.1239611481206282</v>
+        <v>0.1249693132567131</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6070410615227502</v>
+        <v>0.5816953878945625</v>
       </c>
       <c r="G4">
-        <v>0.3510515118411348</v>
+        <v>0.31791052330545</v>
       </c>
       <c r="H4">
-        <v>0.007110375242805833</v>
+        <v>0.006037553623720215</v>
       </c>
       <c r="I4">
-        <v>0.00597956411974998</v>
+        <v>0.004511689541752517</v>
       </c>
       <c r="J4">
-        <v>0.3331459747632195</v>
+        <v>0.3419004651262938</v>
       </c>
       <c r="K4">
-        <v>0.3746145953091187</v>
+        <v>0.3471283914341186</v>
       </c>
       <c r="L4">
-        <v>0.08842520855890257</v>
+        <v>0.1712505434344997</v>
       </c>
       <c r="M4">
-        <v>0.6708135010511427</v>
+        <v>0.09711561216529319</v>
       </c>
       <c r="N4">
-        <v>0.2286746994357287</v>
+        <v>0.0844953401963231</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6734216329472815</v>
       </c>
       <c r="P4">
-        <v>0.9375709254272095</v>
+        <v>0.2396569305850562</v>
       </c>
       <c r="Q4">
-        <v>1.388248489750794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9132670361829831</v>
+      </c>
+      <c r="S4">
+        <v>1.31803417334018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.770174793476599</v>
+        <v>0.7480154050755061</v>
       </c>
       <c r="C5">
-        <v>0.1216492895496089</v>
+        <v>0.108732798807381</v>
       </c>
       <c r="D5">
-        <v>0.1205772708512924</v>
+        <v>0.1215783150105878</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6027084748197069</v>
+        <v>0.5779639175919797</v>
       </c>
       <c r="G5">
-        <v>0.3490791677720466</v>
+        <v>0.316695546247459</v>
       </c>
       <c r="H5">
-        <v>0.007610118919632841</v>
+        <v>0.006472946607560953</v>
       </c>
       <c r="I5">
-        <v>0.006473080599596504</v>
+        <v>0.004925463353675497</v>
       </c>
       <c r="J5">
-        <v>0.3331694258244298</v>
+        <v>0.3414576700229475</v>
       </c>
       <c r="K5">
-        <v>0.3745925438502091</v>
+        <v>0.3474227635922098</v>
       </c>
       <c r="L5">
-        <v>0.0873014386908757</v>
+        <v>0.1722719063417237</v>
       </c>
       <c r="M5">
-        <v>0.643784495757572</v>
+        <v>0.09704251600417813</v>
       </c>
       <c r="N5">
-        <v>0.2216101993421375</v>
+        <v>0.08351406937611472</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6463670760039406</v>
       </c>
       <c r="P5">
-        <v>0.9438542782821493</v>
+        <v>0.2322911199618716</v>
       </c>
       <c r="Q5">
-        <v>1.384050012501646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9187708939032682</v>
+      </c>
+      <c r="S5">
+        <v>1.315104560509013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7638863533743177</v>
+        <v>0.7420135321124803</v>
       </c>
       <c r="C6">
-        <v>0.1215720772891444</v>
+        <v>0.1086069232535678</v>
       </c>
       <c r="D6">
-        <v>0.1200273984943365</v>
+        <v>0.1210276312497527</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6015870192155859</v>
+        <v>0.5769450039038801</v>
       </c>
       <c r="G6">
-        <v>0.3484370951991025</v>
+        <v>0.3161901372122387</v>
       </c>
       <c r="H6">
-        <v>0.007699064741698763</v>
+        <v>0.006550616305835255</v>
       </c>
       <c r="I6">
-        <v>0.00666122086110299</v>
+        <v>0.005116535370914832</v>
       </c>
       <c r="J6">
-        <v>0.3330109047691963</v>
+        <v>0.341213962625794</v>
       </c>
       <c r="K6">
-        <v>0.3742861312281427</v>
+        <v>0.3471797957587839</v>
       </c>
       <c r="L6">
-        <v>0.08704933760513356</v>
+        <v>0.1722899103170583</v>
       </c>
       <c r="M6">
-        <v>0.6393037825300212</v>
+        <v>0.09696941642039292</v>
       </c>
       <c r="N6">
-        <v>0.2205962638264793</v>
+        <v>0.08328729268625779</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6418822596940572</v>
       </c>
       <c r="P6">
-        <v>0.9449549782763462</v>
+        <v>0.2312317730537075</v>
       </c>
       <c r="Q6">
-        <v>1.38234551057829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9197658635087365</v>
+      </c>
+      <c r="S6">
+        <v>1.313624606216649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8008433637906194</v>
+        <v>0.7766143462992545</v>
       </c>
       <c r="C7">
-        <v>0.1233064381335112</v>
+        <v>0.1107943811454533</v>
       </c>
       <c r="D7">
-        <v>0.1239473368791693</v>
+        <v>0.1251146883082441</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6058694106963145</v>
+        <v>0.5799243519708384</v>
       </c>
       <c r="G7">
-        <v>0.3501543322978762</v>
+        <v>0.3192985929451169</v>
       </c>
       <c r="H7">
-        <v>0.007126239049418642</v>
+        <v>0.006055974798515829</v>
       </c>
       <c r="I7">
-        <v>0.00625391718531354</v>
+        <v>0.00483182001464133</v>
       </c>
       <c r="J7">
-        <v>0.3326948601298341</v>
+        <v>0.3381852804054404</v>
       </c>
       <c r="K7">
-        <v>0.3737806639310506</v>
+        <v>0.3460430664591172</v>
       </c>
       <c r="L7">
-        <v>0.08823363087843106</v>
+        <v>0.1707118760371458</v>
       </c>
       <c r="M7">
-        <v>0.6704756314901772</v>
+        <v>0.09684437539197432</v>
       </c>
       <c r="N7">
-        <v>0.2290130152962604</v>
+        <v>0.08430407242147453</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6724471516684929</v>
       </c>
       <c r="P7">
-        <v>0.9377993811165695</v>
+        <v>0.2399769518263923</v>
       </c>
       <c r="Q7">
-        <v>1.385400268215705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9136618647470129</v>
+      </c>
+      <c r="S7">
+        <v>1.31352241696986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9651012938624888</v>
+        <v>0.9308934085174485</v>
       </c>
       <c r="C8">
-        <v>0.1305988600392851</v>
+        <v>0.1203773243211756</v>
       </c>
       <c r="D8">
-        <v>0.1412748392458525</v>
+        <v>0.1428615947944962</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6266927711746391</v>
+        <v>0.5961033715816768</v>
       </c>
       <c r="G8">
-        <v>0.3592118149435706</v>
+        <v>0.3298507654869951</v>
       </c>
       <c r="H8">
-        <v>0.004938136019851269</v>
+        <v>0.004162427376938949</v>
       </c>
       <c r="I8">
-        <v>0.004538096757289445</v>
+        <v>0.003556952163365601</v>
       </c>
       <c r="J8">
-        <v>0.3322014034656533</v>
+        <v>0.3324795146319062</v>
       </c>
       <c r="K8">
-        <v>0.3727768187274627</v>
+        <v>0.3427070311518854</v>
       </c>
       <c r="L8">
-        <v>0.09351365493414932</v>
+        <v>0.1647221046067493</v>
       </c>
       <c r="M8">
-        <v>0.8076770500626651</v>
+        <v>0.09770119451424009</v>
       </c>
       <c r="N8">
-        <v>0.2658466871737204</v>
+        <v>0.08884653826528321</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8082408346981822</v>
       </c>
       <c r="P8">
-        <v>0.9073612575546868</v>
+        <v>0.2783766552547746</v>
       </c>
       <c r="Q8">
-        <v>1.403889782937199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8877049998214694</v>
+      </c>
+      <c r="S8">
+        <v>1.32118632422015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.288080230243793</v>
+        <v>1.234344028705891</v>
       </c>
       <c r="C9">
-        <v>0.144279215831709</v>
+        <v>0.1392520317583035</v>
       </c>
       <c r="D9">
-        <v>0.1754488929424554</v>
+        <v>0.1773076788522445</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6728128756442473</v>
+        <v>0.6346224116627113</v>
       </c>
       <c r="G9">
-        <v>0.381031464974015</v>
+        <v>0.3463399389163158</v>
       </c>
       <c r="H9">
-        <v>0.001982168842563192</v>
+        <v>0.001617867938552009</v>
       </c>
       <c r="I9">
-        <v>0.002108036069571995</v>
+        <v>0.001728967362705447</v>
       </c>
       <c r="J9">
-        <v>0.3337923324193852</v>
+        <v>0.3341509504024529</v>
       </c>
       <c r="K9">
-        <v>0.3738988227756828</v>
+        <v>0.3397161821966073</v>
       </c>
       <c r="L9">
-        <v>0.1037808712436679</v>
+        <v>0.1549187919332731</v>
       </c>
       <c r="M9">
-        <v>1.075697475027113</v>
+        <v>0.1040994683047778</v>
       </c>
       <c r="N9">
-        <v>0.3377850187143139</v>
+        <v>0.09763965235450911</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.075627288703487</v>
       </c>
       <c r="P9">
-        <v>0.852091064399211</v>
+        <v>0.3537167144948512</v>
       </c>
       <c r="Q9">
-        <v>1.454055283334696</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8408838227035567</v>
+      </c>
+      <c r="S9">
+        <v>1.354351794978186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.514932368555833</v>
+        <v>1.444662081714284</v>
       </c>
       <c r="C10">
-        <v>0.1556013467752067</v>
+        <v>0.1540080109013786</v>
       </c>
       <c r="D10">
-        <v>0.1973037798165791</v>
+        <v>0.2002976995591581</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7010193331812218</v>
+        <v>0.6538883941273639</v>
       </c>
       <c r="G10">
-        <v>0.3942621851425869</v>
+        <v>0.3697397724234932</v>
       </c>
       <c r="H10">
-        <v>0.0009689852051466552</v>
+        <v>0.0008010254888572987</v>
       </c>
       <c r="I10">
-        <v>0.00137681718403293</v>
+        <v>0.001341115922923741</v>
       </c>
       <c r="J10">
-        <v>0.3338358386792066</v>
+        <v>0.3167866909688755</v>
       </c>
       <c r="K10">
-        <v>0.3721837371613717</v>
+        <v>0.3336182597824866</v>
       </c>
       <c r="L10">
-        <v>0.1075276305834407</v>
+        <v>0.1465560865419953</v>
       </c>
       <c r="M10">
-        <v>1.270404815720298</v>
+        <v>0.1094139709755204</v>
       </c>
       <c r="N10">
-        <v>0.3786607212012854</v>
+        <v>0.1005385526070626</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.265855255032761</v>
       </c>
       <c r="P10">
-        <v>0.8160952610101049</v>
+        <v>0.3966876038670932</v>
       </c>
       <c r="Q10">
-        <v>1.482583740735706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.81270860852716</v>
+      </c>
+      <c r="S10">
+        <v>1.360905454200093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.547131979126931</v>
+        <v>1.473094043622694</v>
       </c>
       <c r="C11">
-        <v>0.1708135407851827</v>
+        <v>0.1698990724609502</v>
       </c>
       <c r="D11">
-        <v>0.1780182267558956</v>
+        <v>0.1827024123880108</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6499000904385994</v>
+        <v>0.5988140972491962</v>
       </c>
       <c r="G11">
-        <v>0.3644920789886896</v>
+        <v>0.370790045758568</v>
       </c>
       <c r="H11">
-        <v>0.01957396442027104</v>
+        <v>0.0194268425528854</v>
       </c>
       <c r="I11">
-        <v>0.001762604745729313</v>
+        <v>0.001903132841518662</v>
       </c>
       <c r="J11">
-        <v>0.3158334618050276</v>
+        <v>0.2718567592035868</v>
       </c>
       <c r="K11">
-        <v>0.3435730170668982</v>
+        <v>0.3053000199530445</v>
       </c>
       <c r="L11">
-        <v>0.08538457010484279</v>
+        <v>0.1342164175166261</v>
       </c>
       <c r="M11">
-        <v>1.342804329383455</v>
+        <v>0.1015325681239858</v>
       </c>
       <c r="N11">
-        <v>0.2956969563899747</v>
+        <v>0.08032330821600375</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.329396756632406</v>
       </c>
       <c r="P11">
-        <v>0.8159665333983313</v>
+        <v>0.3109759294870571</v>
       </c>
       <c r="Q11">
-        <v>1.381921139454562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8220867503086282</v>
+      </c>
+      <c r="S11">
+        <v>1.248596284675656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.528904680714419</v>
+        <v>1.456705153217115</v>
       </c>
       <c r="C12">
-        <v>0.1818255558912512</v>
+        <v>0.1806943484275507</v>
       </c>
       <c r="D12">
-        <v>0.1579960447240296</v>
+        <v>0.1631472481720238</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6035260247040455</v>
+        <v>0.553468997703618</v>
       </c>
       <c r="G12">
-        <v>0.3384005771480858</v>
+        <v>0.3588354236809366</v>
       </c>
       <c r="H12">
-        <v>0.05835723754037758</v>
+        <v>0.05820662763711226</v>
       </c>
       <c r="I12">
-        <v>0.001745137383076134</v>
+        <v>0.001894963000947492</v>
       </c>
       <c r="J12">
-        <v>0.3014297825840941</v>
+        <v>0.2512930330004579</v>
       </c>
       <c r="K12">
-        <v>0.321920940657769</v>
+        <v>0.2858506098449034</v>
       </c>
       <c r="L12">
-        <v>0.07499557347862185</v>
+        <v>0.1269391672318267</v>
       </c>
       <c r="M12">
-        <v>1.362378290722177</v>
+        <v>0.09461932281108432</v>
       </c>
       <c r="N12">
-        <v>0.2259777287701894</v>
+        <v>0.07156477251036053</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.344791458323471</v>
       </c>
       <c r="P12">
-        <v>0.8263638912815452</v>
+        <v>0.2387331773396255</v>
       </c>
       <c r="Q12">
-        <v>1.296493693023109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8381983689114492</v>
+      </c>
+      <c r="S12">
+        <v>1.164778178537162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.46761543692466</v>
+        <v>1.402652209820872</v>
       </c>
       <c r="C13">
-        <v>0.190713311444938</v>
+        <v>0.1893545284506786</v>
       </c>
       <c r="D13">
-        <v>0.1363987411351815</v>
+        <v>0.1408699044795867</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5563610540013499</v>
+        <v>0.5121069718252897</v>
       </c>
       <c r="G13">
-        <v>0.3122033690348616</v>
+        <v>0.3292531015595728</v>
       </c>
       <c r="H13">
-        <v>0.1143002984050554</v>
+        <v>0.1141206314853918</v>
       </c>
       <c r="I13">
-        <v>0.001790146166944062</v>
+        <v>0.001898282443130839</v>
       </c>
       <c r="J13">
-        <v>0.2882003473684378</v>
+        <v>0.2464814335782251</v>
       </c>
       <c r="K13">
-        <v>0.3030102961869936</v>
+        <v>0.2710449624241562</v>
       </c>
       <c r="L13">
-        <v>0.07262120394094307</v>
+        <v>0.1222598966735831</v>
       </c>
       <c r="M13">
-        <v>1.342287206142629</v>
+        <v>0.08797686135968696</v>
       </c>
       <c r="N13">
-        <v>0.1633846989294412</v>
+        <v>0.07066111636991579</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.325714938749087</v>
       </c>
       <c r="P13">
-        <v>0.8450668727315218</v>
+        <v>0.1737350455494777</v>
       </c>
       <c r="Q13">
-        <v>1.213226478699966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8584607471137247</v>
+      </c>
+      <c r="S13">
+        <v>1.095998677691682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.404855249893615</v>
+        <v>1.347250851287583</v>
       </c>
       <c r="C14">
-        <v>0.1962249964554275</v>
+        <v>0.1947516503961708</v>
       </c>
       <c r="D14">
-        <v>0.120840366772228</v>
+        <v>0.1244333103970661</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.523130530641474</v>
+        <v>0.4846710119376638</v>
       </c>
       <c r="G14">
-        <v>0.2938217963740044</v>
+        <v>0.3018802779319003</v>
       </c>
       <c r="H14">
-        <v>0.1638194417055558</v>
+        <v>0.1636054820646109</v>
       </c>
       <c r="I14">
-        <v>0.00194687496073076</v>
+        <v>0.002014725402205819</v>
       </c>
       <c r="J14">
-        <v>0.2794461917178737</v>
+        <v>0.248702814952555</v>
       </c>
       <c r="K14">
-        <v>0.291028590590642</v>
+        <v>0.2625463340320344</v>
       </c>
       <c r="L14">
-        <v>0.07569295717680369</v>
+        <v>0.1199276074272966</v>
       </c>
       <c r="M14">
-        <v>1.310306470966424</v>
+        <v>0.08351199744986637</v>
       </c>
       <c r="N14">
-        <v>0.1245297617696153</v>
+        <v>0.07464486594880704</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.296698738134722</v>
       </c>
       <c r="P14">
-        <v>0.862229293940139</v>
+        <v>0.1332924375044016</v>
       </c>
       <c r="Q14">
-        <v>1.15587323999253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8744542317612414</v>
+      </c>
+      <c r="S14">
+        <v>1.053534356834305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.379796454388838</v>
+        <v>1.325002376595563</v>
       </c>
       <c r="C15">
-        <v>0.1971929065371256</v>
+        <v>0.1957564764809376</v>
       </c>
       <c r="D15">
-        <v>0.1166404536355117</v>
+        <v>0.1198557669173113</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5144503867052279</v>
+        <v>0.4781645707224129</v>
       </c>
       <c r="G15">
-        <v>0.2890151870653668</v>
+        <v>0.2922438867251529</v>
       </c>
       <c r="H15">
-        <v>0.1764103127205914</v>
+        <v>0.1761790056107344</v>
       </c>
       <c r="I15">
-        <v>0.002126685654039839</v>
+        <v>0.002193699192141629</v>
       </c>
       <c r="J15">
-        <v>0.2774187916895627</v>
+        <v>0.2516742305278115</v>
       </c>
       <c r="K15">
-        <v>0.2883682480766225</v>
+        <v>0.2610276532798395</v>
       </c>
       <c r="L15">
-        <v>0.0769961157045369</v>
+        <v>0.1196761022377704</v>
       </c>
       <c r="M15">
-        <v>1.294138593842263</v>
+        <v>0.08239795072098488</v>
       </c>
       <c r="N15">
-        <v>0.1155059165886385</v>
+        <v>0.07615461414467362</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.28221196698658</v>
       </c>
       <c r="P15">
-        <v>0.8679066957067718</v>
+        <v>0.1238897540639456</v>
       </c>
       <c r="Q15">
-        <v>1.141408007694125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8789295032033522</v>
+      </c>
+      <c r="S15">
+        <v>1.044777788670928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.294881883826037</v>
+        <v>1.248932667445388</v>
       </c>
       <c r="C16">
-        <v>0.1904085048074933</v>
+        <v>0.1891289895698236</v>
       </c>
       <c r="D16">
-        <v>0.1121647612229424</v>
+        <v>0.1139720205333319</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5115974111156376</v>
+        <v>0.4818969744067374</v>
       </c>
       <c r="G16">
-        <v>0.2881600550661148</v>
+        <v>0.2699972201702465</v>
       </c>
       <c r="H16">
-        <v>0.1641178519823541</v>
+        <v>0.1637908256020353</v>
       </c>
       <c r="I16">
-        <v>0.002550250579074209</v>
+        <v>0.002509857616569633</v>
       </c>
       <c r="J16">
-        <v>0.2797206701913382</v>
+        <v>0.2755841663744363</v>
       </c>
       <c r="K16">
-        <v>0.2924184314271017</v>
+        <v>0.2675615495744328</v>
       </c>
       <c r="L16">
-        <v>0.0757510891928117</v>
+        <v>0.1232829122441874</v>
       </c>
       <c r="M16">
-        <v>1.214627329792251</v>
+        <v>0.08262830561422518</v>
       </c>
       <c r="N16">
-        <v>0.1124892616827537</v>
+        <v>0.07485646421440961</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.210562055713524</v>
       </c>
       <c r="P16">
-        <v>0.8775137175250336</v>
+        <v>0.1207833566068572</v>
       </c>
       <c r="Q16">
-        <v>1.144253643041665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8808457546079396</v>
+      </c>
+      <c r="S16">
+        <v>1.065338126316647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.262896597723312</v>
+        <v>1.219278853630357</v>
       </c>
       <c r="C17">
-        <v>0.1822608174540932</v>
+        <v>0.1808289859817904</v>
       </c>
       <c r="D17">
-        <v>0.116827301175519</v>
+        <v>0.1181218923612875</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5269000172433209</v>
+        <v>0.4987773647684577</v>
       </c>
       <c r="G17">
-        <v>0.2972104724501037</v>
+        <v>0.2697914354712694</v>
       </c>
       <c r="H17">
-        <v>0.1265973996196266</v>
+        <v>0.1262139990287778</v>
       </c>
       <c r="I17">
-        <v>0.002824759213100769</v>
+        <v>0.002724907401663756</v>
       </c>
       <c r="J17">
-        <v>0.2861415928469171</v>
+        <v>0.2918444394845778</v>
       </c>
       <c r="K17">
-        <v>0.3018071927592629</v>
+        <v>0.2769493214505747</v>
       </c>
       <c r="L17">
-        <v>0.07238624806178962</v>
+        <v>0.1275197278552298</v>
       </c>
       <c r="M17">
-        <v>1.17073143772501</v>
+        <v>0.08494018673693482</v>
       </c>
       <c r="N17">
-        <v>0.129700226321134</v>
+        <v>0.07099978117719807</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.170015006122924</v>
       </c>
       <c r="P17">
-        <v>0.875958337641805</v>
+        <v>0.13871298006773</v>
       </c>
       <c r="Q17">
-        <v>1.176790165468887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8751845868485262</v>
+      </c>
+      <c r="S17">
+        <v>1.102346091654937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.274306727203765</v>
+        <v>1.228619312792148</v>
       </c>
       <c r="C18">
-        <v>0.172035222105194</v>
+        <v>0.1703682999818739</v>
       </c>
       <c r="D18">
-        <v>0.1304194867310002</v>
+        <v>0.1315950517843731</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5610127027396885</v>
+        <v>0.5314543221612951</v>
       </c>
       <c r="G18">
-        <v>0.3167419956263089</v>
+        <v>0.283866990593836</v>
       </c>
       <c r="H18">
-        <v>0.07380576235684799</v>
+        <v>0.07340969570574174</v>
       </c>
       <c r="I18">
-        <v>0.002657174030191278</v>
+        <v>0.00249201114515607</v>
       </c>
       <c r="J18">
-        <v>0.2972493280227155</v>
+        <v>0.3066413598089142</v>
       </c>
       <c r="K18">
-        <v>0.3178819944455995</v>
+        <v>0.2912678276987926</v>
       </c>
       <c r="L18">
-        <v>0.0711035102286488</v>
+        <v>0.1333575169822439</v>
       </c>
       <c r="M18">
-        <v>1.152235519849768</v>
+        <v>0.08965984377192271</v>
       </c>
       <c r="N18">
-        <v>0.1710582033043906</v>
+        <v>0.06872049397968061</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.152948005115462</v>
       </c>
       <c r="P18">
-        <v>0.865574952363481</v>
+        <v>0.1816727078067686</v>
       </c>
       <c r="Q18">
-        <v>1.241410101880305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8621870176912338</v>
+      </c>
+      <c r="S18">
+        <v>1.163659552470861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.315875908249808</v>
+        <v>1.265082060252354</v>
       </c>
       <c r="C19">
-        <v>0.1627336787901186</v>
+        <v>0.1609453253154385</v>
       </c>
       <c r="D19">
-        <v>0.1512176737591346</v>
+        <v>0.152499753272977</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6073921203633432</v>
+        <v>0.5743928354258188</v>
       </c>
       <c r="G19">
-        <v>0.3426153752839269</v>
+        <v>0.3058626749694682</v>
       </c>
       <c r="H19">
-        <v>0.02830043613822397</v>
+        <v>0.02793936435569577</v>
       </c>
       <c r="I19">
-        <v>0.002693620268827246</v>
+        <v>0.002577670312577496</v>
       </c>
       <c r="J19">
-        <v>0.3108686428940217</v>
+        <v>0.320359757285452</v>
       </c>
       <c r="K19">
-        <v>0.3378239222015758</v>
+        <v>0.3082716898748714</v>
       </c>
       <c r="L19">
-        <v>0.07790889103754495</v>
+        <v>0.1399370700171314</v>
       </c>
       <c r="M19">
-        <v>1.155406106259363</v>
+        <v>0.09586036300944301</v>
       </c>
       <c r="N19">
-        <v>0.2371540053674579</v>
+        <v>0.07405815707477892</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.156538996769797</v>
       </c>
       <c r="P19">
-        <v>0.8519521397777616</v>
+        <v>0.2501627925825716</v>
       </c>
       <c r="Q19">
-        <v>1.324778331585151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.846782638641983</v>
+      </c>
+      <c r="S19">
+        <v>1.238727706108776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.448449665890649</v>
+        <v>1.384081325805937</v>
       </c>
       <c r="C20">
-        <v>0.1539435065496662</v>
+        <v>0.1522422843312796</v>
       </c>
       <c r="D20">
-        <v>0.1915114156086872</v>
+        <v>0.1936211803815127</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6897350331467891</v>
+        <v>0.6472958762484495</v>
       </c>
       <c r="G20">
-        <v>0.3878267449595469</v>
+        <v>0.3523279518347877</v>
       </c>
       <c r="H20">
-        <v>0.001169572983635181</v>
+        <v>0.0009517061836117335</v>
       </c>
       <c r="I20">
-        <v>0.002325924165353932</v>
+        <v>0.002362472892815326</v>
       </c>
       <c r="J20">
-        <v>0.3322915128525423</v>
+        <v>0.3303683678229916</v>
       </c>
       <c r="K20">
-        <v>0.3699059338264092</v>
+        <v>0.3337094764149988</v>
       </c>
       <c r="L20">
-        <v>0.1058812426298168</v>
+        <v>0.1481532397819532</v>
       </c>
       <c r="M20">
-        <v>1.219299038185454</v>
+        <v>0.1073161455661555</v>
       </c>
       <c r="N20">
-        <v>0.3687442918040347</v>
+        <v>0.09916769915999524</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.218321466316638</v>
       </c>
       <c r="P20">
-        <v>0.8262042968413219</v>
+        <v>0.3863320295127153</v>
       </c>
       <c r="Q20">
-        <v>1.465605913088055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.8204294311886642</v>
+      </c>
+      <c r="S20">
+        <v>1.356277406085027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.635227448682741</v>
+        <v>1.549159026878215</v>
       </c>
       <c r="C21">
-        <v>0.1609514740567803</v>
+        <v>0.159281996400864</v>
       </c>
       <c r="D21">
-        <v>0.2136809362181964</v>
+        <v>0.2199099590142595</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7242560202545505</v>
+        <v>0.6621488196992686</v>
       </c>
       <c r="G21">
-        <v>0.405471174039036</v>
+        <v>0.4242860751113255</v>
       </c>
       <c r="H21">
-        <v>0.0003357216562813736</v>
+        <v>0.0002563438141693908</v>
       </c>
       <c r="I21">
-        <v>0.001869235198405761</v>
+        <v>0.002111699422219004</v>
       </c>
       <c r="J21">
-        <v>0.3361900499258184</v>
+        <v>0.272797697672388</v>
       </c>
       <c r="K21">
-        <v>0.3744330675667698</v>
+        <v>0.3287491056876988</v>
       </c>
       <c r="L21">
-        <v>0.114178983267017</v>
+        <v>0.1419342467999112</v>
       </c>
       <c r="M21">
-        <v>1.37144215398834</v>
+        <v>0.1117469155045825</v>
       </c>
       <c r="N21">
-        <v>0.4194840882829993</v>
+        <v>0.106308507634914</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.354323725123606</v>
       </c>
       <c r="P21">
-        <v>0.7974106157313905</v>
+        <v>0.4388734196999167</v>
       </c>
       <c r="Q21">
-        <v>1.511468739623581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.8009094254692002</v>
+      </c>
+      <c r="S21">
+        <v>1.350333991386933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.755943562939848</v>
+        <v>1.655158723502041</v>
       </c>
       <c r="C22">
-        <v>0.1655328927158237</v>
+        <v>0.1636732537359791</v>
       </c>
       <c r="D22">
-        <v>0.2264143627563584</v>
+        <v>0.2356873091698475</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7449716555732522</v>
+        <v>0.6690980491646528</v>
       </c>
       <c r="G22">
-        <v>0.4164062035033709</v>
+        <v>0.4791861014375769</v>
       </c>
       <c r="H22">
-        <v>9.674046702401462E-05</v>
+        <v>6.896215732177247E-05</v>
       </c>
       <c r="I22">
-        <v>0.001446891225127978</v>
+        <v>0.001714128784925606</v>
       </c>
       <c r="J22">
-        <v>0.3384907378269446</v>
+        <v>0.241371904155038</v>
       </c>
       <c r="K22">
-        <v>0.377032810834681</v>
+        <v>0.3248054565189875</v>
       </c>
       <c r="L22">
-        <v>0.1180202736044649</v>
+        <v>0.1377898204668035</v>
       </c>
       <c r="M22">
-        <v>1.469922339392269</v>
+        <v>0.1146243613305344</v>
       </c>
       <c r="N22">
-        <v>0.4457515083746557</v>
+        <v>0.1095344875246518</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.440960602202381</v>
       </c>
       <c r="P22">
-        <v>0.7795418366529852</v>
+        <v>0.466073529536132</v>
       </c>
       <c r="Q22">
-        <v>1.539653138368607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.789798301151599</v>
+      </c>
+      <c r="S22">
+        <v>1.342149430005065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.694099610991174</v>
+        <v>1.602191299673052</v>
       </c>
       <c r="C23">
-        <v>0.1625951212253085</v>
+        <v>0.1610592760100928</v>
       </c>
       <c r="D23">
-        <v>0.2195751036344831</v>
+        <v>0.2267564232216159</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7351633903016932</v>
+        <v>0.6682271407498561</v>
       </c>
       <c r="G23">
-        <v>0.411544142205301</v>
+        <v>0.4433950597399701</v>
       </c>
       <c r="H23">
-        <v>0.0002043940542717504</v>
+        <v>0.0001514720065360908</v>
       </c>
       <c r="I23">
-        <v>0.001343358230048608</v>
+        <v>0.001538347961557385</v>
       </c>
       <c r="J23">
-        <v>0.3377559292471659</v>
+        <v>0.2625522789642005</v>
       </c>
       <c r="K23">
-        <v>0.3765772457961667</v>
+        <v>0.3284711010123367</v>
       </c>
       <c r="L23">
-        <v>0.1161769936403303</v>
+        <v>0.1404995914914711</v>
       </c>
       <c r="M23">
-        <v>1.417335283819227</v>
+        <v>0.1137301472349677</v>
       </c>
       <c r="N23">
-        <v>0.4311956928004008</v>
+        <v>0.1080133315199632</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.396489489990358</v>
       </c>
       <c r="P23">
-        <v>0.7886824239545547</v>
+        <v>0.4510683047227815</v>
       </c>
       <c r="Q23">
-        <v>1.52770914140234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7945611421260992</v>
+      </c>
+      <c r="S23">
+        <v>1.353900450354459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.455353747468934</v>
+        <v>1.390522355664416</v>
       </c>
       <c r="C24">
-        <v>0.1523193662530389</v>
+        <v>0.1503463447674704</v>
       </c>
       <c r="D24">
-        <v>0.1938291631450682</v>
+        <v>0.1959279885385286</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6969801119203964</v>
+        <v>0.654181015874336</v>
       </c>
       <c r="G24">
-        <v>0.3923245953258245</v>
+        <v>0.3560487388074449</v>
       </c>
       <c r="H24">
-        <v>0.001003997956252833</v>
+        <v>0.0007915921484276112</v>
       </c>
       <c r="I24">
-        <v>0.001811472559069216</v>
+        <v>0.001750620724731533</v>
       </c>
       <c r="J24">
-        <v>0.3346513609044806</v>
+        <v>0.3330707085018076</v>
       </c>
       <c r="K24">
-        <v>0.373821490482694</v>
+        <v>0.3372009336547208</v>
       </c>
       <c r="L24">
-        <v>0.1088064300930043</v>
+        <v>0.1495094053054942</v>
       </c>
       <c r="M24">
-        <v>1.218219111609443</v>
+        <v>0.1085778125179679</v>
       </c>
       <c r="N24">
-        <v>0.3771061339532906</v>
+        <v>0.1018756800312168</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.217377573482736</v>
       </c>
       <c r="P24">
-        <v>0.8251169832537784</v>
+        <v>0.394962694825935</v>
       </c>
       <c r="Q24">
-        <v>1.480080963945468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.8187757865805558</v>
+      </c>
+      <c r="S24">
+        <v>1.369841118172488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.197136943250797</v>
+        <v>1.149406851189923</v>
       </c>
       <c r="C25">
-        <v>0.1412836329349076</v>
+        <v>0.1351682610794214</v>
       </c>
       <c r="D25">
-        <v>0.1662316094973164</v>
+        <v>0.1677849079635223</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6579659889332845</v>
+        <v>0.6228342883441798</v>
       </c>
       <c r="G25">
-        <v>0.3732824245574875</v>
+        <v>0.3368141382819374</v>
       </c>
       <c r="H25">
-        <v>0.002637370808540096</v>
+        <v>0.002175056810904352</v>
       </c>
       <c r="I25">
-        <v>0.003067559618859406</v>
+        <v>0.002625370507952418</v>
       </c>
       <c r="J25">
-        <v>0.3323652895557956</v>
+        <v>0.3372575697203146</v>
       </c>
       <c r="K25">
-        <v>0.3719346799700212</v>
+        <v>0.339419568546262</v>
       </c>
       <c r="L25">
-        <v>0.1007299453862913</v>
+        <v>0.1570877675876297</v>
       </c>
       <c r="M25">
-        <v>1.003317948759559</v>
+        <v>0.1015928346282884</v>
       </c>
       <c r="N25">
-        <v>0.3190570971536317</v>
+        <v>0.09501328486208749</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.004374671093785</v>
       </c>
       <c r="P25">
-        <v>0.8669243494585963</v>
+        <v>0.3341021269747131</v>
       </c>
       <c r="Q25">
-        <v>1.434488152723333</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8533626619234447</v>
+      </c>
+      <c r="S25">
+        <v>1.342211738069352</v>
       </c>
     </row>
   </sheetData>
